--- a/BackTest/2019-11-14 BackTest BAT.xlsx
+++ b/BackTest/2019-11-14 BackTest BAT.xlsx
@@ -451,17 +451,13 @@
         <v>289.3</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>295</v>
-      </c>
-      <c r="K2" t="n">
-        <v>295</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>289.4833333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>295</v>
-      </c>
-      <c r="K3" t="n">
-        <v>295</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>289.6666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>295</v>
-      </c>
-      <c r="K4" t="n">
-        <v>295</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>289.85</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>296</v>
-      </c>
-      <c r="K5" t="n">
-        <v>295</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>290</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>294</v>
-      </c>
-      <c r="K6" t="n">
-        <v>295</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>290.1833333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>295</v>
-      </c>
-      <c r="K7" t="n">
-        <v>295</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>290.3333333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>295</v>
-      </c>
-      <c r="K8" t="n">
-        <v>295</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>290.5</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>295</v>
-      </c>
-      <c r="K9" t="n">
-        <v>295</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>290.6666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>296</v>
-      </c>
-      <c r="K10" t="n">
-        <v>295</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,22 +766,14 @@
         <v>290.8666666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>297</v>
-      </c>
-      <c r="K11" t="n">
-        <v>295</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -877,22 +801,14 @@
         <v>291.0666666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>298</v>
-      </c>
-      <c r="K12" t="n">
-        <v>295</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -920,22 +836,14 @@
         <v>291.2666666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>298</v>
-      </c>
-      <c r="K13" t="n">
-        <v>295</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -963,22 +871,14 @@
         <v>291.4666666666666</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>298</v>
-      </c>
-      <c r="K14" t="n">
-        <v>295</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1006,22 +906,14 @@
         <v>291.7166666666666</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>300</v>
-      </c>
-      <c r="K15" t="n">
-        <v>295</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1055,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>295</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1096,16 +982,10 @@
         <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>295</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
-        <v>1.005169491525424</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1134,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1169,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1204,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1271,17 +1151,13 @@
         <v>293.1166666666667</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>296</v>
-      </c>
-      <c r="K22" t="n">
-        <v>296</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
@@ -1310,1003 +1186,859 @@
         <v>293.3</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>295</v>
-      </c>
-      <c r="K23" t="n">
-        <v>296</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>294</v>
+      </c>
+      <c r="C24" t="n">
+        <v>294</v>
+      </c>
+      <c r="D24" t="n">
+        <v>294</v>
+      </c>
+      <c r="E24" t="n">
+        <v>294</v>
+      </c>
+      <c r="F24" t="n">
+        <v>16479.085</v>
+      </c>
+      <c r="G24" t="n">
+        <v>293.4666666666666</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>294</v>
+      </c>
+      <c r="C25" t="n">
+        <v>294</v>
+      </c>
+      <c r="D25" t="n">
+        <v>294</v>
+      </c>
+      <c r="E25" t="n">
+        <v>294</v>
+      </c>
+      <c r="F25" t="n">
+        <v>409.049</v>
+      </c>
+      <c r="G25" t="n">
+        <v>293.6166666666667</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>294</v>
+      </c>
+      <c r="C26" t="n">
+        <v>294</v>
+      </c>
+      <c r="D26" t="n">
+        <v>294</v>
+      </c>
+      <c r="E26" t="n">
+        <v>294</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1636.7484</v>
+      </c>
+      <c r="G26" t="n">
+        <v>293.7833333333334</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>295</v>
+      </c>
+      <c r="C27" t="n">
+        <v>295</v>
+      </c>
+      <c r="D27" t="n">
+        <v>295</v>
+      </c>
+      <c r="E27" t="n">
+        <v>295</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3230</v>
+      </c>
+      <c r="G27" t="n">
+        <v>293.9333333333333</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>295</v>
+      </c>
+      <c r="C28" t="n">
+        <v>295</v>
+      </c>
+      <c r="D28" t="n">
+        <v>295</v>
+      </c>
+      <c r="E28" t="n">
+        <v>295</v>
+      </c>
+      <c r="F28" t="n">
+        <v>30.1517</v>
+      </c>
+      <c r="G28" t="n">
+        <v>294.0666666666667</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>295</v>
+      </c>
+      <c r="C29" t="n">
+        <v>295</v>
+      </c>
+      <c r="D29" t="n">
+        <v>295</v>
+      </c>
+      <c r="E29" t="n">
+        <v>295</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1730</v>
+      </c>
+      <c r="G29" t="n">
+        <v>294.1833333333333</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>295</v>
+      </c>
+      <c r="C30" t="n">
+        <v>295</v>
+      </c>
+      <c r="D30" t="n">
+        <v>295</v>
+      </c>
+      <c r="E30" t="n">
+        <v>295</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4449.4956</v>
+      </c>
+      <c r="G30" t="n">
+        <v>294.2833333333334</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>295</v>
+      </c>
+      <c r="C31" t="n">
+        <v>295</v>
+      </c>
+      <c r="D31" t="n">
+        <v>295</v>
+      </c>
+      <c r="E31" t="n">
+        <v>294</v>
+      </c>
+      <c r="F31" t="n">
+        <v>7985.1315</v>
+      </c>
+      <c r="G31" t="n">
+        <v>294.3833333333333</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>295</v>
+      </c>
+      <c r="C32" t="n">
+        <v>295</v>
+      </c>
+      <c r="D32" t="n">
+        <v>295</v>
+      </c>
+      <c r="E32" t="n">
+        <v>295</v>
+      </c>
+      <c r="F32" t="n">
+        <v>8875.309499999999</v>
+      </c>
+      <c r="G32" t="n">
+        <v>294.4666666666666</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>296</v>
+      </c>
+      <c r="C33" t="n">
+        <v>296</v>
+      </c>
+      <c r="D33" t="n">
+        <v>296</v>
+      </c>
+      <c r="E33" t="n">
+        <v>296</v>
+      </c>
+      <c r="F33" t="n">
+        <v>215</v>
+      </c>
+      <c r="G33" t="n">
+        <v>294.5666666666667</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>296</v>
+      </c>
+      <c r="C34" t="n">
+        <v>296</v>
+      </c>
+      <c r="D34" t="n">
+        <v>296</v>
+      </c>
+      <c r="E34" t="n">
+        <v>296</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.1173</v>
+      </c>
+      <c r="G34" t="n">
+        <v>294.7</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>296</v>
+      </c>
+      <c r="C35" t="n">
+        <v>296</v>
+      </c>
+      <c r="D35" t="n">
+        <v>296</v>
+      </c>
+      <c r="E35" t="n">
+        <v>296</v>
+      </c>
+      <c r="F35" t="n">
+        <v>683</v>
+      </c>
+      <c r="G35" t="n">
+        <v>294.8333333333333</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>295</v>
+      </c>
+      <c r="C36" t="n">
+        <v>295</v>
+      </c>
+      <c r="D36" t="n">
+        <v>295</v>
+      </c>
+      <c r="E36" t="n">
+        <v>295</v>
+      </c>
+      <c r="F36" t="n">
+        <v>250</v>
+      </c>
+      <c r="G36" t="n">
+        <v>294.9666666666666</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>296</v>
+      </c>
+      <c r="C37" t="n">
+        <v>296</v>
+      </c>
+      <c r="D37" t="n">
+        <v>296</v>
+      </c>
+      <c r="E37" t="n">
+        <v>296</v>
+      </c>
+      <c r="F37" t="n">
+        <v>201</v>
+      </c>
+      <c r="G37" t="n">
+        <v>295.0666666666667</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>296</v>
+      </c>
+      <c r="C38" t="n">
+        <v>296</v>
+      </c>
+      <c r="D38" t="n">
+        <v>296</v>
+      </c>
+      <c r="E38" t="n">
+        <v>296</v>
+      </c>
+      <c r="F38" t="n">
+        <v>402</v>
+      </c>
+      <c r="G38" t="n">
+        <v>295.1666666666667</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>296</v>
+      </c>
+      <c r="C39" t="n">
+        <v>296</v>
+      </c>
+      <c r="D39" t="n">
+        <v>296</v>
+      </c>
+      <c r="E39" t="n">
+        <v>296</v>
+      </c>
+      <c r="F39" t="n">
+        <v>597</v>
+      </c>
+      <c r="G39" t="n">
+        <v>295.2666666666667</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>295</v>
+      </c>
+      <c r="C40" t="n">
+        <v>295</v>
+      </c>
+      <c r="D40" t="n">
+        <v>295</v>
+      </c>
+      <c r="E40" t="n">
+        <v>295</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3398.98</v>
+      </c>
+      <c r="G40" t="n">
+        <v>295.3166666666667</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>296</v>
+      </c>
+      <c r="C41" t="n">
+        <v>296</v>
+      </c>
+      <c r="D41" t="n">
+        <v>296</v>
+      </c>
+      <c r="E41" t="n">
+        <v>296</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2588.6612</v>
+      </c>
+      <c r="G41" t="n">
+        <v>295.3833333333333</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>295</v>
+      </c>
+      <c r="K41" t="n">
+        <v>295</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>296</v>
+      </c>
+      <c r="C42" t="n">
+        <v>296</v>
+      </c>
+      <c r="D42" t="n">
+        <v>296</v>
+      </c>
+      <c r="E42" t="n">
+        <v>296</v>
+      </c>
+      <c r="F42" t="n">
+        <v>5792.7749</v>
+      </c>
+      <c r="G42" t="n">
+        <v>295.45</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>296</v>
+      </c>
+      <c r="K42" t="n">
+        <v>295</v>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>294</v>
-      </c>
-      <c r="C24" t="n">
-        <v>294</v>
-      </c>
-      <c r="D24" t="n">
-        <v>294</v>
-      </c>
-      <c r="E24" t="n">
-        <v>294</v>
-      </c>
-      <c r="F24" t="n">
-        <v>16479.085</v>
-      </c>
-      <c r="G24" t="n">
-        <v>293.4666666666666</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>294</v>
-      </c>
-      <c r="K24" t="n">
-        <v>296</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>296</v>
+      </c>
+      <c r="C43" t="n">
+        <v>296</v>
+      </c>
+      <c r="D43" t="n">
+        <v>296</v>
+      </c>
+      <c r="E43" t="n">
+        <v>296</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3653.4303</v>
+      </c>
+      <c r="G43" t="n">
+        <v>295.5166666666667</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>296</v>
+      </c>
+      <c r="K43" t="n">
+        <v>295</v>
+      </c>
+      <c r="L43" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>294</v>
-      </c>
-      <c r="C25" t="n">
-        <v>294</v>
-      </c>
-      <c r="D25" t="n">
-        <v>294</v>
-      </c>
-      <c r="E25" t="n">
-        <v>294</v>
-      </c>
-      <c r="F25" t="n">
-        <v>409.049</v>
-      </c>
-      <c r="G25" t="n">
-        <v>293.6166666666667</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>294</v>
-      </c>
-      <c r="K25" t="n">
-        <v>294</v>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>294</v>
-      </c>
-      <c r="C26" t="n">
-        <v>294</v>
-      </c>
-      <c r="D26" t="n">
-        <v>294</v>
-      </c>
-      <c r="E26" t="n">
-        <v>294</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1636.7484</v>
-      </c>
-      <c r="G26" t="n">
-        <v>293.7833333333334</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>294</v>
-      </c>
-      <c r="K26" t="n">
-        <v>294</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>297</v>
+      </c>
+      <c r="C44" t="n">
+        <v>298</v>
+      </c>
+      <c r="D44" t="n">
+        <v>298</v>
+      </c>
+      <c r="E44" t="n">
+        <v>297</v>
+      </c>
+      <c r="F44" t="n">
+        <v>695.2283</v>
+      </c>
+      <c r="G44" t="n">
+        <v>295.5833333333333</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>296</v>
+      </c>
+      <c r="K44" t="n">
+        <v>296</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>298</v>
+      </c>
+      <c r="C45" t="n">
+        <v>298</v>
+      </c>
+      <c r="D45" t="n">
+        <v>298</v>
+      </c>
+      <c r="E45" t="n">
+        <v>298</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2833.9595</v>
+      </c>
+      <c r="G45" t="n">
+        <v>295.65</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>298</v>
+      </c>
+      <c r="K45" t="n">
+        <v>296</v>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>295</v>
-      </c>
-      <c r="C27" t="n">
-        <v>295</v>
-      </c>
-      <c r="D27" t="n">
-        <v>295</v>
-      </c>
-      <c r="E27" t="n">
-        <v>295</v>
-      </c>
-      <c r="F27" t="n">
-        <v>3230</v>
-      </c>
-      <c r="G27" t="n">
-        <v>293.9333333333333</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>295</v>
-      </c>
-      <c r="K27" t="n">
-        <v>294</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>298</v>
+      </c>
+      <c r="C46" t="n">
+        <v>298</v>
+      </c>
+      <c r="D46" t="n">
+        <v>298</v>
+      </c>
+      <c r="E46" t="n">
+        <v>298</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2330.8657</v>
+      </c>
+      <c r="G46" t="n">
+        <v>295.7166666666666</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>298</v>
+      </c>
+      <c r="K46" t="n">
+        <v>296</v>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>295</v>
-      </c>
-      <c r="C28" t="n">
-        <v>295</v>
-      </c>
-      <c r="D28" t="n">
-        <v>295</v>
-      </c>
-      <c r="E28" t="n">
-        <v>295</v>
-      </c>
-      <c r="F28" t="n">
-        <v>30.1517</v>
-      </c>
-      <c r="G28" t="n">
-        <v>294.0666666666667</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>295</v>
-      </c>
-      <c r="K28" t="n">
-        <v>295</v>
-      </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>295</v>
-      </c>
-      <c r="C29" t="n">
-        <v>295</v>
-      </c>
-      <c r="D29" t="n">
-        <v>295</v>
-      </c>
-      <c r="E29" t="n">
-        <v>295</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1730</v>
-      </c>
-      <c r="G29" t="n">
-        <v>294.1833333333333</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>295</v>
-      </c>
-      <c r="K29" t="n">
-        <v>295</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>295</v>
-      </c>
-      <c r="C30" t="n">
-        <v>295</v>
-      </c>
-      <c r="D30" t="n">
-        <v>295</v>
-      </c>
-      <c r="E30" t="n">
-        <v>295</v>
-      </c>
-      <c r="F30" t="n">
-        <v>4449.4956</v>
-      </c>
-      <c r="G30" t="n">
-        <v>294.2833333333334</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>295</v>
-      </c>
-      <c r="K30" t="n">
-        <v>295</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>295</v>
-      </c>
-      <c r="C31" t="n">
-        <v>295</v>
-      </c>
-      <c r="D31" t="n">
-        <v>295</v>
-      </c>
-      <c r="E31" t="n">
-        <v>294</v>
-      </c>
-      <c r="F31" t="n">
-        <v>7985.1315</v>
-      </c>
-      <c r="G31" t="n">
-        <v>294.3833333333333</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>295</v>
-      </c>
-      <c r="K31" t="n">
-        <v>295</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>295</v>
-      </c>
-      <c r="C32" t="n">
-        <v>295</v>
-      </c>
-      <c r="D32" t="n">
-        <v>295</v>
-      </c>
-      <c r="E32" t="n">
-        <v>295</v>
-      </c>
-      <c r="F32" t="n">
-        <v>8875.309499999999</v>
-      </c>
-      <c r="G32" t="n">
-        <v>294.4666666666666</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>295</v>
-      </c>
-      <c r="K32" t="n">
-        <v>295</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>296</v>
-      </c>
-      <c r="C33" t="n">
-        <v>296</v>
-      </c>
-      <c r="D33" t="n">
-        <v>296</v>
-      </c>
-      <c r="E33" t="n">
-        <v>296</v>
-      </c>
-      <c r="F33" t="n">
-        <v>215</v>
-      </c>
-      <c r="G33" t="n">
-        <v>294.5666666666667</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>296</v>
-      </c>
-      <c r="K33" t="n">
-        <v>295</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>296</v>
-      </c>
-      <c r="C34" t="n">
-        <v>296</v>
-      </c>
-      <c r="D34" t="n">
-        <v>296</v>
-      </c>
-      <c r="E34" t="n">
-        <v>296</v>
-      </c>
-      <c r="F34" t="n">
-        <v>2.1173</v>
-      </c>
-      <c r="G34" t="n">
-        <v>294.7</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>296</v>
-      </c>
-      <c r="K34" t="n">
-        <v>295</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>296</v>
-      </c>
-      <c r="C35" t="n">
-        <v>296</v>
-      </c>
-      <c r="D35" t="n">
-        <v>296</v>
-      </c>
-      <c r="E35" t="n">
-        <v>296</v>
-      </c>
-      <c r="F35" t="n">
-        <v>683</v>
-      </c>
-      <c r="G35" t="n">
-        <v>294.8333333333333</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>296</v>
-      </c>
-      <c r="K35" t="n">
-        <v>295</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>295</v>
-      </c>
-      <c r="C36" t="n">
-        <v>295</v>
-      </c>
-      <c r="D36" t="n">
-        <v>295</v>
-      </c>
-      <c r="E36" t="n">
-        <v>295</v>
-      </c>
-      <c r="F36" t="n">
-        <v>250</v>
-      </c>
-      <c r="G36" t="n">
-        <v>294.9666666666666</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>295</v>
-      </c>
-      <c r="K36" t="n">
-        <v>295</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>296</v>
-      </c>
-      <c r="C37" t="n">
-        <v>296</v>
-      </c>
-      <c r="D37" t="n">
-        <v>296</v>
-      </c>
-      <c r="E37" t="n">
-        <v>296</v>
-      </c>
-      <c r="F37" t="n">
-        <v>201</v>
-      </c>
-      <c r="G37" t="n">
-        <v>295.0666666666667</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>296</v>
-      </c>
-      <c r="K37" t="n">
-        <v>295</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>296</v>
-      </c>
-      <c r="C38" t="n">
-        <v>296</v>
-      </c>
-      <c r="D38" t="n">
-        <v>296</v>
-      </c>
-      <c r="E38" t="n">
-        <v>296</v>
-      </c>
-      <c r="F38" t="n">
-        <v>402</v>
-      </c>
-      <c r="G38" t="n">
-        <v>295.1666666666667</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>296</v>
-      </c>
-      <c r="K38" t="n">
-        <v>295</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>296</v>
-      </c>
-      <c r="C39" t="n">
-        <v>296</v>
-      </c>
-      <c r="D39" t="n">
-        <v>296</v>
-      </c>
-      <c r="E39" t="n">
-        <v>296</v>
-      </c>
-      <c r="F39" t="n">
-        <v>597</v>
-      </c>
-      <c r="G39" t="n">
-        <v>295.2666666666667</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>296</v>
-      </c>
-      <c r="K39" t="n">
-        <v>295</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>295</v>
-      </c>
-      <c r="C40" t="n">
-        <v>295</v>
-      </c>
-      <c r="D40" t="n">
-        <v>295</v>
-      </c>
-      <c r="E40" t="n">
-        <v>295</v>
-      </c>
-      <c r="F40" t="n">
-        <v>3398.98</v>
-      </c>
-      <c r="G40" t="n">
-        <v>295.3166666666667</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>295</v>
-      </c>
-      <c r="K40" t="n">
-        <v>295</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>296</v>
-      </c>
-      <c r="C41" t="n">
-        <v>296</v>
-      </c>
-      <c r="D41" t="n">
-        <v>296</v>
-      </c>
-      <c r="E41" t="n">
-        <v>296</v>
-      </c>
-      <c r="F41" t="n">
-        <v>2588.6612</v>
-      </c>
-      <c r="G41" t="n">
-        <v>295.3833333333333</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>296</v>
-      </c>
-      <c r="K41" t="n">
-        <v>295</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>296</v>
-      </c>
-      <c r="C42" t="n">
-        <v>296</v>
-      </c>
-      <c r="D42" t="n">
-        <v>296</v>
-      </c>
-      <c r="E42" t="n">
-        <v>296</v>
-      </c>
-      <c r="F42" t="n">
-        <v>5792.7749</v>
-      </c>
-      <c r="G42" t="n">
-        <v>295.45</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>296</v>
-      </c>
-      <c r="K42" t="n">
-        <v>295</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>296</v>
-      </c>
-      <c r="C43" t="n">
-        <v>296</v>
-      </c>
-      <c r="D43" t="n">
-        <v>296</v>
-      </c>
-      <c r="E43" t="n">
-        <v>296</v>
-      </c>
-      <c r="F43" t="n">
-        <v>3653.4303</v>
-      </c>
-      <c r="G43" t="n">
-        <v>295.5166666666667</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>296</v>
-      </c>
-      <c r="K43" t="n">
-        <v>295</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>297</v>
-      </c>
-      <c r="C44" t="n">
-        <v>298</v>
-      </c>
-      <c r="D44" t="n">
-        <v>298</v>
-      </c>
-      <c r="E44" t="n">
-        <v>297</v>
-      </c>
-      <c r="F44" t="n">
-        <v>695.2283</v>
-      </c>
-      <c r="G44" t="n">
-        <v>295.5833333333333</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>297</v>
-      </c>
-      <c r="K44" t="n">
-        <v>295</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>298</v>
-      </c>
-      <c r="C45" t="n">
-        <v>298</v>
-      </c>
-      <c r="D45" t="n">
-        <v>298</v>
-      </c>
-      <c r="E45" t="n">
-        <v>298</v>
-      </c>
-      <c r="F45" t="n">
-        <v>2833.9595</v>
-      </c>
-      <c r="G45" t="n">
-        <v>295.65</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>298</v>
-      </c>
-      <c r="K45" t="n">
-        <v>295</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>298</v>
-      </c>
-      <c r="C46" t="n">
-        <v>298</v>
-      </c>
-      <c r="D46" t="n">
-        <v>298</v>
-      </c>
-      <c r="E46" t="n">
-        <v>298</v>
-      </c>
-      <c r="F46" t="n">
-        <v>2330.8657</v>
-      </c>
-      <c r="G46" t="n">
-        <v>295.7166666666666</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>298</v>
-      </c>
-      <c r="K46" t="n">
-        <v>295</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2340,14 +2072,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>295</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2381,14 +2107,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>295</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2422,14 +2142,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>295</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2463,14 +2177,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>295</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2504,14 +2212,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>295</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2545,14 +2247,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>295</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2583,17 +2279,11 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>295</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2627,14 +2317,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>295</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2668,14 +2352,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>295</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2709,14 +2387,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>295</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2750,14 +2422,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>295</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2791,14 +2457,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>295</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2832,14 +2492,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>295</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2873,14 +2527,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>295</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2914,14 +2562,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>295</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2955,14 +2597,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>295</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2996,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>295</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3037,14 +2667,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>295</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3078,14 +2702,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>295</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3119,14 +2737,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>295</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3160,14 +2772,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>295</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3201,14 +2807,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>295</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3242,14 +2842,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>295</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3283,14 +2877,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>295</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3324,14 +2912,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>295</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3365,14 +2947,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>295</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3406,14 +2982,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>295</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3447,14 +3017,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>295</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3488,14 +3052,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>295</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3529,14 +3087,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>295</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3570,14 +3122,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>295</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3611,14 +3157,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>295</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3652,14 +3192,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>295</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3693,14 +3227,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>295</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3734,14 +3262,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>295</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3775,14 +3297,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>295</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3816,14 +3332,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>295</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3857,14 +3367,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>295</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3898,14 +3402,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>295</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3939,14 +3437,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>295</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3980,14 +3472,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>295</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4021,14 +3507,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>295</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4062,14 +3542,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>295</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4103,14 +3577,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>295</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4144,14 +3612,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>295</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4185,14 +3647,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>295</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4226,14 +3682,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>295</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4267,14 +3717,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>295</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4308,14 +3752,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>295</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4349,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>295</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4390,14 +3822,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>295</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4431,14 +3857,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>295</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4472,14 +3892,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>295</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4513,14 +3927,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>295</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4554,14 +3962,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>295</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4595,14 +3997,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>295</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4636,14 +4032,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>295</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4677,14 +4067,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>295</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4718,14 +4102,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>295</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4759,14 +4137,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>295</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4800,14 +4172,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>295</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4841,14 +4207,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>295</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-14 BackTest BAT.xlsx
+++ b/BackTest/2019-11-14 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>295</v>
       </c>
       <c r="F2" t="n">
-        <v>11.6152</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>289.3</v>
+        <v>289.1166666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>295</v>
       </c>
       <c r="F3" t="n">
-        <v>800</v>
+        <v>11.6152</v>
       </c>
       <c r="G3" t="n">
-        <v>289.4833333333333</v>
+        <v>289.3</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>295</v>
       </c>
       <c r="F4" t="n">
-        <v>491.9965</v>
+        <v>800</v>
       </c>
       <c r="G4" t="n">
-        <v>289.6666666666667</v>
+        <v>289.4833333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C5" t="n">
         <v>295</v>
       </c>
       <c r="D5" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E5" t="n">
         <v>295</v>
       </c>
       <c r="F5" t="n">
-        <v>1390.6297</v>
+        <v>491.9965</v>
       </c>
       <c r="G5" t="n">
-        <v>289.85</v>
+        <v>289.6666666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C6" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D6" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E6" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>1390.6297</v>
       </c>
       <c r="G6" t="n">
-        <v>290</v>
+        <v>289.85</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C7" t="n">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D7" t="n">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E7" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F7" t="n">
-        <v>675</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>290.1833333333333</v>
+        <v>290</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>295</v>
       </c>
       <c r="C8" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D8" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E8" t="n">
         <v>295</v>
       </c>
       <c r="F8" t="n">
-        <v>81.7217</v>
+        <v>675</v>
       </c>
       <c r="G8" t="n">
-        <v>290.3333333333333</v>
+        <v>290.1833333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>295</v>
       </c>
       <c r="C9" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D9" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E9" t="n">
         <v>295</v>
       </c>
       <c r="F9" t="n">
-        <v>1.7</v>
+        <v>81.7217</v>
       </c>
       <c r="G9" t="n">
-        <v>290.5</v>
+        <v>290.3333333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C10" t="n">
         <v>296</v>
@@ -722,13 +722,13 @@
         <v>296</v>
       </c>
       <c r="E10" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F10" t="n">
-        <v>21.186</v>
+        <v>1.7</v>
       </c>
       <c r="G10" t="n">
-        <v>290.6666666666667</v>
+        <v>290.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C11" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D11" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E11" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F11" t="n">
-        <v>278.2428</v>
+        <v>21.186</v>
       </c>
       <c r="G11" t="n">
-        <v>290.8666666666667</v>
+        <v>290.6666666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C12" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D12" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E12" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F12" t="n">
-        <v>1.7</v>
+        <v>278.2428</v>
       </c>
       <c r="G12" t="n">
-        <v>291.0666666666667</v>
+        <v>290.8666666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>298</v>
       </c>
       <c r="F13" t="n">
-        <v>89.0528</v>
+        <v>1.7</v>
       </c>
       <c r="G13" t="n">
-        <v>291.2666666666667</v>
+        <v>291.0666666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>298</v>
       </c>
       <c r="F14" t="n">
-        <v>35.009</v>
+        <v>89.0528</v>
       </c>
       <c r="G14" t="n">
-        <v>291.4666666666666</v>
+        <v>291.2666666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,28 +888,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D15" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E15" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F15" t="n">
-        <v>16570.1232</v>
+        <v>35.009</v>
       </c>
       <c r="G15" t="n">
-        <v>291.7166666666666</v>
+        <v>291.4666666666666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C16" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D16" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E16" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F16" t="n">
-        <v>479.937</v>
+        <v>16570.1232</v>
       </c>
       <c r="G16" t="n">
-        <v>291.9333333333333</v>
+        <v>291.7166666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>298</v>
       </c>
       <c r="F17" t="n">
-        <v>12.0232</v>
+        <v>479.937</v>
       </c>
       <c r="G17" t="n">
-        <v>292.1666666666667</v>
+        <v>291.9333333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,28 +993,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C18" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D18" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E18" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F18" t="n">
-        <v>3396.47</v>
+        <v>12.0232</v>
       </c>
       <c r="G18" t="n">
-        <v>292.35</v>
+        <v>292.1666666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1031,25 +1031,25 @@
         <v>297</v>
       </c>
       <c r="C19" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D19" t="n">
         <v>297</v>
       </c>
       <c r="E19" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F19" t="n">
-        <v>12.0232</v>
+        <v>3396.47</v>
       </c>
       <c r="G19" t="n">
-        <v>292.55</v>
+        <v>292.35</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1063,28 +1063,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C20" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D20" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E20" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F20" t="n">
-        <v>7118.6412</v>
+        <v>12.0232</v>
       </c>
       <c r="G20" t="n">
-        <v>292.7166666666666</v>
+        <v>292.55</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1110,10 +1110,10 @@
         <v>296</v>
       </c>
       <c r="F21" t="n">
-        <v>100</v>
+        <v>7118.6412</v>
       </c>
       <c r="G21" t="n">
-        <v>292.9333333333333</v>
+        <v>292.7166666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>296</v>
       </c>
       <c r="F22" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G22" t="n">
-        <v>293.1166666666667</v>
+        <v>292.9333333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C23" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D23" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E23" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F23" t="n">
-        <v>12.2286</v>
+        <v>300</v>
       </c>
       <c r="G23" t="n">
-        <v>293.3</v>
+        <v>293.1166666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C24" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D24" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E24" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F24" t="n">
-        <v>16479.085</v>
+        <v>12.2286</v>
       </c>
       <c r="G24" t="n">
-        <v>293.4666666666666</v>
+        <v>293.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>294</v>
       </c>
       <c r="F25" t="n">
-        <v>409.049</v>
+        <v>16479.085</v>
       </c>
       <c r="G25" t="n">
-        <v>293.6166666666667</v>
+        <v>293.4666666666666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>294</v>
       </c>
       <c r="F26" t="n">
-        <v>1636.7484</v>
+        <v>409.049</v>
       </c>
       <c r="G26" t="n">
-        <v>293.7833333333334</v>
+        <v>293.6166666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C27" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D27" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E27" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F27" t="n">
-        <v>3230</v>
+        <v>1636.7484</v>
       </c>
       <c r="G27" t="n">
-        <v>293.9333333333333</v>
+        <v>293.7833333333334</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,19 +1355,23 @@
         <v>295</v>
       </c>
       <c r="F28" t="n">
-        <v>30.1517</v>
+        <v>3230</v>
       </c>
       <c r="G28" t="n">
-        <v>294.0666666666667</v>
+        <v>293.9333333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>294</v>
+      </c>
+      <c r="K28" t="n">
+        <v>294</v>
+      </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
@@ -1390,20 +1394,28 @@
         <v>295</v>
       </c>
       <c r="F29" t="n">
-        <v>1730</v>
+        <v>30.1517</v>
       </c>
       <c r="G29" t="n">
-        <v>294.1833333333333</v>
+        <v>294.0666666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>295</v>
+      </c>
+      <c r="K29" t="n">
+        <v>294</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1425,20 +1437,28 @@
         <v>295</v>
       </c>
       <c r="F30" t="n">
-        <v>4449.4956</v>
+        <v>1730</v>
       </c>
       <c r="G30" t="n">
-        <v>294.2833333333334</v>
+        <v>294.1833333333333</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>295</v>
+      </c>
+      <c r="K30" t="n">
+        <v>294</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1457,13 +1477,13 @@
         <v>295</v>
       </c>
       <c r="E31" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F31" t="n">
-        <v>7985.1315</v>
+        <v>4449.4956</v>
       </c>
       <c r="G31" t="n">
-        <v>294.3833333333333</v>
+        <v>294.2833333333334</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1492,13 +1512,13 @@
         <v>295</v>
       </c>
       <c r="E32" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F32" t="n">
-        <v>8875.309499999999</v>
+        <v>7985.1315</v>
       </c>
       <c r="G32" t="n">
-        <v>294.4666666666666</v>
+        <v>294.3833333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1538,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C33" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D33" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E33" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F33" t="n">
-        <v>215</v>
+        <v>8875.309499999999</v>
       </c>
       <c r="G33" t="n">
-        <v>294.5666666666667</v>
+        <v>294.4666666666666</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1585,10 @@
         <v>296</v>
       </c>
       <c r="F34" t="n">
-        <v>2.1173</v>
+        <v>215</v>
       </c>
       <c r="G34" t="n">
-        <v>294.7</v>
+        <v>294.5666666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1620,10 @@
         <v>296</v>
       </c>
       <c r="F35" t="n">
-        <v>683</v>
+        <v>2.1173</v>
       </c>
       <c r="G35" t="n">
-        <v>294.8333333333333</v>
+        <v>294.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1643,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C36" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D36" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E36" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F36" t="n">
-        <v>250</v>
+        <v>683</v>
       </c>
       <c r="G36" t="n">
-        <v>294.9666666666666</v>
+        <v>294.8333333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1678,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C37" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D37" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E37" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F37" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="G37" t="n">
-        <v>295.0666666666667</v>
+        <v>294.9666666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1725,10 @@
         <v>296</v>
       </c>
       <c r="F38" t="n">
-        <v>402</v>
+        <v>201</v>
       </c>
       <c r="G38" t="n">
-        <v>295.1666666666667</v>
+        <v>295.0666666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1760,10 @@
         <v>296</v>
       </c>
       <c r="F39" t="n">
-        <v>597</v>
+        <v>402</v>
       </c>
       <c r="G39" t="n">
-        <v>295.2666666666667</v>
+        <v>295.1666666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1783,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C40" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D40" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E40" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F40" t="n">
-        <v>3398.98</v>
+        <v>597</v>
       </c>
       <c r="G40" t="n">
-        <v>295.3166666666667</v>
+        <v>295.2666666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,35 +1818,31 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C41" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D41" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E41" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F41" t="n">
-        <v>2588.6612</v>
+        <v>3398.98</v>
       </c>
       <c r="G41" t="n">
-        <v>295.3833333333333</v>
+        <v>295.3166666666667</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>295</v>
-      </c>
-      <c r="K41" t="n">
-        <v>295</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
@@ -1849,28 +1865,20 @@
         <v>296</v>
       </c>
       <c r="F42" t="n">
-        <v>5792.7749</v>
+        <v>2588.6612</v>
       </c>
       <c r="G42" t="n">
-        <v>295.45</v>
+        <v>295.3833333333333</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>296</v>
-      </c>
-      <c r="K42" t="n">
-        <v>295</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1892,28 +1900,20 @@
         <v>296</v>
       </c>
       <c r="F43" t="n">
-        <v>3653.4303</v>
+        <v>5792.7749</v>
       </c>
       <c r="G43" t="n">
-        <v>295.5166666666667</v>
+        <v>295.45</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>296</v>
-      </c>
-      <c r="K43" t="n">
-        <v>295</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1923,35 +1923,31 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C44" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D44" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E44" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F44" t="n">
-        <v>695.2283</v>
+        <v>3653.4303</v>
       </c>
       <c r="G44" t="n">
-        <v>295.5833333333333</v>
+        <v>295.5166666666667</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>296</v>
-      </c>
-      <c r="K44" t="n">
-        <v>296</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
@@ -1962,7 +1958,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C45" t="n">
         <v>298</v>
@@ -1971,31 +1967,23 @@
         <v>298</v>
       </c>
       <c r="E45" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F45" t="n">
-        <v>2833.9595</v>
+        <v>695.2283</v>
       </c>
       <c r="G45" t="n">
-        <v>295.65</v>
+        <v>295.5833333333333</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>298</v>
-      </c>
-      <c r="K45" t="n">
-        <v>296</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2017,28 +2005,20 @@
         <v>298</v>
       </c>
       <c r="F46" t="n">
-        <v>2330.8657</v>
+        <v>2833.9595</v>
       </c>
       <c r="G46" t="n">
-        <v>295.7166666666666</v>
+        <v>295.65</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>298</v>
-      </c>
-      <c r="K46" t="n">
-        <v>296</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2060,10 +2040,10 @@
         <v>298</v>
       </c>
       <c r="F47" t="n">
-        <v>2260.0275</v>
+        <v>2330.8657</v>
       </c>
       <c r="G47" t="n">
-        <v>295.7833333333334</v>
+        <v>295.7166666666666</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2083,22 +2063,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C48" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D48" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E48" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F48" t="n">
-        <v>4918.783333333334</v>
+        <v>2260.0275</v>
       </c>
       <c r="G48" t="n">
-        <v>295.8833333333333</v>
+        <v>295.7833333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2118,22 +2098,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C49" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D49" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E49" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F49" t="n">
-        <v>4.4662</v>
+        <v>4918.783333333334</v>
       </c>
       <c r="G49" t="n">
-        <v>295.95</v>
+        <v>295.8833333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2153,22 +2133,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C50" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D50" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E50" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F50" t="n">
-        <v>11589.21416666667</v>
+        <v>4.4662</v>
       </c>
       <c r="G50" t="n">
-        <v>296.05</v>
+        <v>295.95</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2188,22 +2168,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C51" t="n">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D51" t="n">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E51" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F51" t="n">
-        <v>29221.9386</v>
+        <v>11589.21416666667</v>
       </c>
       <c r="G51" t="n">
-        <v>296.2333333333333</v>
+        <v>296.05</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2226,19 +2206,19 @@
         <v>302</v>
       </c>
       <c r="C52" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D52" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E52" t="n">
         <v>301</v>
       </c>
       <c r="F52" t="n">
-        <v>511.265</v>
+        <v>29221.9386</v>
       </c>
       <c r="G52" t="n">
-        <v>296.3666666666667</v>
+        <v>296.2333333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2258,28 +2238,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C53" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D53" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E53" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F53" t="n">
-        <v>5365.11</v>
+        <v>511.265</v>
       </c>
       <c r="G53" t="n">
-        <v>296.5</v>
+        <v>296.3666666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2293,22 +2273,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C54" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D54" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E54" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F54" t="n">
-        <v>14465.778</v>
+        <v>5365.11</v>
       </c>
       <c r="G54" t="n">
-        <v>296.65</v>
+        <v>296.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2340,10 +2320,10 @@
         <v>304</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0001</v>
+        <v>14465.778</v>
       </c>
       <c r="G55" t="n">
-        <v>296.7666666666667</v>
+        <v>296.65</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2363,22 +2343,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C56" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D56" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E56" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F56" t="n">
-        <v>33243.8808</v>
+        <v>0.0001</v>
       </c>
       <c r="G56" t="n">
-        <v>296.9166666666667</v>
+        <v>296.7666666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2398,22 +2378,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C57" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D57" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E57" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F57" t="n">
-        <v>8682.7624</v>
+        <v>33243.8808</v>
       </c>
       <c r="G57" t="n">
-        <v>297.0166666666667</v>
+        <v>296.9166666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2433,22 +2413,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C58" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D58" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E58" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F58" t="n">
-        <v>11.4582</v>
+        <v>8682.7624</v>
       </c>
       <c r="G58" t="n">
-        <v>297.1</v>
+        <v>297.0166666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2468,22 +2448,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C59" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D59" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E59" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F59" t="n">
-        <v>290.8296</v>
+        <v>11.4582</v>
       </c>
       <c r="G59" t="n">
-        <v>297.1833333333333</v>
+        <v>297.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2515,10 +2495,10 @@
         <v>300</v>
       </c>
       <c r="F60" t="n">
-        <v>368.7898</v>
+        <v>290.8296</v>
       </c>
       <c r="G60" t="n">
-        <v>297.2666666666667</v>
+        <v>297.1833333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2538,22 +2518,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C61" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D61" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E61" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F61" t="n">
-        <v>11.4582</v>
+        <v>368.7898</v>
       </c>
       <c r="G61" t="n">
-        <v>297.3666666666667</v>
+        <v>297.2666666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2585,10 +2565,10 @@
         <v>301</v>
       </c>
       <c r="F62" t="n">
-        <v>3653.4303</v>
+        <v>11.4582</v>
       </c>
       <c r="G62" t="n">
-        <v>297.4666666666666</v>
+        <v>297.3666666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2611,19 +2591,19 @@
         <v>301</v>
       </c>
       <c r="C63" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D63" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E63" t="n">
         <v>301</v>
       </c>
       <c r="F63" t="n">
-        <v>24261.7464</v>
+        <v>3653.4303</v>
       </c>
       <c r="G63" t="n">
-        <v>297.5833333333333</v>
+        <v>297.4666666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2643,7 +2623,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C64" t="n">
         <v>302</v>
@@ -2652,13 +2632,13 @@
         <v>302</v>
       </c>
       <c r="E64" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F64" t="n">
-        <v>5014.5843</v>
+        <v>24261.7464</v>
       </c>
       <c r="G64" t="n">
-        <v>297.7</v>
+        <v>297.5833333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2678,22 +2658,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C65" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D65" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E65" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F65" t="n">
-        <v>938.3815</v>
+        <v>5014.5843</v>
       </c>
       <c r="G65" t="n">
-        <v>297.8</v>
+        <v>297.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2713,22 +2693,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C66" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D66" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E66" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F66" t="n">
-        <v>7709.3841</v>
+        <v>938.3815</v>
       </c>
       <c r="G66" t="n">
-        <v>297.9333333333333</v>
+        <v>297.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2748,22 +2728,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C67" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D67" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E67" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F67" t="n">
-        <v>315.1446</v>
+        <v>7709.3841</v>
       </c>
       <c r="G67" t="n">
-        <v>298.0166666666667</v>
+        <v>297.9333333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2783,22 +2763,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C68" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D68" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E68" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F68" t="n">
-        <v>694</v>
+        <v>315.1446</v>
       </c>
       <c r="G68" t="n">
-        <v>298.1</v>
+        <v>298.0166666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2830,10 +2810,10 @@
         <v>300</v>
       </c>
       <c r="F69" t="n">
-        <v>5761.1734</v>
+        <v>694</v>
       </c>
       <c r="G69" t="n">
-        <v>298.1666666666667</v>
+        <v>298.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2865,10 +2845,10 @@
         <v>300</v>
       </c>
       <c r="F70" t="n">
-        <v>2508.0091</v>
+        <v>5761.1734</v>
       </c>
       <c r="G70" t="n">
-        <v>298.2333333333333</v>
+        <v>298.1666666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2900,10 +2880,10 @@
         <v>300</v>
       </c>
       <c r="F71" t="n">
-        <v>3953.6599</v>
+        <v>2508.0091</v>
       </c>
       <c r="G71" t="n">
-        <v>298.2833333333334</v>
+        <v>298.2333333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2935,10 +2915,10 @@
         <v>300</v>
       </c>
       <c r="F72" t="n">
-        <v>3587.0321</v>
+        <v>3953.6599</v>
       </c>
       <c r="G72" t="n">
-        <v>298.3166666666667</v>
+        <v>298.2833333333334</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2970,10 +2950,10 @@
         <v>300</v>
       </c>
       <c r="F73" t="n">
-        <v>2106.1171</v>
+        <v>3587.0321</v>
       </c>
       <c r="G73" t="n">
-        <v>298.35</v>
+        <v>298.3166666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3005,10 +2985,10 @@
         <v>300</v>
       </c>
       <c r="F74" t="n">
-        <v>9990.7803</v>
+        <v>2106.1171</v>
       </c>
       <c r="G74" t="n">
-        <v>298.3833333333333</v>
+        <v>298.35</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3040,7 +3020,7 @@
         <v>300</v>
       </c>
       <c r="F75" t="n">
-        <v>8711.167799999999</v>
+        <v>9990.7803</v>
       </c>
       <c r="G75" t="n">
         <v>298.3833333333333</v>
@@ -3063,22 +3043,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C76" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D76" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E76" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F76" t="n">
-        <v>241.018</v>
+        <v>8711.167799999999</v>
       </c>
       <c r="G76" t="n">
-        <v>298.45</v>
+        <v>298.3833333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3098,22 +3078,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C77" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D77" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E77" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F77" t="n">
-        <v>5892.9904</v>
+        <v>241.018</v>
       </c>
       <c r="G77" t="n">
-        <v>298.55</v>
+        <v>298.45</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3133,22 +3113,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C78" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D78" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E78" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F78" t="n">
-        <v>8363.347</v>
+        <v>5892.9904</v>
       </c>
       <c r="G78" t="n">
-        <v>298.7</v>
+        <v>298.55</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3171,19 +3151,19 @@
         <v>305</v>
       </c>
       <c r="C79" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D79" t="n">
         <v>305</v>
       </c>
       <c r="E79" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F79" t="n">
-        <v>7190.268</v>
+        <v>8363.347</v>
       </c>
       <c r="G79" t="n">
-        <v>298.8166666666667</v>
+        <v>298.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3203,22 +3183,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C80" t="n">
         <v>304</v>
       </c>
       <c r="D80" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E80" t="n">
         <v>304</v>
       </c>
       <c r="F80" t="n">
-        <v>663.8909</v>
+        <v>7190.268</v>
       </c>
       <c r="G80" t="n">
-        <v>298.95</v>
+        <v>298.8166666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3238,22 +3218,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C81" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D81" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E81" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F81" t="n">
-        <v>5168.2651</v>
+        <v>663.8909</v>
       </c>
       <c r="G81" t="n">
-        <v>299.0666666666667</v>
+        <v>298.95</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3273,22 +3253,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C82" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D82" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E82" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F82" t="n">
-        <v>331.9455</v>
+        <v>5168.2651</v>
       </c>
       <c r="G82" t="n">
-        <v>299.2</v>
+        <v>299.0666666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3308,22 +3288,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C83" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D83" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E83" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F83" t="n">
-        <v>3816.7469</v>
+        <v>331.9455</v>
       </c>
       <c r="G83" t="n">
-        <v>299.3666666666667</v>
+        <v>299.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3343,22 +3323,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C84" t="n">
         <v>305</v>
       </c>
       <c r="D84" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E84" t="n">
         <v>305</v>
       </c>
       <c r="F84" t="n">
-        <v>7059.0729</v>
+        <v>3816.7469</v>
       </c>
       <c r="G84" t="n">
-        <v>299.55</v>
+        <v>299.3666666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3378,22 +3358,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C85" t="n">
         <v>305</v>
       </c>
       <c r="D85" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E85" t="n">
         <v>305</v>
       </c>
       <c r="F85" t="n">
-        <v>100</v>
+        <v>7059.0729</v>
       </c>
       <c r="G85" t="n">
-        <v>299.7333333333333</v>
+        <v>299.55</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3425,10 +3405,10 @@
         <v>305</v>
       </c>
       <c r="F86" t="n">
-        <v>3539.8892</v>
+        <v>100</v>
       </c>
       <c r="G86" t="n">
-        <v>299.9166666666667</v>
+        <v>299.7333333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3451,19 +3431,19 @@
         <v>305</v>
       </c>
       <c r="C87" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D87" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E87" t="n">
         <v>305</v>
       </c>
       <c r="F87" t="n">
-        <v>2566.1539</v>
+        <v>3539.8892</v>
       </c>
       <c r="G87" t="n">
-        <v>300.1</v>
+        <v>299.9166666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3483,10 +3463,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>305</v>
+      </c>
+      <c r="C88" t="n">
         <v>306</v>
-      </c>
-      <c r="C88" t="n">
-        <v>305</v>
       </c>
       <c r="D88" t="n">
         <v>306</v>
@@ -3495,10 +3475,10 @@
         <v>305</v>
       </c>
       <c r="F88" t="n">
-        <v>2229.3127</v>
+        <v>2566.1539</v>
       </c>
       <c r="G88" t="n">
-        <v>300.2666666666667</v>
+        <v>300.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3530,10 +3510,10 @@
         <v>305</v>
       </c>
       <c r="F89" t="n">
-        <v>566.2455</v>
+        <v>2229.3127</v>
       </c>
       <c r="G89" t="n">
-        <v>300.4333333333333</v>
+        <v>300.2666666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3553,22 +3533,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C90" t="n">
         <v>305</v>
       </c>
       <c r="D90" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E90" t="n">
         <v>305</v>
       </c>
       <c r="F90" t="n">
-        <v>190</v>
+        <v>566.2455</v>
       </c>
       <c r="G90" t="n">
-        <v>300.6</v>
+        <v>300.4333333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3588,22 +3568,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C91" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D91" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E91" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F91" t="n">
-        <v>15733.6694</v>
+        <v>190</v>
       </c>
       <c r="G91" t="n">
-        <v>300.75</v>
+        <v>300.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3635,10 +3615,10 @@
         <v>304</v>
       </c>
       <c r="F92" t="n">
-        <v>5164.9999</v>
+        <v>15733.6694</v>
       </c>
       <c r="G92" t="n">
-        <v>300.9</v>
+        <v>300.75</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3670,10 +3650,10 @@
         <v>304</v>
       </c>
       <c r="F93" t="n">
-        <v>329.2488</v>
+        <v>5164.9999</v>
       </c>
       <c r="G93" t="n">
-        <v>301.0333333333334</v>
+        <v>300.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3705,10 +3685,10 @@
         <v>304</v>
       </c>
       <c r="F94" t="n">
-        <v>1286.79</v>
+        <v>329.2488</v>
       </c>
       <c r="G94" t="n">
-        <v>301.1666666666667</v>
+        <v>301.0333333333334</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3731,19 +3711,19 @@
         <v>304</v>
       </c>
       <c r="C95" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D95" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E95" t="n">
         <v>304</v>
       </c>
       <c r="F95" t="n">
-        <v>3007.0935</v>
+        <v>1286.79</v>
       </c>
       <c r="G95" t="n">
-        <v>301.3166666666667</v>
+        <v>301.1666666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3766,19 +3746,19 @@
         <v>304</v>
       </c>
       <c r="C96" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D96" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E96" t="n">
         <v>304</v>
       </c>
       <c r="F96" t="n">
-        <v>7429.2065</v>
+        <v>3007.0935</v>
       </c>
       <c r="G96" t="n">
-        <v>301.4666666666666</v>
+        <v>301.3166666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3798,22 +3778,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C97" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D97" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E97" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F97" t="n">
-        <v>219.5243</v>
+        <v>7429.2065</v>
       </c>
       <c r="G97" t="n">
-        <v>301.5833333333333</v>
+        <v>301.4666666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3845,10 +3825,10 @@
         <v>303</v>
       </c>
       <c r="F98" t="n">
-        <v>5808.3677</v>
+        <v>219.5243</v>
       </c>
       <c r="G98" t="n">
-        <v>301.7</v>
+        <v>301.5833333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3868,22 +3848,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C99" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D99" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E99" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F99" t="n">
-        <v>2005.91</v>
+        <v>5808.3677</v>
       </c>
       <c r="G99" t="n">
-        <v>301.8</v>
+        <v>301.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3903,22 +3883,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C100" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D100" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E100" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F100" t="n">
-        <v>1264.4801</v>
+        <v>2005.91</v>
       </c>
       <c r="G100" t="n">
-        <v>301.9333333333333</v>
+        <v>301.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3938,22 +3918,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C101" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D101" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E101" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F101" t="n">
-        <v>715.3458000000001</v>
+        <v>1264.4801</v>
       </c>
       <c r="G101" t="n">
-        <v>302.0666666666667</v>
+        <v>301.9333333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3973,22 +3953,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C102" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D102" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E102" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F102" t="n">
-        <v>167.1509</v>
+        <v>715.3458000000001</v>
       </c>
       <c r="G102" t="n">
-        <v>302.2166666666666</v>
+        <v>302.0666666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4020,10 +4000,10 @@
         <v>305</v>
       </c>
       <c r="F103" t="n">
-        <v>277.4905</v>
+        <v>167.1509</v>
       </c>
       <c r="G103" t="n">
-        <v>302.3666666666667</v>
+        <v>302.2166666666666</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4055,10 +4035,10 @@
         <v>305</v>
       </c>
       <c r="F104" t="n">
-        <v>98.2396</v>
+        <v>277.4905</v>
       </c>
       <c r="G104" t="n">
-        <v>302.4833333333333</v>
+        <v>302.3666666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4090,10 +4070,10 @@
         <v>305</v>
       </c>
       <c r="F105" t="n">
-        <v>4804.8713</v>
+        <v>98.2396</v>
       </c>
       <c r="G105" t="n">
-        <v>302.6</v>
+        <v>302.4833333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4125,10 +4105,10 @@
         <v>305</v>
       </c>
       <c r="F106" t="n">
-        <v>3000</v>
+        <v>4804.8713</v>
       </c>
       <c r="G106" t="n">
-        <v>302.7166666666666</v>
+        <v>302.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4160,10 +4140,10 @@
         <v>305</v>
       </c>
       <c r="F107" t="n">
-        <v>625.2431</v>
+        <v>3000</v>
       </c>
       <c r="G107" t="n">
-        <v>302.8333333333333</v>
+        <v>302.7166666666666</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4195,10 +4175,10 @@
         <v>305</v>
       </c>
       <c r="F108" t="n">
-        <v>1374.7569</v>
+        <v>625.2431</v>
       </c>
       <c r="G108" t="n">
-        <v>302.9166666666667</v>
+        <v>302.8333333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4213,6 +4193,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>305</v>
+      </c>
+      <c r="C109" t="n">
+        <v>305</v>
+      </c>
+      <c r="D109" t="n">
+        <v>305</v>
+      </c>
+      <c r="E109" t="n">
+        <v>305</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1374.7569</v>
+      </c>
+      <c r="G109" t="n">
+        <v>302.9166666666667</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-14 BackTest BAT.xlsx
+++ b/BackTest/2019-11-14 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
+        <v>294.8666666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>289.1166666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>11.6152</v>
       </c>
       <c r="G3" t="n">
+        <v>294.9333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>289.3</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,25 @@
         <v>800</v>
       </c>
       <c r="G4" t="n">
+        <v>295</v>
+      </c>
+      <c r="H4" t="n">
         <v>289.4833333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>295</v>
+      </c>
+      <c r="L4" t="n">
+        <v>295</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +571,29 @@
         <v>491.9965</v>
       </c>
       <c r="G5" t="n">
+        <v>295.0666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>289.6666666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>295</v>
+      </c>
+      <c r="L5" t="n">
+        <v>295</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +617,29 @@
         <v>1390.6297</v>
       </c>
       <c r="G6" t="n">
+        <v>295.1333333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>289.85</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>295</v>
+      </c>
+      <c r="L6" t="n">
+        <v>295</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +663,29 @@
         <v>3</v>
       </c>
       <c r="G7" t="n">
+        <v>295.2</v>
+      </c>
+      <c r="H7" t="n">
         <v>290</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>295</v>
+      </c>
+      <c r="L7" t="n">
+        <v>295</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +709,29 @@
         <v>675</v>
       </c>
       <c r="G8" t="n">
+        <v>295.4</v>
+      </c>
+      <c r="H8" t="n">
         <v>290.1833333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>294</v>
+      </c>
+      <c r="L8" t="n">
+        <v>295</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +755,29 @@
         <v>81.7217</v>
       </c>
       <c r="G9" t="n">
+        <v>295.4</v>
+      </c>
+      <c r="H9" t="n">
         <v>290.3333333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>296</v>
+      </c>
+      <c r="L9" t="n">
+        <v>295</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +801,27 @@
         <v>1.7</v>
       </c>
       <c r="G10" t="n">
+        <v>295.4666666666666</v>
+      </c>
+      <c r="H10" t="n">
         <v>290.5</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="L10" t="n">
+        <v>295</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +845,29 @@
         <v>21.186</v>
       </c>
       <c r="G11" t="n">
+        <v>295.4</v>
+      </c>
+      <c r="H11" t="n">
         <v>290.6666666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>296</v>
+      </c>
+      <c r="L11" t="n">
+        <v>295</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +891,27 @@
         <v>278.2428</v>
       </c>
       <c r="G12" t="n">
+        <v>295.4666666666666</v>
+      </c>
+      <c r="H12" t="n">
         <v>290.8666666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
+        <v>295</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +935,27 @@
         <v>1.7</v>
       </c>
       <c r="G13" t="n">
+        <v>295.5333333333334</v>
+      </c>
+      <c r="H13" t="n">
         <v>291.0666666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>295</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +979,27 @@
         <v>89.0528</v>
       </c>
       <c r="G14" t="n">
+        <v>295.6666666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>291.2666666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>295</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1023,27 @@
         <v>35.009</v>
       </c>
       <c r="G15" t="n">
+        <v>295.8666666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>291.4666666666666</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>295</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1067,27 @@
         <v>16570.1232</v>
       </c>
       <c r="G16" t="n">
+        <v>296.2</v>
+      </c>
+      <c r="H16" t="n">
         <v>291.7166666666666</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>295</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1111,27 @@
         <v>479.937</v>
       </c>
       <c r="G17" t="n">
+        <v>296.4</v>
+      </c>
+      <c r="H17" t="n">
         <v>291.9333333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>295</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1155,27 @@
         <v>12.0232</v>
       </c>
       <c r="G18" t="n">
+        <v>296.6</v>
+      </c>
+      <c r="H18" t="n">
         <v>292.1666666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>295</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1199,27 @@
         <v>3396.47</v>
       </c>
       <c r="G19" t="n">
+        <v>296.6666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>292.35</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>295</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1243,27 @@
         <v>12.0232</v>
       </c>
       <c r="G20" t="n">
+        <v>296.8</v>
+      </c>
+      <c r="H20" t="n">
         <v>292.55</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>295</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1287,27 @@
         <v>7118.6412</v>
       </c>
       <c r="G21" t="n">
+        <v>296.8666666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>292.7166666666666</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>295</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1331,27 @@
         <v>100</v>
       </c>
       <c r="G22" t="n">
+        <v>297</v>
+      </c>
+      <c r="H22" t="n">
         <v>292.9333333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>295</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1375,27 @@
         <v>300</v>
       </c>
       <c r="G23" t="n">
+        <v>297</v>
+      </c>
+      <c r="H23" t="n">
         <v>293.1166666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>295</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1419,27 @@
         <v>12.2286</v>
       </c>
       <c r="G24" t="n">
+        <v>297</v>
+      </c>
+      <c r="H24" t="n">
         <v>293.3</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>295</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1463,27 @@
         <v>16479.085</v>
       </c>
       <c r="G25" t="n">
+        <v>296.8666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>293.4666666666666</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>295</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1507,27 @@
         <v>409.049</v>
       </c>
       <c r="G26" t="n">
+        <v>296.7333333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>293.6166666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>295</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1551,27 @@
         <v>1636.7484</v>
       </c>
       <c r="G27" t="n">
+        <v>296.5333333333334</v>
+      </c>
+      <c r="H27" t="n">
         <v>293.7833333333334</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>295</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,22 +1595,27 @@
         <v>3230</v>
       </c>
       <c r="G28" t="n">
+        <v>296.3333333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>293.9333333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>294</v>
-      </c>
-      <c r="K28" t="n">
-        <v>294</v>
-      </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>295</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1397,26 +1639,27 @@
         <v>30.1517</v>
       </c>
       <c r="G29" t="n">
+        <v>296.1333333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>294.0666666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>295</v>
-      </c>
-      <c r="K29" t="n">
-        <v>294</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>295</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1440,26 +1683,27 @@
         <v>1730</v>
       </c>
       <c r="G30" t="n">
+        <v>295.9333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>294.1833333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>295</v>
-      </c>
-      <c r="K30" t="n">
-        <v>294</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>295</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1483,18 +1727,27 @@
         <v>4449.4956</v>
       </c>
       <c r="G31" t="n">
+        <v>295.6</v>
+      </c>
+      <c r="H31" t="n">
         <v>294.2833333333334</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>295</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1518,18 +1771,29 @@
         <v>7985.1315</v>
       </c>
       <c r="G32" t="n">
+        <v>295.4</v>
+      </c>
+      <c r="H32" t="n">
         <v>294.3833333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>295</v>
+      </c>
+      <c r="L32" t="n">
+        <v>295</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1553,18 +1817,29 @@
         <v>8875.309499999999</v>
       </c>
       <c r="G33" t="n">
+        <v>295.2</v>
+      </c>
+      <c r="H33" t="n">
         <v>294.4666666666666</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>295</v>
+      </c>
+      <c r="L33" t="n">
+        <v>295</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1588,18 +1863,29 @@
         <v>215</v>
       </c>
       <c r="G34" t="n">
+        <v>295.2</v>
+      </c>
+      <c r="H34" t="n">
         <v>294.5666666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>295</v>
+      </c>
+      <c r="L34" t="n">
+        <v>295</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1623,18 +1909,29 @@
         <v>2.1173</v>
       </c>
       <c r="G35" t="n">
+        <v>295.1333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>294.7</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>296</v>
+      </c>
+      <c r="L35" t="n">
+        <v>295</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1658,18 +1955,29 @@
         <v>683</v>
       </c>
       <c r="G36" t="n">
+        <v>295.1333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>294.8333333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>296</v>
+      </c>
+      <c r="L36" t="n">
+        <v>295</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1693,18 +2001,29 @@
         <v>250</v>
       </c>
       <c r="G37" t="n">
+        <v>295.0666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>294.9666666666666</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>296</v>
+      </c>
+      <c r="L37" t="n">
+        <v>295</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1731,15 +2050,26 @@
         <v>295.0666666666667</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>295.0666666666667</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>295</v>
+      </c>
+      <c r="L38" t="n">
+        <v>295</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1763,18 +2093,29 @@
         <v>402</v>
       </c>
       <c r="G39" t="n">
+        <v>295.1333333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>295.1666666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>296</v>
+      </c>
+      <c r="L39" t="n">
+        <v>295</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1801,15 +2142,26 @@
         <v>295.2666666666667</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>295.2666666666667</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>296</v>
+      </c>
+      <c r="L40" t="n">
+        <v>295</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1833,18 +2185,29 @@
         <v>3398.98</v>
       </c>
       <c r="G41" t="n">
+        <v>295.3333333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>295.3166666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>296</v>
+      </c>
+      <c r="L41" t="n">
+        <v>295</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1868,18 +2231,29 @@
         <v>2588.6612</v>
       </c>
       <c r="G42" t="n">
+        <v>295.4666666666666</v>
+      </c>
+      <c r="H42" t="n">
         <v>295.3833333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>295</v>
+      </c>
+      <c r="L42" t="n">
+        <v>295</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1903,18 +2277,29 @@
         <v>5792.7749</v>
       </c>
       <c r="G43" t="n">
+        <v>295.5333333333334</v>
+      </c>
+      <c r="H43" t="n">
         <v>295.45</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>296</v>
+      </c>
+      <c r="L43" t="n">
+        <v>295</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1938,18 +2323,29 @@
         <v>3653.4303</v>
       </c>
       <c r="G44" t="n">
+        <v>295.6</v>
+      </c>
+      <c r="H44" t="n">
         <v>295.5166666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>296</v>
+      </c>
+      <c r="L44" t="n">
+        <v>295</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1973,18 +2369,29 @@
         <v>695.2283</v>
       </c>
       <c r="G45" t="n">
+        <v>295.8</v>
+      </c>
+      <c r="H45" t="n">
         <v>295.5833333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>296</v>
+      </c>
+      <c r="L45" t="n">
+        <v>295</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2008,18 +2415,29 @@
         <v>2833.9595</v>
       </c>
       <c r="G46" t="n">
+        <v>296</v>
+      </c>
+      <c r="H46" t="n">
         <v>295.65</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>298</v>
+      </c>
+      <c r="L46" t="n">
+        <v>295</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2043,18 +2461,29 @@
         <v>2330.8657</v>
       </c>
       <c r="G47" t="n">
+        <v>296.2</v>
+      </c>
+      <c r="H47" t="n">
         <v>295.7166666666666</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>298</v>
+      </c>
+      <c r="L47" t="n">
+        <v>295</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2078,18 +2507,29 @@
         <v>2260.0275</v>
       </c>
       <c r="G48" t="n">
+        <v>296.4</v>
+      </c>
+      <c r="H48" t="n">
         <v>295.7833333333334</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>298</v>
+      </c>
+      <c r="L48" t="n">
+        <v>295</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2113,18 +2553,29 @@
         <v>4918.783333333334</v>
       </c>
       <c r="G49" t="n">
+        <v>296.6666666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>295.8833333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>298</v>
+      </c>
+      <c r="L49" t="n">
+        <v>295</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,18 +2599,27 @@
         <v>4.4662</v>
       </c>
       <c r="G50" t="n">
+        <v>296.8</v>
+      </c>
+      <c r="H50" t="n">
         <v>295.95</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>295</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2183,18 +2643,27 @@
         <v>11589.21416666667</v>
       </c>
       <c r="G51" t="n">
+        <v>297.0666666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>296.05</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>295</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2218,18 +2687,27 @@
         <v>29221.9386</v>
       </c>
       <c r="G52" t="n">
+        <v>297.6666666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>296.2333333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>295</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2253,18 +2731,27 @@
         <v>511.265</v>
       </c>
       <c r="G53" t="n">
+        <v>298</v>
+      </c>
+      <c r="H53" t="n">
         <v>296.3666666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>295</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2288,18 +2775,27 @@
         <v>5365.11</v>
       </c>
       <c r="G54" t="n">
+        <v>298.4666666666666</v>
+      </c>
+      <c r="H54" t="n">
         <v>296.5</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>295</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2323,18 +2819,27 @@
         <v>14465.778</v>
       </c>
       <c r="G55" t="n">
+        <v>299</v>
+      </c>
+      <c r="H55" t="n">
         <v>296.65</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>295</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2358,18 +2863,27 @@
         <v>0.0001</v>
       </c>
       <c r="G56" t="n">
+        <v>299.6</v>
+      </c>
+      <c r="H56" t="n">
         <v>296.7666666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>295</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2393,18 +2907,27 @@
         <v>33243.8808</v>
       </c>
       <c r="G57" t="n">
+        <v>300.2</v>
+      </c>
+      <c r="H57" t="n">
         <v>296.9166666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>295</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2428,18 +2951,27 @@
         <v>8682.7624</v>
       </c>
       <c r="G58" t="n">
+        <v>300.6666666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>297.0166666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>295</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2463,18 +2995,27 @@
         <v>11.4582</v>
       </c>
       <c r="G59" t="n">
+        <v>301</v>
+      </c>
+      <c r="H59" t="n">
         <v>297.1</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>295</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2498,18 +3039,27 @@
         <v>290.8296</v>
       </c>
       <c r="G60" t="n">
+        <v>301.1333333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>297.1833333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>295</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2533,18 +3083,27 @@
         <v>368.7898</v>
       </c>
       <c r="G61" t="n">
+        <v>301.2666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>297.2666666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>295</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2568,18 +3127,27 @@
         <v>11.4582</v>
       </c>
       <c r="G62" t="n">
+        <v>301.4666666666666</v>
+      </c>
+      <c r="H62" t="n">
         <v>297.3666666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>295</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2603,18 +3171,27 @@
         <v>3653.4303</v>
       </c>
       <c r="G63" t="n">
+        <v>301.6666666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>297.4666666666666</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>295</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2638,18 +3215,27 @@
         <v>24261.7464</v>
       </c>
       <c r="G64" t="n">
+        <v>301.8</v>
+      </c>
+      <c r="H64" t="n">
         <v>297.5833333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>295</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2673,18 +3259,27 @@
         <v>5014.5843</v>
       </c>
       <c r="G65" t="n">
+        <v>302.0666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>297.7</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>295</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2708,18 +3303,27 @@
         <v>938.3815</v>
       </c>
       <c r="G66" t="n">
+        <v>302.1333333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>297.8</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>295</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,18 +3347,27 @@
         <v>7709.3841</v>
       </c>
       <c r="G67" t="n">
+        <v>302</v>
+      </c>
+      <c r="H67" t="n">
         <v>297.9333333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>295</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2778,18 +3391,27 @@
         <v>315.1446</v>
       </c>
       <c r="G68" t="n">
+        <v>302</v>
+      </c>
+      <c r="H68" t="n">
         <v>298.0166666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>295</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2813,18 +3435,27 @@
         <v>694</v>
       </c>
       <c r="G69" t="n">
+        <v>301.8</v>
+      </c>
+      <c r="H69" t="n">
         <v>298.1</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>295</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2848,18 +3479,27 @@
         <v>5761.1734</v>
       </c>
       <c r="G70" t="n">
+        <v>301.5333333333334</v>
+      </c>
+      <c r="H70" t="n">
         <v>298.1666666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>295</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2883,18 +3523,27 @@
         <v>2508.0091</v>
       </c>
       <c r="G71" t="n">
+        <v>301.2666666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>298.2333333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>295</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2918,18 +3567,27 @@
         <v>3953.6599</v>
       </c>
       <c r="G72" t="n">
+        <v>300.9333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>298.2833333333334</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>295</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2953,18 +3611,27 @@
         <v>3587.0321</v>
       </c>
       <c r="G73" t="n">
+        <v>300.7333333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>298.3166666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>295</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2988,18 +3655,27 @@
         <v>2106.1171</v>
       </c>
       <c r="G74" t="n">
+        <v>300.6666666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>298.35</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>295</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3023,18 +3699,27 @@
         <v>9990.7803</v>
       </c>
       <c r="G75" t="n">
+        <v>300.6666666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>298.3833333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>295</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3058,18 +3743,27 @@
         <v>8711.167799999999</v>
       </c>
       <c r="G76" t="n">
+        <v>300.6666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>298.3833333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>295</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3093,18 +3787,27 @@
         <v>241.018</v>
       </c>
       <c r="G77" t="n">
+        <v>300.7333333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>298.45</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>295</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3128,18 +3831,27 @@
         <v>5892.9904</v>
       </c>
       <c r="G78" t="n">
+        <v>300.9333333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>298.55</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>295</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3163,19 +3875,28 @@
         <v>8363.347</v>
       </c>
       <c r="G79" t="n">
+        <v>301.1333333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>298.7</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
+      <c r="L79" t="n">
+        <v>295</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>1.028898305084746</v>
       </c>
     </row>
     <row r="80">
@@ -3198,18 +3919,21 @@
         <v>7190.268</v>
       </c>
       <c r="G80" t="n">
+        <v>301.2666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>298.8166666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3233,18 +3957,21 @@
         <v>663.8909</v>
       </c>
       <c r="G81" t="n">
+        <v>301.4666666666666</v>
+      </c>
+      <c r="H81" t="n">
         <v>298.95</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3268,18 +3995,21 @@
         <v>5168.2651</v>
       </c>
       <c r="G82" t="n">
+        <v>301.5333333333334</v>
+      </c>
+      <c r="H82" t="n">
         <v>299.0666666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3303,18 +4033,21 @@
         <v>331.9455</v>
       </c>
       <c r="G83" t="n">
+        <v>301.7333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>299.2</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3338,18 +4071,21 @@
         <v>3816.7469</v>
       </c>
       <c r="G84" t="n">
+        <v>302.0666666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>299.3666666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3373,18 +4109,21 @@
         <v>7059.0729</v>
       </c>
       <c r="G85" t="n">
+        <v>302.4</v>
+      </c>
+      <c r="H85" t="n">
         <v>299.55</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3408,18 +4147,21 @@
         <v>100</v>
       </c>
       <c r="G86" t="n">
+        <v>302.7333333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>299.7333333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3443,18 +4185,21 @@
         <v>3539.8892</v>
       </c>
       <c r="G87" t="n">
+        <v>303.0666666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>299.9166666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,18 +4223,21 @@
         <v>2566.1539</v>
       </c>
       <c r="G88" t="n">
+        <v>303.4666666666666</v>
+      </c>
+      <c r="H88" t="n">
         <v>300.1</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3513,18 +4261,21 @@
         <v>2229.3127</v>
       </c>
       <c r="G89" t="n">
+        <v>303.8</v>
+      </c>
+      <c r="H89" t="n">
         <v>300.2666666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3548,18 +4299,21 @@
         <v>566.2455</v>
       </c>
       <c r="G90" t="n">
+        <v>304.1333333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>300.4333333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3583,18 +4337,21 @@
         <v>190</v>
       </c>
       <c r="G91" t="n">
+        <v>304.4666666666666</v>
+      </c>
+      <c r="H91" t="n">
         <v>300.6</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3618,18 +4375,21 @@
         <v>15733.6694</v>
       </c>
       <c r="G92" t="n">
+        <v>304.6</v>
+      </c>
+      <c r="H92" t="n">
         <v>300.75</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3653,18 +4413,21 @@
         <v>5164.9999</v>
       </c>
       <c r="G93" t="n">
+        <v>304.6</v>
+      </c>
+      <c r="H93" t="n">
         <v>300.9</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3688,18 +4451,21 @@
         <v>329.2488</v>
       </c>
       <c r="G94" t="n">
+        <v>304.5333333333334</v>
+      </c>
+      <c r="H94" t="n">
         <v>301.0333333333334</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3723,18 +4489,21 @@
         <v>1286.79</v>
       </c>
       <c r="G95" t="n">
+        <v>304.5333333333334</v>
+      </c>
+      <c r="H95" t="n">
         <v>301.1666666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3758,18 +4527,21 @@
         <v>3007.0935</v>
       </c>
       <c r="G96" t="n">
+        <v>304.6</v>
+      </c>
+      <c r="H96" t="n">
         <v>301.3166666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3793,18 +4565,21 @@
         <v>7429.2065</v>
       </c>
       <c r="G97" t="n">
+        <v>304.6666666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>301.4666666666666</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3828,18 +4603,21 @@
         <v>219.5243</v>
       </c>
       <c r="G98" t="n">
+        <v>304.6</v>
+      </c>
+      <c r="H98" t="n">
         <v>301.5833333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3863,18 +4641,21 @@
         <v>5808.3677</v>
       </c>
       <c r="G99" t="n">
+        <v>304.4666666666666</v>
+      </c>
+      <c r="H99" t="n">
         <v>301.7</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3898,18 +4679,21 @@
         <v>2005.91</v>
       </c>
       <c r="G100" t="n">
+        <v>304.2666666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>301.8</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3933,18 +4717,21 @@
         <v>1264.4801</v>
       </c>
       <c r="G101" t="n">
+        <v>304.1333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>301.9333333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3968,18 +4755,21 @@
         <v>715.3458000000001</v>
       </c>
       <c r="G102" t="n">
+        <v>304.0666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>302.0666666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4003,18 +4793,21 @@
         <v>167.1509</v>
       </c>
       <c r="G103" t="n">
+        <v>304</v>
+      </c>
+      <c r="H103" t="n">
         <v>302.2166666666666</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4038,18 +4831,21 @@
         <v>277.4905</v>
       </c>
       <c r="G104" t="n">
+        <v>304</v>
+      </c>
+      <c r="H104" t="n">
         <v>302.3666666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4073,18 +4869,21 @@
         <v>98.2396</v>
       </c>
       <c r="G105" t="n">
+        <v>304</v>
+      </c>
+      <c r="H105" t="n">
         <v>302.4833333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4108,18 +4907,21 @@
         <v>4804.8713</v>
       </c>
       <c r="G106" t="n">
+        <v>304</v>
+      </c>
+      <c r="H106" t="n">
         <v>302.6</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4143,18 +4945,21 @@
         <v>3000</v>
       </c>
       <c r="G107" t="n">
+        <v>304.0666666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>302.7166666666666</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4178,18 +4983,21 @@
         <v>625.2431</v>
       </c>
       <c r="G108" t="n">
+        <v>304.1333333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>302.8333333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4213,18 +5021,401 @@
         <v>1374.7569</v>
       </c>
       <c r="G109" t="n">
+        <v>304.2</v>
+      </c>
+      <c r="H109" t="n">
         <v>302.9166666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>304</v>
+      </c>
+      <c r="C110" t="n">
+        <v>304</v>
+      </c>
+      <c r="D110" t="n">
+        <v>304</v>
+      </c>
+      <c r="E110" t="n">
+        <v>304</v>
+      </c>
+      <c r="F110" t="n">
+        <v>98.2396</v>
+      </c>
+      <c r="G110" t="n">
+        <v>304.2</v>
+      </c>
+      <c r="H110" t="n">
+        <v>303.0166666666667</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>304</v>
+      </c>
+      <c r="C111" t="n">
+        <v>304</v>
+      </c>
+      <c r="D111" t="n">
+        <v>304</v>
+      </c>
+      <c r="E111" t="n">
+        <v>304</v>
+      </c>
+      <c r="F111" t="n">
+        <v>277.4905</v>
+      </c>
+      <c r="G111" t="n">
+        <v>304.1333333333333</v>
+      </c>
+      <c r="H111" t="n">
+        <v>303.0833333333333</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>304</v>
+      </c>
+      <c r="C112" t="n">
+        <v>304</v>
+      </c>
+      <c r="D112" t="n">
+        <v>304</v>
+      </c>
+      <c r="E112" t="n">
+        <v>304</v>
+      </c>
+      <c r="F112" t="n">
+        <v>3990.128</v>
+      </c>
+      <c r="G112" t="n">
+        <v>304.1333333333333</v>
+      </c>
+      <c r="H112" t="n">
+        <v>303.0833333333333</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>304</v>
+      </c>
+      <c r="C113" t="n">
+        <v>304</v>
+      </c>
+      <c r="D113" t="n">
+        <v>304</v>
+      </c>
+      <c r="E113" t="n">
+        <v>304</v>
+      </c>
+      <c r="F113" t="n">
+        <v>332.6224</v>
+      </c>
+      <c r="G113" t="n">
+        <v>304.2</v>
+      </c>
+      <c r="H113" t="n">
+        <v>303.1333333333333</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>303</v>
+      </c>
+      <c r="C114" t="n">
+        <v>303</v>
+      </c>
+      <c r="D114" t="n">
+        <v>303</v>
+      </c>
+      <c r="E114" t="n">
+        <v>303</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1133.1475</v>
+      </c>
+      <c r="G114" t="n">
+        <v>304.2</v>
+      </c>
+      <c r="H114" t="n">
+        <v>303.1333333333333</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>303</v>
+      </c>
+      <c r="C115" t="n">
+        <v>303</v>
+      </c>
+      <c r="D115" t="n">
+        <v>303</v>
+      </c>
+      <c r="E115" t="n">
+        <v>303</v>
+      </c>
+      <c r="F115" t="n">
+        <v>3191.3508</v>
+      </c>
+      <c r="G115" t="n">
+        <v>304.2666666666667</v>
+      </c>
+      <c r="H115" t="n">
+        <v>303.1166666666667</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>303</v>
+      </c>
+      <c r="C116" t="n">
+        <v>303</v>
+      </c>
+      <c r="D116" t="n">
+        <v>303</v>
+      </c>
+      <c r="E116" t="n">
+        <v>303</v>
+      </c>
+      <c r="F116" t="n">
+        <v>4144.7377</v>
+      </c>
+      <c r="G116" t="n">
+        <v>304.2666666666667</v>
+      </c>
+      <c r="H116" t="n">
+        <v>303.1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>303</v>
+      </c>
+      <c r="C117" t="n">
+        <v>303</v>
+      </c>
+      <c r="D117" t="n">
+        <v>303</v>
+      </c>
+      <c r="E117" t="n">
+        <v>303</v>
+      </c>
+      <c r="F117" t="n">
+        <v>190</v>
+      </c>
+      <c r="G117" t="n">
+        <v>304.2</v>
+      </c>
+      <c r="H117" t="n">
+        <v>303.0666666666667</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>303</v>
+      </c>
+      <c r="C118" t="n">
+        <v>303</v>
+      </c>
+      <c r="D118" t="n">
+        <v>303</v>
+      </c>
+      <c r="E118" t="n">
+        <v>303</v>
+      </c>
+      <c r="F118" t="n">
+        <v>248.06</v>
+      </c>
+      <c r="G118" t="n">
+        <v>304.0666666666667</v>
+      </c>
+      <c r="H118" t="n">
+        <v>303.0666666666667</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>304</v>
+      </c>
+      <c r="C119" t="n">
+        <v>304</v>
+      </c>
+      <c r="D119" t="n">
+        <v>304</v>
+      </c>
+      <c r="E119" t="n">
+        <v>304</v>
+      </c>
+      <c r="F119" t="n">
+        <v>8091.7695</v>
+      </c>
+      <c r="G119" t="n">
+        <v>304</v>
+      </c>
+      <c r="H119" t="n">
+        <v>303.1166666666667</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-14 BackTest BAT.xlsx
+++ b/BackTest/2019-11-14 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:M148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C2" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D2" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E2" t="n">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>5200.0167</v>
       </c>
       <c r="G2" t="n">
-        <v>294.8666666666667</v>
+        <v>89926.27113519164</v>
       </c>
       <c r="H2" t="n">
-        <v>289.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C3" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D3" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E3" t="n">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F3" t="n">
-        <v>11.6152</v>
+        <v>8149.26</v>
       </c>
       <c r="G3" t="n">
-        <v>294.9333333333333</v>
+        <v>89926.27113519164</v>
       </c>
       <c r="H3" t="n">
-        <v>289.3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,40 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C4" t="n">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D4" t="n">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E4" t="n">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F4" t="n">
-        <v>800</v>
+        <v>5.2084</v>
       </c>
       <c r="G4" t="n">
-        <v>295</v>
+        <v>89921.06273519163</v>
       </c>
       <c r="H4" t="n">
-        <v>289.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>295</v>
-      </c>
-      <c r="L4" t="n">
-        <v>295</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -556,44 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C5" t="n">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D5" t="n">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E5" t="n">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F5" t="n">
-        <v>491.9965</v>
+        <v>8.3978</v>
       </c>
       <c r="G5" t="n">
-        <v>295.0666666666667</v>
+        <v>89921.06273519163</v>
       </c>
       <c r="H5" t="n">
-        <v>289.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>295</v>
-      </c>
-      <c r="L5" t="n">
-        <v>295</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -602,44 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C6" t="n">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D6" t="n">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E6" t="n">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F6" t="n">
-        <v>1390.6297</v>
+        <v>3.6</v>
       </c>
       <c r="G6" t="n">
-        <v>295.1333333333333</v>
+        <v>89917.46273519163</v>
       </c>
       <c r="H6" t="n">
-        <v>289.85</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>295</v>
-      </c>
-      <c r="L6" t="n">
-        <v>295</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -648,44 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C7" t="n">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D7" t="n">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E7" t="n">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>3110</v>
       </c>
       <c r="G7" t="n">
-        <v>295.2</v>
+        <v>93027.46273519163</v>
       </c>
       <c r="H7" t="n">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>295</v>
-      </c>
-      <c r="L7" t="n">
-        <v>295</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -694,44 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C8" t="n">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D8" t="n">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E8" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F8" t="n">
-        <v>675</v>
+        <v>18712.4246</v>
       </c>
       <c r="G8" t="n">
-        <v>295.4</v>
+        <v>93027.46273519163</v>
       </c>
       <c r="H8" t="n">
-        <v>290.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>294</v>
-      </c>
-      <c r="L8" t="n">
-        <v>295</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -740,44 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C9" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D9" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E9" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F9" t="n">
-        <v>81.7217</v>
+        <v>1622.4606</v>
       </c>
       <c r="G9" t="n">
-        <v>295.4</v>
+        <v>93027.46273519163</v>
       </c>
       <c r="H9" t="n">
-        <v>290.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>296</v>
-      </c>
-      <c r="L9" t="n">
-        <v>295</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -786,42 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C10" t="n">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D10" t="n">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E10" t="n">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F10" t="n">
-        <v>1.7</v>
+        <v>1244</v>
       </c>
       <c r="G10" t="n">
-        <v>295.4666666666666</v>
+        <v>94271.46273519163</v>
       </c>
       <c r="H10" t="n">
-        <v>290.5</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>295</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -830,44 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C11" t="n">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D11" t="n">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E11" t="n">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F11" t="n">
-        <v>21.186</v>
+        <v>673</v>
       </c>
       <c r="G11" t="n">
-        <v>295.4</v>
+        <v>94271.46273519163</v>
       </c>
       <c r="H11" t="n">
-        <v>290.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>296</v>
-      </c>
-      <c r="L11" t="n">
-        <v>295</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -876,42 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C12" t="n">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D12" t="n">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E12" t="n">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F12" t="n">
-        <v>278.2428</v>
+        <v>130</v>
       </c>
       <c r="G12" t="n">
-        <v>295.4666666666666</v>
+        <v>94271.46273519163</v>
       </c>
       <c r="H12" t="n">
-        <v>290.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>295</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -920,42 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C13" t="n">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D13" t="n">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E13" t="n">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F13" t="n">
-        <v>1.7</v>
+        <v>0.3995</v>
       </c>
       <c r="G13" t="n">
-        <v>295.5333333333334</v>
+        <v>94271.46273519163</v>
       </c>
       <c r="H13" t="n">
-        <v>291.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>295</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -964,42 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C14" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D14" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E14" t="n">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F14" t="n">
-        <v>89.0528</v>
+        <v>475</v>
       </c>
       <c r="G14" t="n">
-        <v>295.6666666666667</v>
+        <v>94746.46273519163</v>
       </c>
       <c r="H14" t="n">
-        <v>291.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>295</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,42 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C15" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D15" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E15" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F15" t="n">
-        <v>35.009</v>
+        <v>3350</v>
       </c>
       <c r="G15" t="n">
-        <v>295.8666666666667</v>
+        <v>94746.46273519163</v>
       </c>
       <c r="H15" t="n">
-        <v>291.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>295</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1052,42 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C16" t="n">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D16" t="n">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E16" t="n">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F16" t="n">
-        <v>16570.1232</v>
+        <v>3.1633</v>
       </c>
       <c r="G16" t="n">
-        <v>296.2</v>
+        <v>94746.46273519163</v>
       </c>
       <c r="H16" t="n">
-        <v>291.7166666666666</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>295</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1096,42 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C17" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D17" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E17" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F17" t="n">
-        <v>479.937</v>
+        <v>90.083</v>
       </c>
       <c r="G17" t="n">
-        <v>296.4</v>
+        <v>94746.46273519163</v>
       </c>
       <c r="H17" t="n">
-        <v>291.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>295</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1140,42 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C18" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D18" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E18" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F18" t="n">
-        <v>12.0232</v>
+        <v>60.4924</v>
       </c>
       <c r="G18" t="n">
-        <v>296.6</v>
+        <v>94746.46273519163</v>
       </c>
       <c r="H18" t="n">
-        <v>292.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>295</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1184,42 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C19" t="n">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D19" t="n">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E19" t="n">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F19" t="n">
-        <v>3396.47</v>
+        <v>1636.3928</v>
       </c>
       <c r="G19" t="n">
-        <v>296.6666666666667</v>
+        <v>94746.46273519163</v>
       </c>
       <c r="H19" t="n">
-        <v>292.35</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>295</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1228,42 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C20" t="n">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D20" t="n">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E20" t="n">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F20" t="n">
-        <v>12.0232</v>
+        <v>4155.3174</v>
       </c>
       <c r="G20" t="n">
-        <v>296.8</v>
+        <v>94746.46273519163</v>
       </c>
       <c r="H20" t="n">
-        <v>292.55</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>295</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1272,42 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C21" t="n">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D21" t="n">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E21" t="n">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F21" t="n">
-        <v>7118.6412</v>
+        <v>17375.1308</v>
       </c>
       <c r="G21" t="n">
-        <v>296.8666666666667</v>
+        <v>77371.33193519163</v>
       </c>
       <c r="H21" t="n">
-        <v>292.7166666666666</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>295</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1316,42 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C22" t="n">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D22" t="n">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E22" t="n">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F22" t="n">
-        <v>100</v>
+        <v>2820.3952</v>
       </c>
       <c r="G22" t="n">
-        <v>297</v>
+        <v>77371.33193519163</v>
       </c>
       <c r="H22" t="n">
-        <v>292.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>295</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1360,42 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C23" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D23" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E23" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F23" t="n">
-        <v>300</v>
+        <v>76</v>
       </c>
       <c r="G23" t="n">
-        <v>297</v>
+        <v>77447.33193519163</v>
       </c>
       <c r="H23" t="n">
-        <v>293.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>295</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1404,7 +1203,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C24" t="n">
         <v>295</v>
@@ -1413,33 +1212,24 @@
         <v>295</v>
       </c>
       <c r="E24" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F24" t="n">
-        <v>12.2286</v>
+        <v>282.7399</v>
       </c>
       <c r="G24" t="n">
-        <v>297</v>
+        <v>77447.33193519163</v>
       </c>
       <c r="H24" t="n">
-        <v>293.3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>295</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1448,42 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C25" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D25" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E25" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F25" t="n">
-        <v>16479.085</v>
+        <v>4735</v>
       </c>
       <c r="G25" t="n">
-        <v>296.8666666666667</v>
+        <v>82182.33193519163</v>
       </c>
       <c r="H25" t="n">
-        <v>293.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>295</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1492,42 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C26" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D26" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E26" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F26" t="n">
-        <v>409.049</v>
+        <v>1300</v>
       </c>
       <c r="G26" t="n">
-        <v>296.7333333333333</v>
+        <v>80882.33193519163</v>
       </c>
       <c r="H26" t="n">
-        <v>293.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>295</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1536,42 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C27" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D27" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E27" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F27" t="n">
-        <v>1636.7484</v>
+        <v>403</v>
       </c>
       <c r="G27" t="n">
-        <v>296.5333333333334</v>
+        <v>81285.33193519163</v>
       </c>
       <c r="H27" t="n">
-        <v>293.7833333333334</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>295</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,42 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C28" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D28" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E28" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F28" t="n">
-        <v>3230</v>
+        <v>40.3624</v>
       </c>
       <c r="G28" t="n">
-        <v>296.3333333333333</v>
+        <v>81244.96953519163</v>
       </c>
       <c r="H28" t="n">
-        <v>293.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>295</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1624,42 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C29" t="n">
         <v>295</v>
       </c>
       <c r="D29" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E29" t="n">
         <v>295</v>
       </c>
       <c r="F29" t="n">
-        <v>30.1517</v>
+        <v>1740.3624</v>
       </c>
       <c r="G29" t="n">
-        <v>296.1333333333333</v>
+        <v>79504.60713519163</v>
       </c>
       <c r="H29" t="n">
-        <v>294.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>295</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1680,30 +1425,21 @@
         <v>295</v>
       </c>
       <c r="F30" t="n">
-        <v>1730</v>
+        <v>2086.0523</v>
       </c>
       <c r="G30" t="n">
-        <v>295.9333333333333</v>
+        <v>79504.60713519163</v>
       </c>
       <c r="H30" t="n">
-        <v>294.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>295</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,30 +1460,21 @@
         <v>295</v>
       </c>
       <c r="F31" t="n">
-        <v>4449.4956</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>295.6</v>
+        <v>79504.60713519163</v>
       </c>
       <c r="H31" t="n">
-        <v>294.2833333333334</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>295</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1765,35 +1492,24 @@
         <v>295</v>
       </c>
       <c r="E32" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F32" t="n">
-        <v>7985.1315</v>
+        <v>11.6152</v>
       </c>
       <c r="G32" t="n">
-        <v>295.4</v>
+        <v>79504.60713519163</v>
       </c>
       <c r="H32" t="n">
-        <v>294.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>295</v>
-      </c>
-      <c r="L32" t="n">
-        <v>295</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1814,32 +1530,21 @@
         <v>295</v>
       </c>
       <c r="F33" t="n">
-        <v>8875.309499999999</v>
+        <v>800</v>
       </c>
       <c r="G33" t="n">
-        <v>295.2</v>
+        <v>79504.60713519163</v>
       </c>
       <c r="H33" t="n">
-        <v>294.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>295</v>
-      </c>
-      <c r="L33" t="n">
-        <v>295</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,44 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C34" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D34" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E34" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F34" t="n">
-        <v>215</v>
+        <v>491.9965</v>
       </c>
       <c r="G34" t="n">
-        <v>295.2</v>
+        <v>79504.60713519163</v>
       </c>
       <c r="H34" t="n">
-        <v>294.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>295</v>
-      </c>
-      <c r="L34" t="n">
-        <v>295</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1897,41 +1591,30 @@
         <v>296</v>
       </c>
       <c r="C35" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D35" t="n">
         <v>296</v>
       </c>
       <c r="E35" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F35" t="n">
-        <v>2.1173</v>
+        <v>1390.6297</v>
       </c>
       <c r="G35" t="n">
-        <v>295.1333333333333</v>
+        <v>79504.60713519163</v>
       </c>
       <c r="H35" t="n">
-        <v>294.7</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>296</v>
-      </c>
-      <c r="L35" t="n">
-        <v>295</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1940,44 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C36" t="n">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D36" t="n">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E36" t="n">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F36" t="n">
-        <v>683</v>
+        <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>295.1333333333333</v>
+        <v>79501.60713519163</v>
       </c>
       <c r="H36" t="n">
-        <v>294.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>296</v>
-      </c>
-      <c r="L36" t="n">
-        <v>295</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1989,41 +1661,30 @@
         <v>295</v>
       </c>
       <c r="C37" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D37" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E37" t="n">
         <v>295</v>
       </c>
       <c r="F37" t="n">
-        <v>250</v>
+        <v>675</v>
       </c>
       <c r="G37" t="n">
-        <v>295.0666666666667</v>
+        <v>80176.60713519163</v>
       </c>
       <c r="H37" t="n">
-        <v>294.9666666666666</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>296</v>
-      </c>
-      <c r="L37" t="n">
-        <v>295</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2032,44 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C38" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D38" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E38" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F38" t="n">
-        <v>201</v>
+        <v>81.7217</v>
       </c>
       <c r="G38" t="n">
-        <v>295.0666666666667</v>
+        <v>80094.88543519164</v>
       </c>
       <c r="H38" t="n">
-        <v>295.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>295</v>
-      </c>
-      <c r="L38" t="n">
-        <v>295</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2078,7 +1728,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C39" t="n">
         <v>296</v>
@@ -2087,35 +1737,24 @@
         <v>296</v>
       </c>
       <c r="E39" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F39" t="n">
-        <v>402</v>
+        <v>1.7</v>
       </c>
       <c r="G39" t="n">
-        <v>295.1333333333333</v>
+        <v>80096.58543519164</v>
       </c>
       <c r="H39" t="n">
-        <v>295.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>296</v>
-      </c>
-      <c r="L39" t="n">
-        <v>295</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2136,32 +1775,21 @@
         <v>296</v>
       </c>
       <c r="F40" t="n">
-        <v>597</v>
+        <v>21.186</v>
       </c>
       <c r="G40" t="n">
-        <v>295.2666666666667</v>
+        <v>80096.58543519164</v>
       </c>
       <c r="H40" t="n">
-        <v>295.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>296</v>
-      </c>
-      <c r="L40" t="n">
-        <v>295</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2170,44 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C41" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D41" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E41" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F41" t="n">
-        <v>3398.98</v>
+        <v>278.2428</v>
       </c>
       <c r="G41" t="n">
-        <v>295.3333333333333</v>
+        <v>80374.82823519164</v>
       </c>
       <c r="H41" t="n">
-        <v>295.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>296</v>
-      </c>
-      <c r="L41" t="n">
-        <v>295</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2216,44 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C42" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D42" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E42" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F42" t="n">
-        <v>2588.6612</v>
+        <v>1.7</v>
       </c>
       <c r="G42" t="n">
-        <v>295.4666666666666</v>
+        <v>80376.52823519164</v>
       </c>
       <c r="H42" t="n">
-        <v>295.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>295</v>
-      </c>
-      <c r="L42" t="n">
-        <v>295</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,44 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C43" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D43" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E43" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F43" t="n">
-        <v>5792.7749</v>
+        <v>89.0528</v>
       </c>
       <c r="G43" t="n">
-        <v>295.5333333333334</v>
+        <v>80376.52823519164</v>
       </c>
       <c r="H43" t="n">
-        <v>295.45</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>296</v>
-      </c>
-      <c r="L43" t="n">
-        <v>295</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2308,44 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C44" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D44" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E44" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F44" t="n">
-        <v>3653.4303</v>
+        <v>35.009</v>
       </c>
       <c r="G44" t="n">
-        <v>295.6</v>
+        <v>80376.52823519164</v>
       </c>
       <c r="H44" t="n">
-        <v>295.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>296</v>
-      </c>
-      <c r="L44" t="n">
-        <v>295</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2354,44 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C45" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D45" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E45" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F45" t="n">
-        <v>695.2283</v>
+        <v>16570.1232</v>
       </c>
       <c r="G45" t="n">
-        <v>295.8</v>
+        <v>96946.65143519164</v>
       </c>
       <c r="H45" t="n">
-        <v>295.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>296</v>
-      </c>
-      <c r="L45" t="n">
-        <v>295</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2412,32 +1985,21 @@
         <v>298</v>
       </c>
       <c r="F46" t="n">
-        <v>2833.9595</v>
+        <v>479.937</v>
       </c>
       <c r="G46" t="n">
-        <v>296</v>
+        <v>96466.71443519164</v>
       </c>
       <c r="H46" t="n">
-        <v>295.65</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>298</v>
-      </c>
-      <c r="L46" t="n">
-        <v>295</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2458,32 +2020,21 @@
         <v>298</v>
       </c>
       <c r="F47" t="n">
-        <v>2330.8657</v>
+        <v>12.0232</v>
       </c>
       <c r="G47" t="n">
-        <v>296.2</v>
+        <v>96466.71443519164</v>
       </c>
       <c r="H47" t="n">
-        <v>295.7166666666666</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>298</v>
-      </c>
-      <c r="L47" t="n">
-        <v>295</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2492,44 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C48" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D48" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E48" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F48" t="n">
-        <v>2260.0275</v>
+        <v>3396.47</v>
       </c>
       <c r="G48" t="n">
-        <v>296.4</v>
+        <v>93070.24443519163</v>
       </c>
       <c r="H48" t="n">
-        <v>295.7833333333334</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>298</v>
-      </c>
-      <c r="L48" t="n">
-        <v>295</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2538,44 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C49" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D49" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E49" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F49" t="n">
-        <v>4918.783333333334</v>
+        <v>12.0232</v>
       </c>
       <c r="G49" t="n">
-        <v>296.6666666666667</v>
+        <v>93082.26763519163</v>
       </c>
       <c r="H49" t="n">
-        <v>295.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>298</v>
-      </c>
-      <c r="L49" t="n">
-        <v>295</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2584,42 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C50" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D50" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E50" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F50" t="n">
-        <v>4.4662</v>
+        <v>7118.6412</v>
       </c>
       <c r="G50" t="n">
-        <v>296.8</v>
+        <v>85963.62643519163</v>
       </c>
       <c r="H50" t="n">
-        <v>295.95</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>295</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2628,42 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C51" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D51" t="n">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E51" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F51" t="n">
-        <v>11589.21416666667</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
-        <v>297.0666666666667</v>
+        <v>85963.62643519163</v>
       </c>
       <c r="H51" t="n">
-        <v>296.05</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>295</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2672,42 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C52" t="n">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D52" t="n">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E52" t="n">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F52" t="n">
-        <v>29221.9386</v>
+        <v>300</v>
       </c>
       <c r="G52" t="n">
-        <v>297.6666666666667</v>
+        <v>85963.62643519163</v>
       </c>
       <c r="H52" t="n">
-        <v>296.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>295</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2716,42 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C53" t="n">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D53" t="n">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E53" t="n">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F53" t="n">
-        <v>511.265</v>
+        <v>12.2286</v>
       </c>
       <c r="G53" t="n">
-        <v>298</v>
+        <v>85951.39783519163</v>
       </c>
       <c r="H53" t="n">
-        <v>296.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>295</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2760,42 +2253,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C54" t="n">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D54" t="n">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E54" t="n">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F54" t="n">
-        <v>5365.11</v>
+        <v>16479.085</v>
       </c>
       <c r="G54" t="n">
-        <v>298.4666666666666</v>
+        <v>69472.31283519164</v>
       </c>
       <c r="H54" t="n">
-        <v>296.5</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>295</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+        <v>295</v>
+      </c>
+      <c r="K54" t="n">
+        <v>295</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2804,42 +2292,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C55" t="n">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D55" t="n">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="E55" t="n">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F55" t="n">
-        <v>14465.778</v>
+        <v>409.049</v>
       </c>
       <c r="G55" t="n">
-        <v>299</v>
+        <v>69472.31283519164</v>
       </c>
       <c r="H55" t="n">
-        <v>296.65</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>295</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>295</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2848,42 +2333,41 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C56" t="n">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D56" t="n">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="E56" t="n">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0001</v>
+        <v>1636.7484</v>
       </c>
       <c r="G56" t="n">
-        <v>299.6</v>
+        <v>69472.31283519164</v>
       </c>
       <c r="H56" t="n">
-        <v>296.7666666666667</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>295</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+        <v>294</v>
+      </c>
+      <c r="K56" t="n">
+        <v>295</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2892,42 +2376,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C57" t="n">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D57" t="n">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="E57" t="n">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="F57" t="n">
-        <v>33243.8808</v>
+        <v>3230</v>
       </c>
       <c r="G57" t="n">
-        <v>300.2</v>
+        <v>72702.31283519164</v>
       </c>
       <c r="H57" t="n">
-        <v>296.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>295</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2936,42 +2411,37 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C58" t="n">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D58" t="n">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E58" t="n">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F58" t="n">
-        <v>8682.7624</v>
+        <v>30.1517</v>
       </c>
       <c r="G58" t="n">
-        <v>300.6666666666667</v>
+        <v>72702.31283519164</v>
       </c>
       <c r="H58" t="n">
-        <v>297.0166666666667</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>295</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+        <v>295</v>
+      </c>
+      <c r="K58" t="n">
+        <v>295</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2980,42 +2450,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C59" t="n">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D59" t="n">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E59" t="n">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F59" t="n">
-        <v>11.4582</v>
+        <v>1730</v>
       </c>
       <c r="G59" t="n">
-        <v>301</v>
+        <v>72702.31283519164</v>
       </c>
       <c r="H59" t="n">
-        <v>297.1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>295</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>295</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3024,42 +2491,41 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C60" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D60" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E60" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F60" t="n">
-        <v>290.8296</v>
+        <v>4449.4956</v>
       </c>
       <c r="G60" t="n">
-        <v>301.1333333333333</v>
+        <v>72702.31283519164</v>
       </c>
       <c r="H60" t="n">
-        <v>297.1833333333333</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>295</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+        <v>295</v>
+      </c>
+      <c r="K60" t="n">
+        <v>295</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3068,42 +2534,41 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C61" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D61" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E61" t="n">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F61" t="n">
-        <v>368.7898</v>
+        <v>7985.1315</v>
       </c>
       <c r="G61" t="n">
-        <v>301.2666666666667</v>
+        <v>72702.31283519164</v>
       </c>
       <c r="H61" t="n">
-        <v>297.2666666666667</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>295</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+        <v>295</v>
+      </c>
+      <c r="K61" t="n">
+        <v>295</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3112,42 +2577,41 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C62" t="n">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D62" t="n">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E62" t="n">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F62" t="n">
-        <v>11.4582</v>
+        <v>8875.309499999999</v>
       </c>
       <c r="G62" t="n">
-        <v>301.4666666666666</v>
+        <v>72702.31283519164</v>
       </c>
       <c r="H62" t="n">
-        <v>297.3666666666667</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>295</v>
-      </c>
-      <c r="M62" t="inlineStr">
+        <v>295</v>
+      </c>
+      <c r="K62" t="n">
+        <v>295</v>
+      </c>
+      <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3156,42 +2620,41 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C63" t="n">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D63" t="n">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E63" t="n">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F63" t="n">
-        <v>3653.4303</v>
+        <v>215</v>
       </c>
       <c r="G63" t="n">
-        <v>301.6666666666667</v>
+        <v>72917.31283519164</v>
       </c>
       <c r="H63" t="n">
-        <v>297.4666666666666</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>295</v>
-      </c>
-      <c r="M63" t="inlineStr">
+        <v>295</v>
+      </c>
+      <c r="K63" t="n">
+        <v>295</v>
+      </c>
+      <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3200,42 +2663,41 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C64" t="n">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D64" t="n">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E64" t="n">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F64" t="n">
-        <v>24261.7464</v>
+        <v>2.1173</v>
       </c>
       <c r="G64" t="n">
-        <v>301.8</v>
+        <v>72917.31283519164</v>
       </c>
       <c r="H64" t="n">
-        <v>297.5833333333333</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>295</v>
-      </c>
-      <c r="M64" t="inlineStr">
+        <v>296</v>
+      </c>
+      <c r="K64" t="n">
+        <v>295</v>
+      </c>
+      <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3244,42 +2706,41 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C65" t="n">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D65" t="n">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E65" t="n">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F65" t="n">
-        <v>5014.5843</v>
+        <v>683</v>
       </c>
       <c r="G65" t="n">
-        <v>302.0666666666667</v>
+        <v>72917.31283519164</v>
       </c>
       <c r="H65" t="n">
-        <v>297.7</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>295</v>
-      </c>
-      <c r="M65" t="inlineStr">
+        <v>296</v>
+      </c>
+      <c r="K65" t="n">
+        <v>295</v>
+      </c>
+      <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,42 +2749,41 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C66" t="n">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D66" t="n">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E66" t="n">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F66" t="n">
-        <v>938.3815</v>
+        <v>250</v>
       </c>
       <c r="G66" t="n">
-        <v>302.1333333333333</v>
+        <v>72667.31283519164</v>
       </c>
       <c r="H66" t="n">
-        <v>297.8</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>295</v>
-      </c>
-      <c r="M66" t="inlineStr">
+        <v>296</v>
+      </c>
+      <c r="K66" t="n">
+        <v>295</v>
+      </c>
+      <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3332,42 +2792,41 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C67" t="n">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D67" t="n">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E67" t="n">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F67" t="n">
-        <v>7709.3841</v>
+        <v>201</v>
       </c>
       <c r="G67" t="n">
-        <v>302</v>
+        <v>72868.31283519164</v>
       </c>
       <c r="H67" t="n">
-        <v>297.9333333333333</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>295</v>
-      </c>
-      <c r="M67" t="inlineStr">
+        <v>295</v>
+      </c>
+      <c r="K67" t="n">
+        <v>295</v>
+      </c>
+      <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3376,42 +2835,41 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C68" t="n">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D68" t="n">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E68" t="n">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F68" t="n">
-        <v>315.1446</v>
+        <v>402</v>
       </c>
       <c r="G68" t="n">
-        <v>302</v>
+        <v>72868.31283519164</v>
       </c>
       <c r="H68" t="n">
-        <v>298.0166666666667</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>295</v>
-      </c>
-      <c r="M68" t="inlineStr">
+        <v>296</v>
+      </c>
+      <c r="K68" t="n">
+        <v>295</v>
+      </c>
+      <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3420,42 +2878,41 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C69" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D69" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E69" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F69" t="n">
-        <v>694</v>
+        <v>597</v>
       </c>
       <c r="G69" t="n">
-        <v>301.8</v>
+        <v>72868.31283519164</v>
       </c>
       <c r="H69" t="n">
-        <v>298.1</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>295</v>
-      </c>
-      <c r="M69" t="inlineStr">
+        <v>296</v>
+      </c>
+      <c r="K69" t="n">
+        <v>295</v>
+      </c>
+      <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3464,42 +2921,41 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C70" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D70" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E70" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F70" t="n">
-        <v>5761.1734</v>
+        <v>3398.98</v>
       </c>
       <c r="G70" t="n">
-        <v>301.5333333333334</v>
+        <v>69469.33283519164</v>
       </c>
       <c r="H70" t="n">
-        <v>298.1666666666667</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>295</v>
-      </c>
-      <c r="M70" t="inlineStr">
+        <v>296</v>
+      </c>
+      <c r="K70" t="n">
+        <v>295</v>
+      </c>
+      <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,42 +2964,41 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C71" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D71" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E71" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F71" t="n">
-        <v>2508.0091</v>
+        <v>2588.6612</v>
       </c>
       <c r="G71" t="n">
-        <v>301.2666666666667</v>
+        <v>72057.99403519164</v>
       </c>
       <c r="H71" t="n">
-        <v>298.2333333333333</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>295</v>
-      </c>
-      <c r="M71" t="inlineStr">
+        <v>295</v>
+      </c>
+      <c r="K71" t="n">
+        <v>295</v>
+      </c>
+      <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3552,42 +3007,41 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C72" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D72" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E72" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F72" t="n">
-        <v>3953.6599</v>
+        <v>5792.7749</v>
       </c>
       <c r="G72" t="n">
-        <v>300.9333333333333</v>
+        <v>72057.99403519164</v>
       </c>
       <c r="H72" t="n">
-        <v>298.2833333333334</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>295</v>
-      </c>
-      <c r="M72" t="inlineStr">
+        <v>296</v>
+      </c>
+      <c r="K72" t="n">
+        <v>295</v>
+      </c>
+      <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3596,42 +3050,41 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C73" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D73" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E73" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F73" t="n">
-        <v>3587.0321</v>
+        <v>3653.4303</v>
       </c>
       <c r="G73" t="n">
-        <v>300.7333333333333</v>
+        <v>72057.99403519164</v>
       </c>
       <c r="H73" t="n">
-        <v>298.3166666666667</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>295</v>
-      </c>
-      <c r="M73" t="inlineStr">
+        <v>296</v>
+      </c>
+      <c r="K73" t="n">
+        <v>295</v>
+      </c>
+      <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3640,42 +3093,41 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C74" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D74" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E74" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F74" t="n">
-        <v>2106.1171</v>
+        <v>695.2283</v>
       </c>
       <c r="G74" t="n">
-        <v>300.6666666666667</v>
+        <v>72753.22233519165</v>
       </c>
       <c r="H74" t="n">
-        <v>298.35</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>295</v>
-      </c>
-      <c r="M74" t="inlineStr">
+        <v>296</v>
+      </c>
+      <c r="K74" t="n">
+        <v>295</v>
+      </c>
+      <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,42 +3136,41 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C75" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D75" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E75" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F75" t="n">
-        <v>9990.7803</v>
+        <v>2833.9595</v>
       </c>
       <c r="G75" t="n">
-        <v>300.6666666666667</v>
+        <v>72753.22233519165</v>
       </c>
       <c r="H75" t="n">
-        <v>298.3833333333333</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>295</v>
-      </c>
-      <c r="M75" t="inlineStr">
+        <v>298</v>
+      </c>
+      <c r="K75" t="n">
+        <v>295</v>
+      </c>
+      <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3728,42 +3179,41 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C76" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D76" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E76" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F76" t="n">
-        <v>8711.167799999999</v>
+        <v>2330.8657</v>
       </c>
       <c r="G76" t="n">
-        <v>300.6666666666667</v>
+        <v>72753.22233519165</v>
       </c>
       <c r="H76" t="n">
-        <v>298.3833333333333</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>295</v>
-      </c>
-      <c r="M76" t="inlineStr">
+        <v>298</v>
+      </c>
+      <c r="K76" t="n">
+        <v>295</v>
+      </c>
+      <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3772,42 +3222,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C77" t="n">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D77" t="n">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E77" t="n">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F77" t="n">
-        <v>241.018</v>
+        <v>2260.0275</v>
       </c>
       <c r="G77" t="n">
-        <v>300.7333333333333</v>
+        <v>72753.22233519165</v>
       </c>
       <c r="H77" t="n">
-        <v>298.45</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>295</v>
-      </c>
-      <c r="M77" t="inlineStr">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>295</v>
+      </c>
+      <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3816,42 +3263,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C78" t="n">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D78" t="n">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E78" t="n">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F78" t="n">
-        <v>5892.9904</v>
+        <v>4918.783333333334</v>
       </c>
       <c r="G78" t="n">
-        <v>300.9333333333333</v>
+        <v>77672.00566852499</v>
       </c>
       <c r="H78" t="n">
-        <v>298.55</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>295</v>
-      </c>
-      <c r="M78" t="inlineStr">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>295</v>
+      </c>
+      <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3860,43 +3304,40 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C79" t="n">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D79" t="n">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E79" t="n">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F79" t="n">
-        <v>8363.347</v>
+        <v>4.4662</v>
       </c>
       <c r="G79" t="n">
-        <v>301.1333333333333</v>
+        <v>77667.53946852499</v>
       </c>
       <c r="H79" t="n">
-        <v>298.7</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>1</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>295</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
-        <v>1.028898305084746</v>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>295</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3904,36 +3345,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C80" t="n">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D80" t="n">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E80" t="n">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F80" t="n">
-        <v>7190.268</v>
+        <v>11589.21416666667</v>
       </c>
       <c r="G80" t="n">
-        <v>301.2666666666667</v>
+        <v>89256.75363519166</v>
       </c>
       <c r="H80" t="n">
-        <v>298.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>1</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>295</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3942,7 +3386,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C81" t="n">
         <v>304</v>
@@ -3951,27 +3395,30 @@
         <v>304</v>
       </c>
       <c r="E81" t="n">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F81" t="n">
-        <v>663.8909</v>
+        <v>29221.9386</v>
       </c>
       <c r="G81" t="n">
-        <v>301.4666666666666</v>
+        <v>118478.6922351917</v>
       </c>
       <c r="H81" t="n">
-        <v>298.95</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>1</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>295</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3980,36 +3427,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C82" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D82" t="n">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E82" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F82" t="n">
-        <v>5168.2651</v>
+        <v>511.265</v>
       </c>
       <c r="G82" t="n">
-        <v>301.5333333333334</v>
+        <v>117967.4272351917</v>
       </c>
       <c r="H82" t="n">
-        <v>299.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>1</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>295</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,36 +3468,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C83" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D83" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E83" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F83" t="n">
-        <v>331.9455</v>
+        <v>5365.11</v>
       </c>
       <c r="G83" t="n">
-        <v>301.7333333333333</v>
+        <v>123332.5372351917</v>
       </c>
       <c r="H83" t="n">
-        <v>299.2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>1</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>295</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4056,36 +3509,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C84" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D84" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E84" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F84" t="n">
-        <v>3816.7469</v>
+        <v>14465.778</v>
       </c>
       <c r="G84" t="n">
-        <v>302.0666666666667</v>
+        <v>137798.3152351917</v>
       </c>
       <c r="H84" t="n">
-        <v>299.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>1</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>295</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4094,36 +3550,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C85" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D85" t="n">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E85" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F85" t="n">
-        <v>7059.0729</v>
+        <v>0.0001</v>
       </c>
       <c r="G85" t="n">
-        <v>302.4</v>
+        <v>137798.3152351917</v>
       </c>
       <c r="H85" t="n">
-        <v>299.55</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>1</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>295</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4144,24 +3603,27 @@
         <v>305</v>
       </c>
       <c r="F86" t="n">
-        <v>100</v>
+        <v>33243.8808</v>
       </c>
       <c r="G86" t="n">
-        <v>302.7333333333333</v>
+        <v>171042.1960351916</v>
       </c>
       <c r="H86" t="n">
-        <v>299.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>1</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>295</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4170,36 +3632,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C87" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D87" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E87" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F87" t="n">
-        <v>3539.8892</v>
+        <v>8682.7624</v>
       </c>
       <c r="G87" t="n">
-        <v>303.0666666666667</v>
+        <v>162359.4336351916</v>
       </c>
       <c r="H87" t="n">
-        <v>299.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>1</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>295</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4208,36 +3673,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C88" t="n">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D88" t="n">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E88" t="n">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F88" t="n">
-        <v>2566.1539</v>
+        <v>11.4582</v>
       </c>
       <c r="G88" t="n">
-        <v>303.4666666666666</v>
+        <v>162347.9754351916</v>
       </c>
       <c r="H88" t="n">
-        <v>300.1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>1</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>295</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4246,36 +3714,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C89" t="n">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D89" t="n">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E89" t="n">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F89" t="n">
-        <v>2229.3127</v>
+        <v>290.8296</v>
       </c>
       <c r="G89" t="n">
-        <v>303.8</v>
+        <v>162057.1458351917</v>
       </c>
       <c r="H89" t="n">
-        <v>300.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>1</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>295</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4284,36 +3755,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C90" t="n">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D90" t="n">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E90" t="n">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F90" t="n">
-        <v>566.2455</v>
+        <v>368.7898</v>
       </c>
       <c r="G90" t="n">
-        <v>304.1333333333333</v>
+        <v>162057.1458351917</v>
       </c>
       <c r="H90" t="n">
-        <v>300.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>1</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>295</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4322,36 +3796,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C91" t="n">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D91" t="n">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E91" t="n">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F91" t="n">
-        <v>190</v>
+        <v>11.4582</v>
       </c>
       <c r="G91" t="n">
-        <v>304.4666666666666</v>
+        <v>162068.6040351916</v>
       </c>
       <c r="H91" t="n">
-        <v>300.6</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>1</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>295</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4360,36 +3837,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C92" t="n">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D92" t="n">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E92" t="n">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F92" t="n">
-        <v>15733.6694</v>
+        <v>3653.4303</v>
       </c>
       <c r="G92" t="n">
-        <v>304.6</v>
+        <v>162068.6040351916</v>
       </c>
       <c r="H92" t="n">
-        <v>300.75</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>1</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>295</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4398,36 +3878,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C93" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D93" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E93" t="n">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F93" t="n">
-        <v>5164.9999</v>
+        <v>24261.7464</v>
       </c>
       <c r="G93" t="n">
-        <v>304.6</v>
+        <v>186330.3504351916</v>
       </c>
       <c r="H93" t="n">
-        <v>300.9</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>1</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>295</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4436,36 +3919,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C94" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D94" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E94" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F94" t="n">
-        <v>329.2488</v>
+        <v>5014.5843</v>
       </c>
       <c r="G94" t="n">
-        <v>304.5333333333334</v>
+        <v>186330.3504351916</v>
       </c>
       <c r="H94" t="n">
-        <v>301.0333333333334</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>1</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>295</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4474,36 +3960,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C95" t="n">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D95" t="n">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E95" t="n">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F95" t="n">
-        <v>1286.79</v>
+        <v>938.3815</v>
       </c>
       <c r="G95" t="n">
-        <v>304.5333333333334</v>
+        <v>185391.9689351917</v>
       </c>
       <c r="H95" t="n">
-        <v>301.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>1</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>295</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4512,36 +4001,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C96" t="n">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D96" t="n">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E96" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F96" t="n">
-        <v>3007.0935</v>
+        <v>7709.3841</v>
       </c>
       <c r="G96" t="n">
-        <v>304.6</v>
+        <v>193101.3530351917</v>
       </c>
       <c r="H96" t="n">
-        <v>301.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>1</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>295</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4550,36 +4042,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C97" t="n">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D97" t="n">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E97" t="n">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F97" t="n">
-        <v>7429.2065</v>
+        <v>315.1446</v>
       </c>
       <c r="G97" t="n">
-        <v>304.6666666666667</v>
+        <v>192786.2084351917</v>
       </c>
       <c r="H97" t="n">
-        <v>301.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>1</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>295</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4588,36 +4083,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C98" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D98" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E98" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F98" t="n">
-        <v>219.5243</v>
+        <v>694</v>
       </c>
       <c r="G98" t="n">
-        <v>304.6</v>
+        <v>192092.2084351917</v>
       </c>
       <c r="H98" t="n">
-        <v>301.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>1</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>295</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4626,36 +4124,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C99" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D99" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E99" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F99" t="n">
-        <v>5808.3677</v>
+        <v>5761.1734</v>
       </c>
       <c r="G99" t="n">
-        <v>304.4666666666666</v>
+        <v>192092.2084351917</v>
       </c>
       <c r="H99" t="n">
-        <v>301.7</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>1</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>295</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4664,36 +4165,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C100" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D100" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E100" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F100" t="n">
-        <v>2005.91</v>
+        <v>2508.0091</v>
       </c>
       <c r="G100" t="n">
-        <v>304.2666666666667</v>
+        <v>192092.2084351917</v>
       </c>
       <c r="H100" t="n">
-        <v>301.8</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>1</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>295</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4702,36 +4206,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C101" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D101" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E101" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F101" t="n">
-        <v>1264.4801</v>
+        <v>3953.6599</v>
       </c>
       <c r="G101" t="n">
-        <v>304.1333333333333</v>
+        <v>192092.2084351917</v>
       </c>
       <c r="H101" t="n">
-        <v>301.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>295</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4740,36 +4247,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C102" t="n">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D102" t="n">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E102" t="n">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F102" t="n">
-        <v>715.3458000000001</v>
+        <v>3587.0321</v>
       </c>
       <c r="G102" t="n">
-        <v>304.0666666666667</v>
+        <v>192092.2084351917</v>
       </c>
       <c r="H102" t="n">
-        <v>302.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>1</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>295</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4778,36 +4288,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C103" t="n">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D103" t="n">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E103" t="n">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F103" t="n">
-        <v>167.1509</v>
+        <v>2106.1171</v>
       </c>
       <c r="G103" t="n">
-        <v>304</v>
+        <v>192092.2084351917</v>
       </c>
       <c r="H103" t="n">
-        <v>302.2166666666666</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>295</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4816,36 +4329,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C104" t="n">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D104" t="n">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E104" t="n">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F104" t="n">
-        <v>277.4905</v>
+        <v>9990.7803</v>
       </c>
       <c r="G104" t="n">
-        <v>304</v>
+        <v>192092.2084351917</v>
       </c>
       <c r="H104" t="n">
-        <v>302.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>295</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4854,36 +4370,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C105" t="n">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D105" t="n">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E105" t="n">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F105" t="n">
-        <v>98.2396</v>
+        <v>8711.167799999999</v>
       </c>
       <c r="G105" t="n">
-        <v>304</v>
+        <v>192092.2084351917</v>
       </c>
       <c r="H105" t="n">
-        <v>302.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>295</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4892,36 +4411,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C106" t="n">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D106" t="n">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E106" t="n">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F106" t="n">
-        <v>4804.8713</v>
+        <v>241.018</v>
       </c>
       <c r="G106" t="n">
-        <v>304</v>
+        <v>192333.2264351917</v>
       </c>
       <c r="H106" t="n">
-        <v>302.6</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>1</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>295</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4930,36 +4452,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C107" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D107" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E107" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F107" t="n">
-        <v>3000</v>
+        <v>5892.9904</v>
       </c>
       <c r="G107" t="n">
-        <v>304.0666666666667</v>
+        <v>198226.2168351917</v>
       </c>
       <c r="H107" t="n">
-        <v>302.7166666666666</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>1</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>295</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4980,24 +4505,27 @@
         <v>305</v>
       </c>
       <c r="F108" t="n">
-        <v>625.2431</v>
+        <v>8363.347</v>
       </c>
       <c r="G108" t="n">
-        <v>304.1333333333333</v>
+        <v>206589.5638351917</v>
       </c>
       <c r="H108" t="n">
-        <v>302.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>1</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>295</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5009,34 +4537,37 @@
         <v>305</v>
       </c>
       <c r="C109" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D109" t="n">
         <v>305</v>
       </c>
       <c r="E109" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F109" t="n">
-        <v>1374.7569</v>
+        <v>7190.268</v>
       </c>
       <c r="G109" t="n">
-        <v>304.2</v>
+        <v>199399.2958351917</v>
       </c>
       <c r="H109" t="n">
-        <v>302.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>295</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1.025508474576271</v>
       </c>
     </row>
     <row r="110">
@@ -5056,24 +4587,21 @@
         <v>304</v>
       </c>
       <c r="F110" t="n">
-        <v>98.2396</v>
+        <v>663.8909</v>
       </c>
       <c r="G110" t="n">
-        <v>304.2</v>
+        <v>199399.2958351917</v>
       </c>
       <c r="H110" t="n">
-        <v>303.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5082,36 +4610,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C111" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D111" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E111" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F111" t="n">
-        <v>277.4905</v>
+        <v>5168.2651</v>
       </c>
       <c r="G111" t="n">
-        <v>304.1333333333333</v>
+        <v>194231.0307351917</v>
       </c>
       <c r="H111" t="n">
-        <v>303.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>1</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5132,24 +4657,21 @@
         <v>304</v>
       </c>
       <c r="F112" t="n">
-        <v>3990.128</v>
+        <v>331.9455</v>
       </c>
       <c r="G112" t="n">
-        <v>304.1333333333333</v>
+        <v>194562.9762351917</v>
       </c>
       <c r="H112" t="n">
-        <v>303.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5158,36 +4680,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C113" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D113" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E113" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F113" t="n">
-        <v>332.6224</v>
+        <v>3816.7469</v>
       </c>
       <c r="G113" t="n">
-        <v>304.2</v>
+        <v>198379.7231351917</v>
       </c>
       <c r="H113" t="n">
-        <v>303.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5196,36 +4715,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C114" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D114" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E114" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F114" t="n">
-        <v>1133.1475</v>
+        <v>7059.0729</v>
       </c>
       <c r="G114" t="n">
-        <v>304.2</v>
+        <v>198379.7231351917</v>
       </c>
       <c r="H114" t="n">
-        <v>303.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5234,36 +4750,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C115" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D115" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E115" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F115" t="n">
-        <v>3191.3508</v>
+        <v>100</v>
       </c>
       <c r="G115" t="n">
-        <v>304.2666666666667</v>
+        <v>198379.7231351917</v>
       </c>
       <c r="H115" t="n">
-        <v>303.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5272,36 +4785,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C116" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D116" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E116" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F116" t="n">
-        <v>4144.7377</v>
+        <v>3539.8892</v>
       </c>
       <c r="G116" t="n">
-        <v>304.2666666666667</v>
+        <v>198379.7231351917</v>
       </c>
       <c r="H116" t="n">
-        <v>303.1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5310,36 +4820,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C117" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D117" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E117" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F117" t="n">
-        <v>190</v>
+        <v>2566.1539</v>
       </c>
       <c r="G117" t="n">
-        <v>304.2</v>
+        <v>200945.8770351917</v>
       </c>
       <c r="H117" t="n">
-        <v>303.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,36 +4855,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C118" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D118" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E118" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F118" t="n">
-        <v>248.06</v>
+        <v>2229.3127</v>
       </c>
       <c r="G118" t="n">
-        <v>304.0666666666667</v>
+        <v>198716.5643351917</v>
       </c>
       <c r="H118" t="n">
-        <v>303.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5386,36 +4890,1048 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C119" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D119" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E119" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F119" t="n">
-        <v>8091.7695</v>
+        <v>566.2455</v>
       </c>
       <c r="G119" t="n">
-        <v>304</v>
+        <v>198716.5643351917</v>
       </c>
       <c r="H119" t="n">
-        <v>303.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>305</v>
+      </c>
+      <c r="C120" t="n">
+        <v>305</v>
+      </c>
+      <c r="D120" t="n">
+        <v>305</v>
+      </c>
+      <c r="E120" t="n">
+        <v>305</v>
+      </c>
+      <c r="F120" t="n">
+        <v>190</v>
+      </c>
+      <c r="G120" t="n">
+        <v>198716.5643351917</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>304</v>
+      </c>
+      <c r="C121" t="n">
+        <v>304</v>
+      </c>
+      <c r="D121" t="n">
+        <v>304</v>
+      </c>
+      <c r="E121" t="n">
+        <v>304</v>
+      </c>
+      <c r="F121" t="n">
+        <v>15733.6694</v>
+      </c>
+      <c r="G121" t="n">
+        <v>182982.8949351917</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>304</v>
+      </c>
+      <c r="C122" t="n">
+        <v>304</v>
+      </c>
+      <c r="D122" t="n">
+        <v>304</v>
+      </c>
+      <c r="E122" t="n">
+        <v>304</v>
+      </c>
+      <c r="F122" t="n">
+        <v>5164.9999</v>
+      </c>
+      <c r="G122" t="n">
+        <v>182982.8949351917</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>304</v>
+      </c>
+      <c r="C123" t="n">
+        <v>304</v>
+      </c>
+      <c r="D123" t="n">
+        <v>304</v>
+      </c>
+      <c r="E123" t="n">
+        <v>304</v>
+      </c>
+      <c r="F123" t="n">
+        <v>329.2488</v>
+      </c>
+      <c r="G123" t="n">
+        <v>182982.8949351917</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>304</v>
+      </c>
+      <c r="C124" t="n">
+        <v>304</v>
+      </c>
+      <c r="D124" t="n">
+        <v>304</v>
+      </c>
+      <c r="E124" t="n">
+        <v>304</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1286.79</v>
+      </c>
+      <c r="G124" t="n">
+        <v>182982.8949351917</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>304</v>
+      </c>
+      <c r="C125" t="n">
+        <v>305</v>
+      </c>
+      <c r="D125" t="n">
+        <v>305</v>
+      </c>
+      <c r="E125" t="n">
+        <v>304</v>
+      </c>
+      <c r="F125" t="n">
+        <v>3007.0935</v>
+      </c>
+      <c r="G125" t="n">
+        <v>185989.9884351917</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>304</v>
+      </c>
+      <c r="C126" t="n">
+        <v>304</v>
+      </c>
+      <c r="D126" t="n">
+        <v>304</v>
+      </c>
+      <c r="E126" t="n">
+        <v>304</v>
+      </c>
+      <c r="F126" t="n">
+        <v>7429.2065</v>
+      </c>
+      <c r="G126" t="n">
+        <v>178560.7819351917</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>303</v>
+      </c>
+      <c r="C127" t="n">
+        <v>303</v>
+      </c>
+      <c r="D127" t="n">
+        <v>303</v>
+      </c>
+      <c r="E127" t="n">
+        <v>303</v>
+      </c>
+      <c r="F127" t="n">
+        <v>219.5243</v>
+      </c>
+      <c r="G127" t="n">
+        <v>178341.2576351917</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>303</v>
+      </c>
+      <c r="C128" t="n">
+        <v>303</v>
+      </c>
+      <c r="D128" t="n">
+        <v>303</v>
+      </c>
+      <c r="E128" t="n">
+        <v>303</v>
+      </c>
+      <c r="F128" t="n">
+        <v>5808.3677</v>
+      </c>
+      <c r="G128" t="n">
+        <v>178341.2576351917</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>302</v>
+      </c>
+      <c r="C129" t="n">
+        <v>302</v>
+      </c>
+      <c r="D129" t="n">
+        <v>302</v>
+      </c>
+      <c r="E129" t="n">
+        <v>302</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2005.91</v>
+      </c>
+      <c r="G129" t="n">
+        <v>176335.3476351917</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>303</v>
+      </c>
+      <c r="C130" t="n">
+        <v>303</v>
+      </c>
+      <c r="D130" t="n">
+        <v>303</v>
+      </c>
+      <c r="E130" t="n">
+        <v>303</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1264.4801</v>
+      </c>
+      <c r="G130" t="n">
+        <v>177599.8277351916</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>304</v>
+      </c>
+      <c r="C131" t="n">
+        <v>304</v>
+      </c>
+      <c r="D131" t="n">
+        <v>304</v>
+      </c>
+      <c r="E131" t="n">
+        <v>304</v>
+      </c>
+      <c r="F131" t="n">
+        <v>715.3458000000001</v>
+      </c>
+      <c r="G131" t="n">
+        <v>178315.1735351917</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>305</v>
+      </c>
+      <c r="C132" t="n">
+        <v>305</v>
+      </c>
+      <c r="D132" t="n">
+        <v>305</v>
+      </c>
+      <c r="E132" t="n">
+        <v>305</v>
+      </c>
+      <c r="F132" t="n">
+        <v>167.1509</v>
+      </c>
+      <c r="G132" t="n">
+        <v>178482.3244351917</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>305</v>
+      </c>
+      <c r="C133" t="n">
+        <v>305</v>
+      </c>
+      <c r="D133" t="n">
+        <v>305</v>
+      </c>
+      <c r="E133" t="n">
+        <v>305</v>
+      </c>
+      <c r="F133" t="n">
+        <v>277.4905</v>
+      </c>
+      <c r="G133" t="n">
+        <v>178482.3244351917</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>305</v>
+      </c>
+      <c r="C134" t="n">
+        <v>305</v>
+      </c>
+      <c r="D134" t="n">
+        <v>305</v>
+      </c>
+      <c r="E134" t="n">
+        <v>305</v>
+      </c>
+      <c r="F134" t="n">
+        <v>98.2396</v>
+      </c>
+      <c r="G134" t="n">
+        <v>178482.3244351917</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>305</v>
+      </c>
+      <c r="C135" t="n">
+        <v>305</v>
+      </c>
+      <c r="D135" t="n">
+        <v>305</v>
+      </c>
+      <c r="E135" t="n">
+        <v>305</v>
+      </c>
+      <c r="F135" t="n">
+        <v>4804.8713</v>
+      </c>
+      <c r="G135" t="n">
+        <v>178482.3244351917</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>305</v>
+      </c>
+      <c r="C136" t="n">
+        <v>305</v>
+      </c>
+      <c r="D136" t="n">
+        <v>305</v>
+      </c>
+      <c r="E136" t="n">
+        <v>305</v>
+      </c>
+      <c r="F136" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G136" t="n">
+        <v>178482.3244351917</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>305</v>
+      </c>
+      <c r="C137" t="n">
+        <v>305</v>
+      </c>
+      <c r="D137" t="n">
+        <v>305</v>
+      </c>
+      <c r="E137" t="n">
+        <v>305</v>
+      </c>
+      <c r="F137" t="n">
+        <v>625.2431</v>
+      </c>
+      <c r="G137" t="n">
+        <v>178482.3244351917</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>305</v>
+      </c>
+      <c r="C138" t="n">
+        <v>305</v>
+      </c>
+      <c r="D138" t="n">
+        <v>305</v>
+      </c>
+      <c r="E138" t="n">
+        <v>305</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1374.7569</v>
+      </c>
+      <c r="G138" t="n">
+        <v>178482.3244351917</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>304</v>
+      </c>
+      <c r="C139" t="n">
+        <v>304</v>
+      </c>
+      <c r="D139" t="n">
+        <v>304</v>
+      </c>
+      <c r="E139" t="n">
+        <v>304</v>
+      </c>
+      <c r="F139" t="n">
+        <v>98.2396</v>
+      </c>
+      <c r="G139" t="n">
+        <v>178384.0848351917</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>304</v>
+      </c>
+      <c r="C140" t="n">
+        <v>304</v>
+      </c>
+      <c r="D140" t="n">
+        <v>304</v>
+      </c>
+      <c r="E140" t="n">
+        <v>304</v>
+      </c>
+      <c r="F140" t="n">
+        <v>277.4905</v>
+      </c>
+      <c r="G140" t="n">
+        <v>178384.0848351917</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>304</v>
+      </c>
+      <c r="C141" t="n">
+        <v>304</v>
+      </c>
+      <c r="D141" t="n">
+        <v>304</v>
+      </c>
+      <c r="E141" t="n">
+        <v>304</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3990.128</v>
+      </c>
+      <c r="G141" t="n">
+        <v>178384.0848351917</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>304</v>
+      </c>
+      <c r="C142" t="n">
+        <v>304</v>
+      </c>
+      <c r="D142" t="n">
+        <v>304</v>
+      </c>
+      <c r="E142" t="n">
+        <v>304</v>
+      </c>
+      <c r="F142" t="n">
+        <v>332.6224</v>
+      </c>
+      <c r="G142" t="n">
+        <v>178384.0848351917</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>303</v>
+      </c>
+      <c r="C143" t="n">
+        <v>303</v>
+      </c>
+      <c r="D143" t="n">
+        <v>303</v>
+      </c>
+      <c r="E143" t="n">
+        <v>303</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1133.1475</v>
+      </c>
+      <c r="G143" t="n">
+        <v>177250.9373351917</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>303</v>
+      </c>
+      <c r="C144" t="n">
+        <v>303</v>
+      </c>
+      <c r="D144" t="n">
+        <v>303</v>
+      </c>
+      <c r="E144" t="n">
+        <v>303</v>
+      </c>
+      <c r="F144" t="n">
+        <v>3191.3508</v>
+      </c>
+      <c r="G144" t="n">
+        <v>177250.9373351917</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>303</v>
+      </c>
+      <c r="C145" t="n">
+        <v>303</v>
+      </c>
+      <c r="D145" t="n">
+        <v>303</v>
+      </c>
+      <c r="E145" t="n">
+        <v>303</v>
+      </c>
+      <c r="F145" t="n">
+        <v>4144.7377</v>
+      </c>
+      <c r="G145" t="n">
+        <v>177250.9373351917</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>303</v>
+      </c>
+      <c r="C146" t="n">
+        <v>303</v>
+      </c>
+      <c r="D146" t="n">
+        <v>303</v>
+      </c>
+      <c r="E146" t="n">
+        <v>303</v>
+      </c>
+      <c r="F146" t="n">
+        <v>190</v>
+      </c>
+      <c r="G146" t="n">
+        <v>177250.9373351917</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>303</v>
+      </c>
+      <c r="C147" t="n">
+        <v>303</v>
+      </c>
+      <c r="D147" t="n">
+        <v>303</v>
+      </c>
+      <c r="E147" t="n">
+        <v>303</v>
+      </c>
+      <c r="F147" t="n">
+        <v>248.06</v>
+      </c>
+      <c r="G147" t="n">
+        <v>177250.9373351917</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>304</v>
+      </c>
+      <c r="C148" t="n">
+        <v>304</v>
+      </c>
+      <c r="D148" t="n">
+        <v>304</v>
+      </c>
+      <c r="E148" t="n">
+        <v>304</v>
+      </c>
+      <c r="F148" t="n">
+        <v>8091.7695</v>
+      </c>
+      <c r="G148" t="n">
+        <v>185342.7068351917</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-14 BackTest BAT.xlsx
+++ b/BackTest/2019-11-14 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M148"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="C2" t="n">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="D2" t="n">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="E2" t="n">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="F2" t="n">
-        <v>5200.0167</v>
+        <v>35.009</v>
       </c>
       <c r="G2" t="n">
-        <v>89926.27113519164</v>
+        <v>80376.52823519164</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="C3" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="D3" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="E3" t="n">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="F3" t="n">
-        <v>8149.26</v>
+        <v>16570.1232</v>
       </c>
       <c r="G3" t="n">
-        <v>89926.27113519164</v>
+        <v>96946.65143519164</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="C4" t="n">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="D4" t="n">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E4" t="n">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="F4" t="n">
-        <v>5.2084</v>
+        <v>479.937</v>
       </c>
       <c r="G4" t="n">
-        <v>89921.06273519163</v>
+        <v>96466.71443519164</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="C5" t="n">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="D5" t="n">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E5" t="n">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="F5" t="n">
-        <v>8.3978</v>
+        <v>12.0232</v>
       </c>
       <c r="G5" t="n">
-        <v>89921.06273519163</v>
+        <v>96466.71443519164</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C6" t="n">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="D6" t="n">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="E6" t="n">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="F6" t="n">
-        <v>3.6</v>
+        <v>3396.47</v>
       </c>
       <c r="G6" t="n">
-        <v>89917.46273519163</v>
+        <v>93070.24443519163</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C7" t="n">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D7" t="n">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="E7" t="n">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="F7" t="n">
-        <v>3110</v>
+        <v>12.0232</v>
       </c>
       <c r="G7" t="n">
-        <v>93027.46273519163</v>
+        <v>93082.26763519163</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C8" t="n">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D8" t="n">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="E8" t="n">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F8" t="n">
-        <v>18712.4246</v>
+        <v>7118.6412</v>
       </c>
       <c r="G8" t="n">
-        <v>93027.46273519163</v>
+        <v>85963.62643519163</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C9" t="n">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D9" t="n">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="E9" t="n">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F9" t="n">
-        <v>1622.4606</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>93027.46273519163</v>
+        <v>85963.62643519163</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C10" t="n">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D10" t="n">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E10" t="n">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F10" t="n">
-        <v>1244</v>
+        <v>300</v>
       </c>
       <c r="G10" t="n">
-        <v>94271.46273519163</v>
+        <v>85963.62643519163</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C11" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D11" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E11" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F11" t="n">
-        <v>673</v>
+        <v>12.2286</v>
       </c>
       <c r="G11" t="n">
-        <v>94271.46273519163</v>
+        <v>85951.39783519163</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C12" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D12" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E12" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F12" t="n">
-        <v>130</v>
+        <v>16479.085</v>
       </c>
       <c r="G12" t="n">
-        <v>94271.46273519163</v>
+        <v>69472.31283519164</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,48 +827,54 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C13" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D13" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E13" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3995</v>
+        <v>409.049</v>
       </c>
       <c r="G13" t="n">
-        <v>94271.46273519163</v>
+        <v>69472.31283519164</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>294</v>
+      </c>
+      <c r="K13" t="n">
+        <v>294</v>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C14" t="n">
         <v>294</v>
@@ -862,153 +883,185 @@
         <v>294</v>
       </c>
       <c r="E14" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F14" t="n">
-        <v>475</v>
+        <v>1636.7484</v>
       </c>
       <c r="G14" t="n">
-        <v>94746.46273519163</v>
+        <v>69472.31283519164</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>294</v>
+      </c>
+      <c r="K14" t="n">
+        <v>294</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>295</v>
+      </c>
+      <c r="C15" t="n">
+        <v>295</v>
+      </c>
+      <c r="D15" t="n">
+        <v>295</v>
+      </c>
+      <c r="E15" t="n">
+        <v>295</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3230</v>
+      </c>
+      <c r="G15" t="n">
+        <v>72702.31283519164</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>294</v>
       </c>
-      <c r="C15" t="n">
+      <c r="K15" t="n">
         <v>294</v>
       </c>
-      <c r="D15" t="n">
-        <v>294</v>
-      </c>
-      <c r="E15" t="n">
-        <v>294</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3350</v>
-      </c>
-      <c r="G15" t="n">
-        <v>94746.46273519163</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C16" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D16" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E16" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F16" t="n">
-        <v>3.1633</v>
+        <v>30.1517</v>
       </c>
       <c r="G16" t="n">
-        <v>94746.46273519163</v>
+        <v>72702.31283519164</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>295</v>
+      </c>
+      <c r="K16" t="n">
+        <v>295</v>
+      </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C17" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D17" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E17" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F17" t="n">
-        <v>90.083</v>
+        <v>1730</v>
       </c>
       <c r="G17" t="n">
-        <v>94746.46273519163</v>
+        <v>72702.31283519164</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>295</v>
+      </c>
+      <c r="K17" t="n">
+        <v>295</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C18" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D18" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E18" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F18" t="n">
-        <v>60.4924</v>
+        <v>4449.4956</v>
       </c>
       <c r="G18" t="n">
-        <v>94746.46273519163</v>
+        <v>72702.31283519164</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1017,33 +1070,40 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>295</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C19" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D19" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E19" t="n">
         <v>294</v>
       </c>
       <c r="F19" t="n">
-        <v>1636.3928</v>
+        <v>7985.1315</v>
       </c>
       <c r="G19" t="n">
-        <v>94746.46273519163</v>
+        <v>72702.31283519164</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,153 +1117,182 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C20" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D20" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E20" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F20" t="n">
-        <v>4155.3174</v>
+        <v>8875.309499999999</v>
       </c>
       <c r="G20" t="n">
-        <v>94746.46273519163</v>
+        <v>72702.31283519164</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>295</v>
+      </c>
+      <c r="K20" t="n">
+        <v>295</v>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C21" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D21" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E21" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F21" t="n">
-        <v>17375.1308</v>
+        <v>215</v>
       </c>
       <c r="G21" t="n">
-        <v>77371.33193519163</v>
+        <v>72917.31283519164</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>295</v>
+      </c>
+      <c r="K21" t="n">
+        <v>295</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C22" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D22" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E22" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F22" t="n">
-        <v>2820.3952</v>
+        <v>2.1173</v>
       </c>
       <c r="G22" t="n">
-        <v>77371.33193519163</v>
+        <v>72917.31283519164</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>296</v>
+      </c>
+      <c r="K22" t="n">
+        <v>295</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C23" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D23" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E23" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F23" t="n">
-        <v>76</v>
+        <v>683</v>
       </c>
       <c r="G23" t="n">
-        <v>77447.33193519163</v>
+        <v>72917.31283519164</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>296</v>
+      </c>
+      <c r="K23" t="n">
+        <v>296</v>
+      </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C24" t="n">
         <v>295</v>
@@ -1212,61 +1301,79 @@
         <v>295</v>
       </c>
       <c r="E24" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F24" t="n">
-        <v>282.7399</v>
+        <v>250</v>
       </c>
       <c r="G24" t="n">
-        <v>77447.33193519163</v>
+        <v>72667.31283519164</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>296</v>
+      </c>
+      <c r="K24" t="n">
+        <v>296</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C25" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D25" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E25" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F25" t="n">
-        <v>4735</v>
+        <v>201</v>
       </c>
       <c r="G25" t="n">
-        <v>82182.33193519163</v>
+        <v>72868.31283519164</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>295</v>
+      </c>
+      <c r="K25" t="n">
+        <v>296</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1285,23 +1392,28 @@
         <v>296</v>
       </c>
       <c r="F26" t="n">
-        <v>1300</v>
+        <v>402</v>
       </c>
       <c r="G26" t="n">
-        <v>80882.33193519163</v>
+        <v>72868.31283519164</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>296</v>
+      </c>
+      <c r="K26" t="n">
+        <v>296</v>
+      </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1311,67 +1423,85 @@
         <v>296</v>
       </c>
       <c r="C27" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D27" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E27" t="n">
         <v>296</v>
       </c>
       <c r="F27" t="n">
-        <v>403</v>
+        <v>597</v>
       </c>
       <c r="G27" t="n">
-        <v>81285.33193519163</v>
+        <v>72868.31283519164</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>296</v>
+      </c>
+      <c r="K27" t="n">
+        <v>296</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C28" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D28" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E28" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F28" t="n">
-        <v>40.3624</v>
+        <v>3398.98</v>
       </c>
       <c r="G28" t="n">
-        <v>81244.96953519163</v>
+        <v>69469.33283519164</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>296</v>
+      </c>
+      <c r="K28" t="n">
+        <v>296</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1381,299 +1511,359 @@
         <v>296</v>
       </c>
       <c r="C29" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D29" t="n">
         <v>296</v>
       </c>
       <c r="E29" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F29" t="n">
-        <v>1740.3624</v>
+        <v>2588.6612</v>
       </c>
       <c r="G29" t="n">
-        <v>79504.60713519163</v>
+        <v>72057.99403519164</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>295</v>
+      </c>
+      <c r="K29" t="n">
+        <v>295</v>
+      </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C30" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D30" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E30" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F30" t="n">
-        <v>2086.0523</v>
+        <v>5792.7749</v>
       </c>
       <c r="G30" t="n">
-        <v>79504.60713519163</v>
+        <v>72057.99403519164</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>296</v>
+      </c>
+      <c r="K30" t="n">
+        <v>295</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C31" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D31" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E31" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>3653.4303</v>
       </c>
       <c r="G31" t="n">
-        <v>79504.60713519163</v>
+        <v>72057.99403519164</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>296</v>
+      </c>
+      <c r="K31" t="n">
+        <v>295</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C32" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D32" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E32" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F32" t="n">
-        <v>11.6152</v>
+        <v>695.2283</v>
       </c>
       <c r="G32" t="n">
-        <v>79504.60713519163</v>
+        <v>72753.22233519165</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>296</v>
+      </c>
+      <c r="K32" t="n">
+        <v>296</v>
+      </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C33" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D33" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E33" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F33" t="n">
-        <v>800</v>
+        <v>2833.9595</v>
       </c>
       <c r="G33" t="n">
-        <v>79504.60713519163</v>
+        <v>72753.22233519165</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>298</v>
+      </c>
+      <c r="K33" t="n">
+        <v>296</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C34" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D34" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E34" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F34" t="n">
-        <v>491.9965</v>
+        <v>2330.8657</v>
       </c>
       <c r="G34" t="n">
-        <v>79504.60713519163</v>
+        <v>72753.22233519165</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>298</v>
+      </c>
+      <c r="K34" t="n">
+        <v>296</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C35" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D35" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E35" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F35" t="n">
-        <v>1390.6297</v>
+        <v>2260.0275</v>
       </c>
       <c r="G35" t="n">
-        <v>79504.60713519163</v>
+        <v>72753.22233519165</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>298</v>
+      </c>
+      <c r="K35" t="n">
+        <v>298</v>
+      </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C36" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D36" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E36" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>4918.783333333334</v>
       </c>
       <c r="G36" t="n">
-        <v>79501.60713519163</v>
+        <v>77672.00566852499</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>298</v>
+      </c>
+      <c r="K36" t="n">
+        <v>298</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C37" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D37" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E37" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F37" t="n">
-        <v>675</v>
+        <v>4.4662</v>
       </c>
       <c r="G37" t="n">
-        <v>80176.60713519163</v>
+        <v>77667.53946852499</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1682,33 +1872,40 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>298</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C38" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D38" t="n">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E38" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F38" t="n">
-        <v>81.7217</v>
+        <v>11589.21416666667</v>
       </c>
       <c r="G38" t="n">
-        <v>80094.88543519164</v>
+        <v>89256.75363519166</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1919,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C39" t="n">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="D39" t="n">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="E39" t="n">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F39" t="n">
-        <v>1.7</v>
+        <v>29221.9386</v>
       </c>
       <c r="G39" t="n">
-        <v>80096.58543519164</v>
+        <v>118478.6922351917</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1955,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C40" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D40" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="E40" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F40" t="n">
-        <v>21.186</v>
+        <v>511.265</v>
       </c>
       <c r="G40" t="n">
-        <v>80096.58543519164</v>
+        <v>117967.4272351917</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1991,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C41" t="n">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D41" t="n">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E41" t="n">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="F41" t="n">
-        <v>278.2428</v>
+        <v>5365.11</v>
       </c>
       <c r="G41" t="n">
-        <v>80374.82823519164</v>
+        <v>123332.5372351917</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +2027,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C42" t="n">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D42" t="n">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="E42" t="n">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F42" t="n">
-        <v>1.7</v>
+        <v>14465.778</v>
       </c>
       <c r="G42" t="n">
-        <v>80376.52823519164</v>
+        <v>137798.3152351917</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +2063,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C43" t="n">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D43" t="n">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="E43" t="n">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F43" t="n">
-        <v>89.0528</v>
+        <v>0.0001</v>
       </c>
       <c r="G43" t="n">
-        <v>80376.52823519164</v>
+        <v>137798.3152351917</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +2099,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C44" t="n">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D44" t="n">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="E44" t="n">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="F44" t="n">
-        <v>35.009</v>
+        <v>33243.8808</v>
       </c>
       <c r="G44" t="n">
-        <v>80376.52823519164</v>
+        <v>171042.1960351916</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +2135,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C45" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D45" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E45" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F45" t="n">
-        <v>16570.1232</v>
+        <v>8682.7624</v>
       </c>
       <c r="G45" t="n">
-        <v>96946.65143519164</v>
+        <v>162359.4336351916</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2171,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C46" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D46" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E46" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F46" t="n">
-        <v>479.937</v>
+        <v>11.4582</v>
       </c>
       <c r="G46" t="n">
-        <v>96466.71443519164</v>
+        <v>162347.9754351916</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2207,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C47" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D47" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E47" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F47" t="n">
-        <v>12.0232</v>
+        <v>290.8296</v>
       </c>
       <c r="G47" t="n">
-        <v>96466.71443519164</v>
+        <v>162057.1458351917</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2243,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C48" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D48" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E48" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F48" t="n">
-        <v>3396.47</v>
+        <v>368.7898</v>
       </c>
       <c r="G48" t="n">
-        <v>93070.24443519163</v>
+        <v>162057.1458351917</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2279,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C49" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D49" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E49" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F49" t="n">
-        <v>12.0232</v>
+        <v>11.4582</v>
       </c>
       <c r="G49" t="n">
-        <v>93082.26763519163</v>
+        <v>162068.6040351916</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2315,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C50" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D50" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E50" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F50" t="n">
-        <v>7118.6412</v>
+        <v>3653.4303</v>
       </c>
       <c r="G50" t="n">
-        <v>85963.62643519163</v>
+        <v>162068.6040351916</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2351,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C51" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D51" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="E51" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F51" t="n">
-        <v>100</v>
+        <v>24261.7464</v>
       </c>
       <c r="G51" t="n">
-        <v>85963.62643519163</v>
+        <v>186330.3504351916</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2387,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C52" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D52" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="E52" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F52" t="n">
-        <v>300</v>
+        <v>5014.5843</v>
       </c>
       <c r="G52" t="n">
-        <v>85963.62643519163</v>
+        <v>186330.3504351916</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2423,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C53" t="n">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D53" t="n">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E53" t="n">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F53" t="n">
-        <v>12.2286</v>
+        <v>938.3815</v>
       </c>
       <c r="G53" t="n">
-        <v>85951.39783519163</v>
+        <v>185391.9689351917</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,67 +2459,65 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C54" t="n">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D54" t="n">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="E54" t="n">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="F54" t="n">
-        <v>16479.085</v>
+        <v>7709.3841</v>
       </c>
       <c r="G54" t="n">
-        <v>69472.31283519164</v>
+        <v>193101.3530351917</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>295</v>
-      </c>
-      <c r="K54" t="n">
-        <v>295</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C55" t="n">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D55" t="n">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="E55" t="n">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="F55" t="n">
-        <v>409.049</v>
+        <v>315.1446</v>
       </c>
       <c r="G55" t="n">
-        <v>69472.31283519164</v>
+        <v>192786.2084351917</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2316,82 +2526,70 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>295</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C56" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D56" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E56" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F56" t="n">
-        <v>1636.7484</v>
+        <v>694</v>
       </c>
       <c r="G56" t="n">
-        <v>69472.31283519164</v>
+        <v>192092.2084351917</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>294</v>
-      </c>
-      <c r="K56" t="n">
-        <v>295</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C57" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D57" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E57" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F57" t="n">
-        <v>3230</v>
+        <v>5761.1734</v>
       </c>
       <c r="G57" t="n">
-        <v>72702.31283519164</v>
+        <v>192092.2084351917</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,67 +2603,65 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C58" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D58" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E58" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F58" t="n">
-        <v>30.1517</v>
+        <v>2508.0091</v>
       </c>
       <c r="G58" t="n">
-        <v>72702.31283519164</v>
+        <v>192092.2084351917</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>295</v>
-      </c>
-      <c r="K58" t="n">
-        <v>295</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C59" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D59" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E59" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F59" t="n">
-        <v>1730</v>
+        <v>3953.6599</v>
       </c>
       <c r="G59" t="n">
-        <v>72702.31283519164</v>
+        <v>192092.2084351917</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2474,919 +2670,775 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>295</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C60" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D60" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E60" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F60" t="n">
-        <v>4449.4956</v>
+        <v>3587.0321</v>
       </c>
       <c r="G60" t="n">
-        <v>72702.31283519164</v>
+        <v>192092.2084351917</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>295</v>
-      </c>
-      <c r="K60" t="n">
-        <v>295</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C61" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D61" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E61" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F61" t="n">
-        <v>7985.1315</v>
+        <v>2106.1171</v>
       </c>
       <c r="G61" t="n">
-        <v>72702.31283519164</v>
+        <v>192092.2084351917</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>295</v>
-      </c>
-      <c r="K61" t="n">
-        <v>295</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C62" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D62" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E62" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F62" t="n">
-        <v>8875.309499999999</v>
+        <v>9990.7803</v>
       </c>
       <c r="G62" t="n">
-        <v>72702.31283519164</v>
+        <v>192092.2084351917</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>295</v>
-      </c>
-      <c r="K62" t="n">
-        <v>295</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C63" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D63" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E63" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F63" t="n">
-        <v>215</v>
+        <v>8711.167799999999</v>
       </c>
       <c r="G63" t="n">
-        <v>72917.31283519164</v>
+        <v>192092.2084351917</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>295</v>
-      </c>
-      <c r="K63" t="n">
-        <v>295</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C64" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D64" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="E64" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F64" t="n">
-        <v>2.1173</v>
+        <v>241.018</v>
       </c>
       <c r="G64" t="n">
-        <v>72917.31283519164</v>
+        <v>192333.2264351917</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>296</v>
-      </c>
-      <c r="K64" t="n">
-        <v>295</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C65" t="n">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="D65" t="n">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="E65" t="n">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F65" t="n">
-        <v>683</v>
+        <v>5892.9904</v>
       </c>
       <c r="G65" t="n">
-        <v>72917.31283519164</v>
+        <v>198226.2168351917</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>296</v>
-      </c>
-      <c r="K65" t="n">
-        <v>295</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="C66" t="n">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D66" t="n">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E66" t="n">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="F66" t="n">
-        <v>250</v>
+        <v>8363.347</v>
       </c>
       <c r="G66" t="n">
-        <v>72667.31283519164</v>
+        <v>206589.5638351917</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>296</v>
-      </c>
-      <c r="K66" t="n">
-        <v>295</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C67" t="n">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="D67" t="n">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="E67" t="n">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F67" t="n">
-        <v>201</v>
+        <v>7190.268</v>
       </c>
       <c r="G67" t="n">
-        <v>72868.31283519164</v>
+        <v>199399.2958351917</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>295</v>
-      </c>
-      <c r="K67" t="n">
-        <v>295</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C68" t="n">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="D68" t="n">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="E68" t="n">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F68" t="n">
-        <v>402</v>
+        <v>663.8909</v>
       </c>
       <c r="G68" t="n">
-        <v>72868.31283519164</v>
+        <v>199399.2958351917</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>296</v>
-      </c>
-      <c r="K68" t="n">
-        <v>295</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C69" t="n">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="D69" t="n">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="E69" t="n">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="F69" t="n">
-        <v>597</v>
+        <v>5168.2651</v>
       </c>
       <c r="G69" t="n">
-        <v>72868.31283519164</v>
+        <v>194231.0307351917</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>296</v>
-      </c>
-      <c r="K69" t="n">
-        <v>295</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="C70" t="n">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="D70" t="n">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="E70" t="n">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="F70" t="n">
-        <v>3398.98</v>
+        <v>331.9455</v>
       </c>
       <c r="G70" t="n">
-        <v>69469.33283519164</v>
+        <v>194562.9762351917</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>296</v>
-      </c>
-      <c r="K70" t="n">
-        <v>295</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C71" t="n">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="D71" t="n">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="E71" t="n">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="F71" t="n">
-        <v>2588.6612</v>
+        <v>3816.7469</v>
       </c>
       <c r="G71" t="n">
-        <v>72057.99403519164</v>
+        <v>198379.7231351917</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>295</v>
-      </c>
-      <c r="K71" t="n">
-        <v>295</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="C72" t="n">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="D72" t="n">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="E72" t="n">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="F72" t="n">
-        <v>5792.7749</v>
+        <v>7059.0729</v>
       </c>
       <c r="G72" t="n">
-        <v>72057.99403519164</v>
+        <v>198379.7231351917</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>296</v>
-      </c>
-      <c r="K72" t="n">
-        <v>295</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C73" t="n">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="D73" t="n">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="E73" t="n">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="F73" t="n">
-        <v>3653.4303</v>
+        <v>100</v>
       </c>
       <c r="G73" t="n">
-        <v>72057.99403519164</v>
+        <v>198379.7231351917</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>296</v>
-      </c>
-      <c r="K73" t="n">
-        <v>295</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C74" t="n">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D74" t="n">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="E74" t="n">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F74" t="n">
-        <v>695.2283</v>
+        <v>3539.8892</v>
       </c>
       <c r="G74" t="n">
-        <v>72753.22233519165</v>
+        <v>198379.7231351917</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>296</v>
-      </c>
-      <c r="K74" t="n">
-        <v>295</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C75" t="n">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="D75" t="n">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="E75" t="n">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="F75" t="n">
-        <v>2833.9595</v>
+        <v>2566.1539</v>
       </c>
       <c r="G75" t="n">
-        <v>72753.22233519165</v>
+        <v>200945.8770351917</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>298</v>
-      </c>
-      <c r="K75" t="n">
-        <v>295</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C76" t="n">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D76" t="n">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="E76" t="n">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="F76" t="n">
-        <v>2330.8657</v>
+        <v>2229.3127</v>
       </c>
       <c r="G76" t="n">
-        <v>72753.22233519165</v>
+        <v>198716.5643351917</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>298</v>
-      </c>
-      <c r="K76" t="n">
-        <v>295</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C77" t="n">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D77" t="n">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="E77" t="n">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="F77" t="n">
-        <v>2260.0275</v>
+        <v>566.2455</v>
       </c>
       <c r="G77" t="n">
-        <v>72753.22233519165</v>
+        <v>198716.5643351917</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>295</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C78" t="n">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D78" t="n">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E78" t="n">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F78" t="n">
-        <v>4918.783333333334</v>
+        <v>190</v>
       </c>
       <c r="G78" t="n">
-        <v>77672.00566852499</v>
+        <v>198716.5643351917</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>295</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C79" t="n">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D79" t="n">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="E79" t="n">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F79" t="n">
-        <v>4.4662</v>
+        <v>15733.6694</v>
       </c>
       <c r="G79" t="n">
-        <v>77667.53946852499</v>
+        <v>182982.8949351917</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>295</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C80" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D80" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E80" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F80" t="n">
-        <v>11589.21416666667</v>
+        <v>5164.9999</v>
       </c>
       <c r="G80" t="n">
-        <v>89256.75363519166</v>
+        <v>182982.8949351917</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>295</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C81" t="n">
         <v>304</v>
@@ -3395,114 +3447,99 @@
         <v>304</v>
       </c>
       <c r="E81" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F81" t="n">
-        <v>29221.9386</v>
+        <v>329.2488</v>
       </c>
       <c r="G81" t="n">
-        <v>118478.6922351917</v>
+        <v>182982.8949351917</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>295</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C82" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D82" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E82" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F82" t="n">
-        <v>511.265</v>
+        <v>1286.79</v>
       </c>
       <c r="G82" t="n">
-        <v>117967.4272351917</v>
+        <v>182982.8949351917</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>295</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C83" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D83" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E83" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F83" t="n">
-        <v>5365.11</v>
+        <v>3007.0935</v>
       </c>
       <c r="G83" t="n">
-        <v>123332.5372351917</v>
+        <v>185989.9884351917</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>295</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3521,174 +3558,154 @@
         <v>304</v>
       </c>
       <c r="F84" t="n">
-        <v>14465.778</v>
+        <v>7429.2065</v>
       </c>
       <c r="G84" t="n">
-        <v>137798.3152351917</v>
+        <v>178560.7819351917</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>295</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C85" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D85" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E85" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0001</v>
+        <v>219.5243</v>
       </c>
       <c r="G85" t="n">
-        <v>137798.3152351917</v>
+        <v>178341.2576351917</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>295</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C86" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D86" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E86" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F86" t="n">
-        <v>33243.8808</v>
+        <v>5808.3677</v>
       </c>
       <c r="G86" t="n">
-        <v>171042.1960351916</v>
+        <v>178341.2576351917</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>295</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C87" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D87" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E87" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F87" t="n">
-        <v>8682.7624</v>
+        <v>2005.91</v>
       </c>
       <c r="G87" t="n">
-        <v>162359.4336351916</v>
+        <v>176335.3476351917</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>295</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C88" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D88" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E88" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F88" t="n">
-        <v>11.4582</v>
+        <v>1264.4801</v>
       </c>
       <c r="G88" t="n">
-        <v>162347.9754351916</v>
+        <v>177599.8277351916</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3697,408 +3714,358 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>295</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C89" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D89" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E89" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F89" t="n">
-        <v>290.8296</v>
+        <v>715.3458000000001</v>
       </c>
       <c r="G89" t="n">
-        <v>162057.1458351917</v>
+        <v>178315.1735351917</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>295</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C90" t="n">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D90" t="n">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E90" t="n">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F90" t="n">
-        <v>368.7898</v>
+        <v>167.1509</v>
       </c>
       <c r="G90" t="n">
-        <v>162057.1458351917</v>
+        <v>178482.3244351917</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>295</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C91" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D91" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E91" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F91" t="n">
-        <v>11.4582</v>
+        <v>277.4905</v>
       </c>
       <c r="G91" t="n">
-        <v>162068.6040351916</v>
+        <v>178482.3244351917</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>295</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C92" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D92" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E92" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F92" t="n">
-        <v>3653.4303</v>
+        <v>98.2396</v>
       </c>
       <c r="G92" t="n">
-        <v>162068.6040351916</v>
+        <v>178482.3244351917</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>295</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C93" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D93" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E93" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F93" t="n">
-        <v>24261.7464</v>
+        <v>4804.8713</v>
       </c>
       <c r="G93" t="n">
-        <v>186330.3504351916</v>
+        <v>178482.3244351917</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>295</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C94" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D94" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E94" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F94" t="n">
-        <v>5014.5843</v>
+        <v>3000</v>
       </c>
       <c r="G94" t="n">
-        <v>186330.3504351916</v>
+        <v>178482.3244351917</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>295</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C95" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D95" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E95" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F95" t="n">
-        <v>938.3815</v>
+        <v>625.2431</v>
       </c>
       <c r="G95" t="n">
-        <v>185391.9689351917</v>
+        <v>178482.3244351917</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>295</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C96" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D96" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E96" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F96" t="n">
-        <v>7709.3841</v>
+        <v>1374.7569</v>
       </c>
       <c r="G96" t="n">
-        <v>193101.3530351917</v>
+        <v>178482.3244351917</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>295</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C97" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D97" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E97" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F97" t="n">
-        <v>315.1446</v>
+        <v>98.2396</v>
       </c>
       <c r="G97" t="n">
-        <v>192786.2084351917</v>
+        <v>178384.0848351917</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>295</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C98" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D98" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E98" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F98" t="n">
-        <v>694</v>
+        <v>277.4905</v>
       </c>
       <c r="G98" t="n">
-        <v>192092.2084351917</v>
+        <v>178384.0848351917</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4107,1833 +4074,300 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>295</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C99" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D99" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E99" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F99" t="n">
-        <v>5761.1734</v>
+        <v>3990.128</v>
       </c>
       <c r="G99" t="n">
-        <v>192092.2084351917</v>
+        <v>178384.0848351917</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>295</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C100" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D100" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E100" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F100" t="n">
-        <v>2508.0091</v>
+        <v>332.6224</v>
       </c>
       <c r="G100" t="n">
-        <v>192092.2084351917</v>
+        <v>178384.0848351917</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>295</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C101" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D101" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E101" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F101" t="n">
-        <v>3953.6599</v>
+        <v>1133.1475</v>
       </c>
       <c r="G101" t="n">
-        <v>192092.2084351917</v>
+        <v>177250.9373351917</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>295</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C102" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D102" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E102" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F102" t="n">
-        <v>3587.0321</v>
+        <v>3191.3508</v>
       </c>
       <c r="G102" t="n">
-        <v>192092.2084351917</v>
+        <v>177250.9373351917</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>295</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C103" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D103" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E103" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F103" t="n">
-        <v>2106.1171</v>
+        <v>4144.7377</v>
       </c>
       <c r="G103" t="n">
-        <v>192092.2084351917</v>
+        <v>177250.9373351917</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>295</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C104" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D104" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E104" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F104" t="n">
-        <v>9990.7803</v>
+        <v>190</v>
       </c>
       <c r="G104" t="n">
-        <v>192092.2084351917</v>
+        <v>177250.9373351917</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>295</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C105" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D105" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E105" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F105" t="n">
-        <v>8711.167799999999</v>
+        <v>248.06</v>
       </c>
       <c r="G105" t="n">
-        <v>192092.2084351917</v>
+        <v>177250.9373351917</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>295</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C106" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D106" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E106" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F106" t="n">
-        <v>241.018</v>
+        <v>8091.7695</v>
       </c>
       <c r="G106" t="n">
-        <v>192333.2264351917</v>
+        <v>185342.7068351917</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>295</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>304</v>
-      </c>
-      <c r="C107" t="n">
-        <v>304</v>
-      </c>
-      <c r="D107" t="n">
-        <v>304</v>
-      </c>
-      <c r="E107" t="n">
-        <v>304</v>
-      </c>
-      <c r="F107" t="n">
-        <v>5892.9904</v>
-      </c>
-      <c r="G107" t="n">
-        <v>198226.2168351917</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>295</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>305</v>
-      </c>
-      <c r="C108" t="n">
-        <v>305</v>
-      </c>
-      <c r="D108" t="n">
-        <v>305</v>
-      </c>
-      <c r="E108" t="n">
-        <v>305</v>
-      </c>
-      <c r="F108" t="n">
-        <v>8363.347</v>
-      </c>
-      <c r="G108" t="n">
-        <v>206589.5638351917</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>295</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>305</v>
-      </c>
-      <c r="C109" t="n">
-        <v>304</v>
-      </c>
-      <c r="D109" t="n">
-        <v>305</v>
-      </c>
-      <c r="E109" t="n">
-        <v>304</v>
-      </c>
-      <c r="F109" t="n">
-        <v>7190.268</v>
-      </c>
-      <c r="G109" t="n">
-        <v>199399.2958351917</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>295</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1.025508474576271</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>304</v>
-      </c>
-      <c r="C110" t="n">
-        <v>304</v>
-      </c>
-      <c r="D110" t="n">
-        <v>304</v>
-      </c>
-      <c r="E110" t="n">
-        <v>304</v>
-      </c>
-      <c r="F110" t="n">
-        <v>663.8909</v>
-      </c>
-      <c r="G110" t="n">
-        <v>199399.2958351917</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>305</v>
-      </c>
-      <c r="C111" t="n">
-        <v>303</v>
-      </c>
-      <c r="D111" t="n">
-        <v>305</v>
-      </c>
-      <c r="E111" t="n">
-        <v>303</v>
-      </c>
-      <c r="F111" t="n">
-        <v>5168.2651</v>
-      </c>
-      <c r="G111" t="n">
-        <v>194231.0307351917</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>304</v>
-      </c>
-      <c r="C112" t="n">
-        <v>304</v>
-      </c>
-      <c r="D112" t="n">
-        <v>304</v>
-      </c>
-      <c r="E112" t="n">
-        <v>304</v>
-      </c>
-      <c r="F112" t="n">
-        <v>331.9455</v>
-      </c>
-      <c r="G112" t="n">
-        <v>194562.9762351917</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>305</v>
-      </c>
-      <c r="C113" t="n">
-        <v>305</v>
-      </c>
-      <c r="D113" t="n">
-        <v>305</v>
-      </c>
-      <c r="E113" t="n">
-        <v>305</v>
-      </c>
-      <c r="F113" t="n">
-        <v>3816.7469</v>
-      </c>
-      <c r="G113" t="n">
-        <v>198379.7231351917</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>306</v>
-      </c>
-      <c r="C114" t="n">
-        <v>305</v>
-      </c>
-      <c r="D114" t="n">
-        <v>306</v>
-      </c>
-      <c r="E114" t="n">
-        <v>305</v>
-      </c>
-      <c r="F114" t="n">
-        <v>7059.0729</v>
-      </c>
-      <c r="G114" t="n">
-        <v>198379.7231351917</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>305</v>
-      </c>
-      <c r="C115" t="n">
-        <v>305</v>
-      </c>
-      <c r="D115" t="n">
-        <v>305</v>
-      </c>
-      <c r="E115" t="n">
-        <v>305</v>
-      </c>
-      <c r="F115" t="n">
-        <v>100</v>
-      </c>
-      <c r="G115" t="n">
-        <v>198379.7231351917</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>305</v>
-      </c>
-      <c r="C116" t="n">
-        <v>305</v>
-      </c>
-      <c r="D116" t="n">
-        <v>305</v>
-      </c>
-      <c r="E116" t="n">
-        <v>305</v>
-      </c>
-      <c r="F116" t="n">
-        <v>3539.8892</v>
-      </c>
-      <c r="G116" t="n">
-        <v>198379.7231351917</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>305</v>
-      </c>
-      <c r="C117" t="n">
-        <v>306</v>
-      </c>
-      <c r="D117" t="n">
-        <v>306</v>
-      </c>
-      <c r="E117" t="n">
-        <v>305</v>
-      </c>
-      <c r="F117" t="n">
-        <v>2566.1539</v>
-      </c>
-      <c r="G117" t="n">
-        <v>200945.8770351917</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>306</v>
-      </c>
-      <c r="C118" t="n">
-        <v>305</v>
-      </c>
-      <c r="D118" t="n">
-        <v>306</v>
-      </c>
-      <c r="E118" t="n">
-        <v>305</v>
-      </c>
-      <c r="F118" t="n">
-        <v>2229.3127</v>
-      </c>
-      <c r="G118" t="n">
-        <v>198716.5643351917</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>306</v>
-      </c>
-      <c r="C119" t="n">
-        <v>305</v>
-      </c>
-      <c r="D119" t="n">
-        <v>306</v>
-      </c>
-      <c r="E119" t="n">
-        <v>305</v>
-      </c>
-      <c r="F119" t="n">
-        <v>566.2455</v>
-      </c>
-      <c r="G119" t="n">
-        <v>198716.5643351917</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>305</v>
-      </c>
-      <c r="C120" t="n">
-        <v>305</v>
-      </c>
-      <c r="D120" t="n">
-        <v>305</v>
-      </c>
-      <c r="E120" t="n">
-        <v>305</v>
-      </c>
-      <c r="F120" t="n">
-        <v>190</v>
-      </c>
-      <c r="G120" t="n">
-        <v>198716.5643351917</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>304</v>
-      </c>
-      <c r="C121" t="n">
-        <v>304</v>
-      </c>
-      <c r="D121" t="n">
-        <v>304</v>
-      </c>
-      <c r="E121" t="n">
-        <v>304</v>
-      </c>
-      <c r="F121" t="n">
-        <v>15733.6694</v>
-      </c>
-      <c r="G121" t="n">
-        <v>182982.8949351917</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>304</v>
-      </c>
-      <c r="C122" t="n">
-        <v>304</v>
-      </c>
-      <c r="D122" t="n">
-        <v>304</v>
-      </c>
-      <c r="E122" t="n">
-        <v>304</v>
-      </c>
-      <c r="F122" t="n">
-        <v>5164.9999</v>
-      </c>
-      <c r="G122" t="n">
-        <v>182982.8949351917</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>304</v>
-      </c>
-      <c r="C123" t="n">
-        <v>304</v>
-      </c>
-      <c r="D123" t="n">
-        <v>304</v>
-      </c>
-      <c r="E123" t="n">
-        <v>304</v>
-      </c>
-      <c r="F123" t="n">
-        <v>329.2488</v>
-      </c>
-      <c r="G123" t="n">
-        <v>182982.8949351917</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>304</v>
-      </c>
-      <c r="C124" t="n">
-        <v>304</v>
-      </c>
-      <c r="D124" t="n">
-        <v>304</v>
-      </c>
-      <c r="E124" t="n">
-        <v>304</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1286.79</v>
-      </c>
-      <c r="G124" t="n">
-        <v>182982.8949351917</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>304</v>
-      </c>
-      <c r="C125" t="n">
-        <v>305</v>
-      </c>
-      <c r="D125" t="n">
-        <v>305</v>
-      </c>
-      <c r="E125" t="n">
-        <v>304</v>
-      </c>
-      <c r="F125" t="n">
-        <v>3007.0935</v>
-      </c>
-      <c r="G125" t="n">
-        <v>185989.9884351917</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>304</v>
-      </c>
-      <c r="C126" t="n">
-        <v>304</v>
-      </c>
-      <c r="D126" t="n">
-        <v>304</v>
-      </c>
-      <c r="E126" t="n">
-        <v>304</v>
-      </c>
-      <c r="F126" t="n">
-        <v>7429.2065</v>
-      </c>
-      <c r="G126" t="n">
-        <v>178560.7819351917</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>303</v>
-      </c>
-      <c r="C127" t="n">
-        <v>303</v>
-      </c>
-      <c r="D127" t="n">
-        <v>303</v>
-      </c>
-      <c r="E127" t="n">
-        <v>303</v>
-      </c>
-      <c r="F127" t="n">
-        <v>219.5243</v>
-      </c>
-      <c r="G127" t="n">
-        <v>178341.2576351917</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>303</v>
-      </c>
-      <c r="C128" t="n">
-        <v>303</v>
-      </c>
-      <c r="D128" t="n">
-        <v>303</v>
-      </c>
-      <c r="E128" t="n">
-        <v>303</v>
-      </c>
-      <c r="F128" t="n">
-        <v>5808.3677</v>
-      </c>
-      <c r="G128" t="n">
-        <v>178341.2576351917</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>302</v>
-      </c>
-      <c r="C129" t="n">
-        <v>302</v>
-      </c>
-      <c r="D129" t="n">
-        <v>302</v>
-      </c>
-      <c r="E129" t="n">
-        <v>302</v>
-      </c>
-      <c r="F129" t="n">
-        <v>2005.91</v>
-      </c>
-      <c r="G129" t="n">
-        <v>176335.3476351917</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>303</v>
-      </c>
-      <c r="C130" t="n">
-        <v>303</v>
-      </c>
-      <c r="D130" t="n">
-        <v>303</v>
-      </c>
-      <c r="E130" t="n">
-        <v>303</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1264.4801</v>
-      </c>
-      <c r="G130" t="n">
-        <v>177599.8277351916</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>304</v>
-      </c>
-      <c r="C131" t="n">
-        <v>304</v>
-      </c>
-      <c r="D131" t="n">
-        <v>304</v>
-      </c>
-      <c r="E131" t="n">
-        <v>304</v>
-      </c>
-      <c r="F131" t="n">
-        <v>715.3458000000001</v>
-      </c>
-      <c r="G131" t="n">
-        <v>178315.1735351917</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>305</v>
-      </c>
-      <c r="C132" t="n">
-        <v>305</v>
-      </c>
-      <c r="D132" t="n">
-        <v>305</v>
-      </c>
-      <c r="E132" t="n">
-        <v>305</v>
-      </c>
-      <c r="F132" t="n">
-        <v>167.1509</v>
-      </c>
-      <c r="G132" t="n">
-        <v>178482.3244351917</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>305</v>
-      </c>
-      <c r="C133" t="n">
-        <v>305</v>
-      </c>
-      <c r="D133" t="n">
-        <v>305</v>
-      </c>
-      <c r="E133" t="n">
-        <v>305</v>
-      </c>
-      <c r="F133" t="n">
-        <v>277.4905</v>
-      </c>
-      <c r="G133" t="n">
-        <v>178482.3244351917</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>305</v>
-      </c>
-      <c r="C134" t="n">
-        <v>305</v>
-      </c>
-      <c r="D134" t="n">
-        <v>305</v>
-      </c>
-      <c r="E134" t="n">
-        <v>305</v>
-      </c>
-      <c r="F134" t="n">
-        <v>98.2396</v>
-      </c>
-      <c r="G134" t="n">
-        <v>178482.3244351917</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>305</v>
-      </c>
-      <c r="C135" t="n">
-        <v>305</v>
-      </c>
-      <c r="D135" t="n">
-        <v>305</v>
-      </c>
-      <c r="E135" t="n">
-        <v>305</v>
-      </c>
-      <c r="F135" t="n">
-        <v>4804.8713</v>
-      </c>
-      <c r="G135" t="n">
-        <v>178482.3244351917</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>305</v>
-      </c>
-      <c r="C136" t="n">
-        <v>305</v>
-      </c>
-      <c r="D136" t="n">
-        <v>305</v>
-      </c>
-      <c r="E136" t="n">
-        <v>305</v>
-      </c>
-      <c r="F136" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G136" t="n">
-        <v>178482.3244351917</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>305</v>
-      </c>
-      <c r="C137" t="n">
-        <v>305</v>
-      </c>
-      <c r="D137" t="n">
-        <v>305</v>
-      </c>
-      <c r="E137" t="n">
-        <v>305</v>
-      </c>
-      <c r="F137" t="n">
-        <v>625.2431</v>
-      </c>
-      <c r="G137" t="n">
-        <v>178482.3244351917</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>305</v>
-      </c>
-      <c r="C138" t="n">
-        <v>305</v>
-      </c>
-      <c r="D138" t="n">
-        <v>305</v>
-      </c>
-      <c r="E138" t="n">
-        <v>305</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1374.7569</v>
-      </c>
-      <c r="G138" t="n">
-        <v>178482.3244351917</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>304</v>
-      </c>
-      <c r="C139" t="n">
-        <v>304</v>
-      </c>
-      <c r="D139" t="n">
-        <v>304</v>
-      </c>
-      <c r="E139" t="n">
-        <v>304</v>
-      </c>
-      <c r="F139" t="n">
-        <v>98.2396</v>
-      </c>
-      <c r="G139" t="n">
-        <v>178384.0848351917</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>304</v>
-      </c>
-      <c r="C140" t="n">
-        <v>304</v>
-      </c>
-      <c r="D140" t="n">
-        <v>304</v>
-      </c>
-      <c r="E140" t="n">
-        <v>304</v>
-      </c>
-      <c r="F140" t="n">
-        <v>277.4905</v>
-      </c>
-      <c r="G140" t="n">
-        <v>178384.0848351917</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>304</v>
-      </c>
-      <c r="C141" t="n">
-        <v>304</v>
-      </c>
-      <c r="D141" t="n">
-        <v>304</v>
-      </c>
-      <c r="E141" t="n">
-        <v>304</v>
-      </c>
-      <c r="F141" t="n">
-        <v>3990.128</v>
-      </c>
-      <c r="G141" t="n">
-        <v>178384.0848351917</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>304</v>
-      </c>
-      <c r="C142" t="n">
-        <v>304</v>
-      </c>
-      <c r="D142" t="n">
-        <v>304</v>
-      </c>
-      <c r="E142" t="n">
-        <v>304</v>
-      </c>
-      <c r="F142" t="n">
-        <v>332.6224</v>
-      </c>
-      <c r="G142" t="n">
-        <v>178384.0848351917</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>303</v>
-      </c>
-      <c r="C143" t="n">
-        <v>303</v>
-      </c>
-      <c r="D143" t="n">
-        <v>303</v>
-      </c>
-      <c r="E143" t="n">
-        <v>303</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1133.1475</v>
-      </c>
-      <c r="G143" t="n">
-        <v>177250.9373351917</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>303</v>
-      </c>
-      <c r="C144" t="n">
-        <v>303</v>
-      </c>
-      <c r="D144" t="n">
-        <v>303</v>
-      </c>
-      <c r="E144" t="n">
-        <v>303</v>
-      </c>
-      <c r="F144" t="n">
-        <v>3191.3508</v>
-      </c>
-      <c r="G144" t="n">
-        <v>177250.9373351917</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>303</v>
-      </c>
-      <c r="C145" t="n">
-        <v>303</v>
-      </c>
-      <c r="D145" t="n">
-        <v>303</v>
-      </c>
-      <c r="E145" t="n">
-        <v>303</v>
-      </c>
-      <c r="F145" t="n">
-        <v>4144.7377</v>
-      </c>
-      <c r="G145" t="n">
-        <v>177250.9373351917</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>303</v>
-      </c>
-      <c r="C146" t="n">
-        <v>303</v>
-      </c>
-      <c r="D146" t="n">
-        <v>303</v>
-      </c>
-      <c r="E146" t="n">
-        <v>303</v>
-      </c>
-      <c r="F146" t="n">
-        <v>190</v>
-      </c>
-      <c r="G146" t="n">
-        <v>177250.9373351917</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>303</v>
-      </c>
-      <c r="C147" t="n">
-        <v>303</v>
-      </c>
-      <c r="D147" t="n">
-        <v>303</v>
-      </c>
-      <c r="E147" t="n">
-        <v>303</v>
-      </c>
-      <c r="F147" t="n">
-        <v>248.06</v>
-      </c>
-      <c r="G147" t="n">
-        <v>177250.9373351917</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>304</v>
-      </c>
-      <c r="C148" t="n">
-        <v>304</v>
-      </c>
-      <c r="D148" t="n">
-        <v>304</v>
-      </c>
-      <c r="E148" t="n">
-        <v>304</v>
-      </c>
-      <c r="F148" t="n">
-        <v>8091.7695</v>
-      </c>
-      <c r="G148" t="n">
-        <v>185342.7068351917</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
+      <c r="N106" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-14 BackTest BAT.xlsx
+++ b/BackTest/2019-11-14 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N106"/>
+  <dimension ref="A1:N177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="C2" t="n">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="D2" t="n">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E2" t="n">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="F2" t="n">
-        <v>35.009</v>
+        <v>13148.7336</v>
       </c>
       <c r="G2" t="n">
-        <v>80376.52823519164</v>
+        <v>78255.22483519162</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="C3" t="n">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="D3" t="n">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="E3" t="n">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="F3" t="n">
-        <v>16570.1232</v>
+        <v>44811.5667</v>
       </c>
       <c r="G3" t="n">
-        <v>96946.65143519164</v>
+        <v>78255.22483519162</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>284</v>
+      </c>
+      <c r="K3" t="n">
+        <v>284</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="C4" t="n">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="D4" t="n">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E4" t="n">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="F4" t="n">
-        <v>479.937</v>
+        <v>153.202</v>
       </c>
       <c r="G4" t="n">
-        <v>96466.71443519164</v>
+        <v>78255.22483519162</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>284</v>
+      </c>
+      <c r="K4" t="n">
+        <v>284</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C5" t="n">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="D5" t="n">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="E5" t="n">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="F5" t="n">
-        <v>12.0232</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>96466.71443519164</v>
+        <v>78265.22483519162</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>284</v>
+      </c>
+      <c r="K5" t="n">
+        <v>284</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,31 +602,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C6" t="n">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D6" t="n">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="E6" t="n">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="F6" t="n">
-        <v>3396.47</v>
+        <v>5720</v>
       </c>
       <c r="G6" t="n">
-        <v>93070.24443519163</v>
+        <v>78265.22483519162</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>285</v>
+      </c>
+      <c r="K6" t="n">
+        <v>285</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -618,32 +642,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C7" t="n">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="D7" t="n">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="E7" t="n">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="F7" t="n">
-        <v>12.0232</v>
+        <v>2200</v>
       </c>
       <c r="G7" t="n">
-        <v>93082.26763519163</v>
+        <v>80465.22483519162</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>285</v>
+      </c>
+      <c r="K7" t="n">
+        <v>285</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,22 +686,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C8" t="n">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D8" t="n">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="E8" t="n">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="F8" t="n">
-        <v>7118.6412</v>
+        <v>7940</v>
       </c>
       <c r="G8" t="n">
-        <v>85963.62643519163</v>
+        <v>80465.22483519162</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,8 +710,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>285</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,32 +728,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C9" t="n">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D9" t="n">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="E9" t="n">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>4.4364</v>
       </c>
       <c r="G9" t="n">
-        <v>85963.62643519163</v>
+        <v>80465.22483519162</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>286</v>
+      </c>
+      <c r="K9" t="n">
+        <v>285</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,22 +772,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C10" t="n">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D10" t="n">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="E10" t="n">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="F10" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="G10" t="n">
-        <v>85963.62643519163</v>
+        <v>80295.22483519162</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -750,8 +796,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>285</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,32 +814,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C11" t="n">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D11" t="n">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E11" t="n">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F11" t="n">
-        <v>12.2286</v>
+        <v>1.8</v>
       </c>
       <c r="G11" t="n">
-        <v>85951.39783519163</v>
+        <v>80297.02483519162</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>285</v>
+      </c>
+      <c r="K11" t="n">
+        <v>285</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,22 +858,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C12" t="n">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D12" t="n">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E12" t="n">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F12" t="n">
-        <v>16479.085</v>
+        <v>1000</v>
       </c>
       <c r="G12" t="n">
-        <v>69472.31283519164</v>
+        <v>80297.02483519162</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -822,8 +882,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>285</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,36 +900,38 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C13" t="n">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D13" t="n">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E13" t="n">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F13" t="n">
-        <v>409.049</v>
+        <v>3070</v>
       </c>
       <c r="G13" t="n">
-        <v>69472.31283519164</v>
+        <v>80297.02483519162</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>294</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>294</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
+        <v>285</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -874,22 +942,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C14" t="n">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D14" t="n">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E14" t="n">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="F14" t="n">
-        <v>1636.7484</v>
+        <v>196</v>
       </c>
       <c r="G14" t="n">
-        <v>69472.31283519164</v>
+        <v>80101.02483519162</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -898,14 +966,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="K14" t="n">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -918,22 +986,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C15" t="n">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D15" t="n">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="E15" t="n">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F15" t="n">
-        <v>3230</v>
+        <v>804</v>
       </c>
       <c r="G15" t="n">
-        <v>72702.31283519164</v>
+        <v>80101.02483519162</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -942,14 +1010,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="K15" t="n">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M15" t="n">
@@ -962,22 +1030,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C16" t="n">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D16" t="n">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E16" t="n">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="F16" t="n">
-        <v>30.1517</v>
+        <v>1884.172</v>
       </c>
       <c r="G16" t="n">
-        <v>72702.31283519164</v>
+        <v>78216.85283519162</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -986,12 +1054,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="K16" t="n">
-        <v>295</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
+        <v>285</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1002,22 +1074,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C17" t="n">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D17" t="n">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="E17" t="n">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F17" t="n">
-        <v>1730</v>
+        <v>1957.172</v>
       </c>
       <c r="G17" t="n">
-        <v>72702.31283519164</v>
+        <v>80174.02483519162</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1026,14 +1098,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="K17" t="n">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M17" t="n">
@@ -1046,22 +1118,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C18" t="n">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D18" t="n">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="E18" t="n">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F18" t="n">
-        <v>4449.4956</v>
+        <v>1465.3137</v>
       </c>
       <c r="G18" t="n">
-        <v>72702.31283519164</v>
+        <v>80174.02483519162</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1071,11 +1143,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M18" t="n">
@@ -1088,22 +1160,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C19" t="n">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D19" t="n">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E19" t="n">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F19" t="n">
-        <v>7985.1315</v>
+        <v>24.8484</v>
       </c>
       <c r="G19" t="n">
-        <v>72702.31283519164</v>
+        <v>80198.87323519163</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1112,8 +1184,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>285</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1124,36 +1202,38 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C20" t="n">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D20" t="n">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E20" t="n">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="F20" t="n">
-        <v>8875.309499999999</v>
+        <v>800</v>
       </c>
       <c r="G20" t="n">
-        <v>72702.31283519164</v>
+        <v>79398.87323519163</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>295</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>295</v>
-      </c>
-      <c r="L20" t="inlineStr"/>
+        <v>285</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1164,22 +1244,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C21" t="n">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D21" t="n">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="E21" t="n">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="F21" t="n">
-        <v>215</v>
+        <v>4000.6052</v>
       </c>
       <c r="G21" t="n">
-        <v>72917.31283519164</v>
+        <v>83399.47843519163</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1188,14 +1268,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="K21" t="n">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M21" t="n">
@@ -1208,22 +1288,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C22" t="n">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D22" t="n">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="E22" t="n">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="F22" t="n">
-        <v>2.1173</v>
+        <v>2200</v>
       </c>
       <c r="G22" t="n">
-        <v>72917.31283519164</v>
+        <v>81199.47843519163</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1232,14 +1312,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="K22" t="n">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -1252,36 +1332,38 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C23" t="n">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D23" t="n">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="E23" t="n">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="F23" t="n">
-        <v>683</v>
+        <v>5400</v>
       </c>
       <c r="G23" t="n">
-        <v>72917.31283519164</v>
+        <v>81199.47843519163</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>296</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>296</v>
-      </c>
-      <c r="L23" t="inlineStr"/>
+        <v>285</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1292,38 +1374,36 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C24" t="n">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D24" t="n">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="E24" t="n">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F24" t="n">
-        <v>250</v>
+        <v>113.4668</v>
       </c>
       <c r="G24" t="n">
-        <v>72667.31283519164</v>
+        <v>81312.94523519163</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>296</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M24" t="n">
@@ -1336,38 +1416,36 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C25" t="n">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D25" t="n">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="E25" t="n">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="F25" t="n">
-        <v>201</v>
+        <v>848.9509</v>
       </c>
       <c r="G25" t="n">
-        <v>72868.31283519164</v>
+        <v>80463.99433519163</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>295</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M25" t="n">
@@ -1380,36 +1458,38 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C26" t="n">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D26" t="n">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="E26" t="n">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="F26" t="n">
-        <v>402</v>
+        <v>10.4601</v>
       </c>
       <c r="G26" t="n">
-        <v>72868.31283519164</v>
+        <v>80474.45443519163</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>296</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>296</v>
-      </c>
-      <c r="L26" t="inlineStr"/>
+        <v>285</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1420,38 +1500,36 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C27" t="n">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D27" t="n">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="E27" t="n">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="F27" t="n">
-        <v>597</v>
+        <v>1780</v>
       </c>
       <c r="G27" t="n">
-        <v>72868.31283519164</v>
+        <v>82254.45443519163</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>296</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -1464,38 +1542,36 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C28" t="n">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D28" t="n">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E28" t="n">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F28" t="n">
-        <v>3398.98</v>
+        <v>2470</v>
       </c>
       <c r="G28" t="n">
-        <v>69469.33283519164</v>
+        <v>84724.45443519163</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>296</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M28" t="n">
@@ -1508,36 +1584,38 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C29" t="n">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D29" t="n">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E29" t="n">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F29" t="n">
-        <v>2588.6612</v>
+        <v>1.8</v>
       </c>
       <c r="G29" t="n">
-        <v>72057.99403519164</v>
+        <v>84726.25443519163</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>295</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>295</v>
-      </c>
-      <c r="L29" t="inlineStr"/>
+        <v>285</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1548,38 +1626,36 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C30" t="n">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D30" t="n">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E30" t="n">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F30" t="n">
-        <v>5792.7749</v>
+        <v>10400</v>
       </c>
       <c r="G30" t="n">
-        <v>72057.99403519164</v>
+        <v>84726.25443519163</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>296</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M30" t="n">
@@ -1592,38 +1668,36 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C31" t="n">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D31" t="n">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E31" t="n">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F31" t="n">
-        <v>3653.4303</v>
+        <v>5200.0167</v>
       </c>
       <c r="G31" t="n">
-        <v>72057.99403519164</v>
+        <v>89926.27113519164</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>296</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M31" t="n">
@@ -1636,36 +1710,38 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C32" t="n">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D32" t="n">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="E32" t="n">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F32" t="n">
-        <v>695.2283</v>
+        <v>8149.26</v>
       </c>
       <c r="G32" t="n">
-        <v>72753.22233519165</v>
+        <v>89926.27113519164</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>296</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>296</v>
-      </c>
-      <c r="L32" t="inlineStr"/>
+        <v>285</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1676,38 +1752,36 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C33" t="n">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D33" t="n">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E33" t="n">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F33" t="n">
-        <v>2833.9595</v>
+        <v>5.2084</v>
       </c>
       <c r="G33" t="n">
-        <v>72753.22233519165</v>
+        <v>89921.06273519163</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>298</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M33" t="n">
@@ -1720,38 +1794,36 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C34" t="n">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D34" t="n">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E34" t="n">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F34" t="n">
-        <v>2330.8657</v>
+        <v>8.3978</v>
       </c>
       <c r="G34" t="n">
-        <v>72753.22233519165</v>
+        <v>89921.06273519163</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>298</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M34" t="n">
@@ -1764,36 +1836,38 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C35" t="n">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D35" t="n">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="E35" t="n">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="F35" t="n">
-        <v>2260.0275</v>
+        <v>3.6</v>
       </c>
       <c r="G35" t="n">
-        <v>72753.22233519165</v>
+        <v>89917.46273519163</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>298</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>298</v>
-      </c>
-      <c r="L35" t="inlineStr"/>
+        <v>285</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1804,38 +1878,36 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C36" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D36" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E36" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F36" t="n">
-        <v>4918.783333333334</v>
+        <v>3110</v>
       </c>
       <c r="G36" t="n">
-        <v>77672.00566852499</v>
+        <v>93027.46273519163</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>298</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M36" t="n">
@@ -1848,22 +1920,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C37" t="n">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D37" t="n">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="E37" t="n">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F37" t="n">
-        <v>4.4662</v>
+        <v>18712.4246</v>
       </c>
       <c r="G37" t="n">
-        <v>77667.53946852499</v>
+        <v>93027.46273519163</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1873,11 +1945,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M37" t="n">
@@ -1890,22 +1962,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C38" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D38" t="n">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="E38" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F38" t="n">
-        <v>11589.21416666667</v>
+        <v>1622.4606</v>
       </c>
       <c r="G38" t="n">
-        <v>89256.75363519166</v>
+        <v>93027.46273519163</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1914,8 +1986,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>285</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1926,22 +2004,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C39" t="n">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="D39" t="n">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="E39" t="n">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F39" t="n">
-        <v>29221.9386</v>
+        <v>1244</v>
       </c>
       <c r="G39" t="n">
-        <v>118478.6922351917</v>
+        <v>94271.46273519163</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1950,8 +2028,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>285</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1962,22 +2046,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C40" t="n">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D40" t="n">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="E40" t="n">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F40" t="n">
-        <v>511.265</v>
+        <v>673</v>
       </c>
       <c r="G40" t="n">
-        <v>117967.4272351917</v>
+        <v>94271.46273519163</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1986,8 +2070,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>285</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1998,22 +2088,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C41" t="n">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D41" t="n">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="E41" t="n">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="F41" t="n">
-        <v>5365.11</v>
+        <v>130</v>
       </c>
       <c r="G41" t="n">
-        <v>123332.5372351917</v>
+        <v>94271.46273519163</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2022,8 +2112,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>285</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2034,22 +2130,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C42" t="n">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="D42" t="n">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="E42" t="n">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="F42" t="n">
-        <v>14465.778</v>
+        <v>0.3995</v>
       </c>
       <c r="G42" t="n">
-        <v>137798.3152351917</v>
+        <v>94271.46273519163</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2058,8 +2154,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>285</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2070,22 +2172,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C43" t="n">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D43" t="n">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="E43" t="n">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0001</v>
+        <v>475</v>
       </c>
       <c r="G43" t="n">
-        <v>137798.3152351917</v>
+        <v>94746.46273519163</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2094,8 +2196,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>285</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2106,22 +2214,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C44" t="n">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D44" t="n">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E44" t="n">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="F44" t="n">
-        <v>33243.8808</v>
+        <v>3350</v>
       </c>
       <c r="G44" t="n">
-        <v>171042.1960351916</v>
+        <v>94746.46273519163</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2130,8 +2238,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>285</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2142,22 +2256,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C45" t="n">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D45" t="n">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E45" t="n">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F45" t="n">
-        <v>8682.7624</v>
+        <v>3.1633</v>
       </c>
       <c r="G45" t="n">
-        <v>162359.4336351916</v>
+        <v>94746.46273519163</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2166,8 +2280,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>285</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2178,22 +2298,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C46" t="n">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D46" t="n">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E46" t="n">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F46" t="n">
-        <v>11.4582</v>
+        <v>90.083</v>
       </c>
       <c r="G46" t="n">
-        <v>162347.9754351916</v>
+        <v>94746.46273519163</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2202,8 +2322,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>285</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2214,22 +2340,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C47" t="n">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D47" t="n">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E47" t="n">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F47" t="n">
-        <v>290.8296</v>
+        <v>60.4924</v>
       </c>
       <c r="G47" t="n">
-        <v>162057.1458351917</v>
+        <v>94746.46273519163</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2238,8 +2364,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>285</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2250,22 +2382,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C48" t="n">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D48" t="n">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E48" t="n">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F48" t="n">
-        <v>368.7898</v>
+        <v>1636.3928</v>
       </c>
       <c r="G48" t="n">
-        <v>162057.1458351917</v>
+        <v>94746.46273519163</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2274,8 +2406,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>285</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2286,22 +2424,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C49" t="n">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D49" t="n">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E49" t="n">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F49" t="n">
-        <v>11.4582</v>
+        <v>4155.3174</v>
       </c>
       <c r="G49" t="n">
-        <v>162068.6040351916</v>
+        <v>94746.46273519163</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2310,8 +2448,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>285</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2322,22 +2466,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C50" t="n">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D50" t="n">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="E50" t="n">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F50" t="n">
-        <v>3653.4303</v>
+        <v>17375.1308</v>
       </c>
       <c r="G50" t="n">
-        <v>162068.6040351916</v>
+        <v>77371.33193519163</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2346,8 +2490,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>285</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2508,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C51" t="n">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D51" t="n">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E51" t="n">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F51" t="n">
-        <v>24261.7464</v>
+        <v>2820.3952</v>
       </c>
       <c r="G51" t="n">
-        <v>186330.3504351916</v>
+        <v>77371.33193519163</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2382,8 +2532,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>285</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2394,22 +2550,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C52" t="n">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D52" t="n">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E52" t="n">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F52" t="n">
-        <v>5014.5843</v>
+        <v>76</v>
       </c>
       <c r="G52" t="n">
-        <v>186330.3504351916</v>
+        <v>77447.33193519163</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2418,8 +2574,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>285</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2430,22 +2592,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C53" t="n">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D53" t="n">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E53" t="n">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F53" t="n">
-        <v>938.3815</v>
+        <v>282.7399</v>
       </c>
       <c r="G53" t="n">
-        <v>185391.9689351917</v>
+        <v>77447.33193519163</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2454,8 +2616,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>285</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2466,22 +2634,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C54" t="n">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D54" t="n">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E54" t="n">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F54" t="n">
-        <v>7709.3841</v>
+        <v>4735</v>
       </c>
       <c r="G54" t="n">
-        <v>193101.3530351917</v>
+        <v>82182.33193519163</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2490,8 +2658,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>285</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2502,22 +2676,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C55" t="n">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D55" t="n">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E55" t="n">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F55" t="n">
-        <v>315.1446</v>
+        <v>1300</v>
       </c>
       <c r="G55" t="n">
-        <v>192786.2084351917</v>
+        <v>80882.33193519163</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2526,8 +2700,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>285</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2538,22 +2718,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C56" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D56" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E56" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F56" t="n">
-        <v>694</v>
+        <v>403</v>
       </c>
       <c r="G56" t="n">
-        <v>192092.2084351917</v>
+        <v>81285.33193519163</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2562,8 +2742,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>285</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2574,22 +2760,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C57" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D57" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E57" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F57" t="n">
-        <v>5761.1734</v>
+        <v>40.3624</v>
       </c>
       <c r="G57" t="n">
-        <v>192092.2084351917</v>
+        <v>81244.96953519163</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2598,8 +2784,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>285</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2610,22 +2802,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C58" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D58" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E58" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F58" t="n">
-        <v>2508.0091</v>
+        <v>1740.3624</v>
       </c>
       <c r="G58" t="n">
-        <v>192092.2084351917</v>
+        <v>79504.60713519163</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2634,8 +2826,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>285</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2646,22 +2844,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C59" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D59" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E59" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F59" t="n">
-        <v>3953.6599</v>
+        <v>2086.0523</v>
       </c>
       <c r="G59" t="n">
-        <v>192092.2084351917</v>
+        <v>79504.60713519163</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2670,8 +2868,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>285</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2682,22 +2886,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C60" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D60" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E60" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F60" t="n">
-        <v>3587.0321</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>192092.2084351917</v>
+        <v>79504.60713519163</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2706,8 +2910,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>285</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2718,22 +2928,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C61" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D61" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E61" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F61" t="n">
-        <v>2106.1171</v>
+        <v>11.6152</v>
       </c>
       <c r="G61" t="n">
-        <v>192092.2084351917</v>
+        <v>79504.60713519163</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2742,8 +2952,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>285</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2754,22 +2970,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C62" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D62" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E62" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F62" t="n">
-        <v>9990.7803</v>
+        <v>800</v>
       </c>
       <c r="G62" t="n">
-        <v>192092.2084351917</v>
+        <v>79504.60713519163</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2778,8 +2994,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>285</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2790,22 +3012,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C63" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D63" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E63" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F63" t="n">
-        <v>8711.167799999999</v>
+        <v>491.9965</v>
       </c>
       <c r="G63" t="n">
-        <v>192092.2084351917</v>
+        <v>79504.60713519163</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2814,8 +3036,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>285</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2826,22 +3054,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C64" t="n">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D64" t="n">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E64" t="n">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F64" t="n">
-        <v>241.018</v>
+        <v>1390.6297</v>
       </c>
       <c r="G64" t="n">
-        <v>192333.2264351917</v>
+        <v>79504.60713519163</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2850,8 +3078,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>285</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2862,22 +3096,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C65" t="n">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D65" t="n">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="E65" t="n">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F65" t="n">
-        <v>5892.9904</v>
+        <v>3</v>
       </c>
       <c r="G65" t="n">
-        <v>198226.2168351917</v>
+        <v>79501.60713519163</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2886,8 +3120,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>285</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2898,22 +3138,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C66" t="n">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D66" t="n">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E66" t="n">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="F66" t="n">
-        <v>8363.347</v>
+        <v>675</v>
       </c>
       <c r="G66" t="n">
-        <v>206589.5638351917</v>
+        <v>80176.60713519163</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2922,8 +3162,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>285</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2934,22 +3180,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C67" t="n">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D67" t="n">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="E67" t="n">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F67" t="n">
-        <v>7190.268</v>
+        <v>81.7217</v>
       </c>
       <c r="G67" t="n">
-        <v>199399.2958351917</v>
+        <v>80094.88543519164</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2958,8 +3204,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>285</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2970,22 +3222,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C68" t="n">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D68" t="n">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E68" t="n">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F68" t="n">
-        <v>663.8909</v>
+        <v>1.7</v>
       </c>
       <c r="G68" t="n">
-        <v>199399.2958351917</v>
+        <v>80096.58543519164</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2994,8 +3246,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>285</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3006,22 +3264,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C69" t="n">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D69" t="n">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E69" t="n">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F69" t="n">
-        <v>5168.2651</v>
+        <v>21.186</v>
       </c>
       <c r="G69" t="n">
-        <v>194231.0307351917</v>
+        <v>80096.58543519164</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3030,8 +3288,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>285</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3042,22 +3306,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C70" t="n">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D70" t="n">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E70" t="n">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F70" t="n">
-        <v>331.9455</v>
+        <v>278.2428</v>
       </c>
       <c r="G70" t="n">
-        <v>194562.9762351917</v>
+        <v>80374.82823519164</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3066,8 +3330,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>285</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3078,22 +3348,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C71" t="n">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D71" t="n">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E71" t="n">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F71" t="n">
-        <v>3816.7469</v>
+        <v>1.7</v>
       </c>
       <c r="G71" t="n">
-        <v>198379.7231351917</v>
+        <v>80376.52823519164</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3102,8 +3372,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>285</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3114,22 +3390,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C72" t="n">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D72" t="n">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E72" t="n">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F72" t="n">
-        <v>7059.0729</v>
+        <v>89.0528</v>
       </c>
       <c r="G72" t="n">
-        <v>198379.7231351917</v>
+        <v>80376.52823519164</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3138,8 +3414,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>285</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3150,22 +3432,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C73" t="n">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D73" t="n">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E73" t="n">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F73" t="n">
-        <v>100</v>
+        <v>35.009</v>
       </c>
       <c r="G73" t="n">
-        <v>198379.7231351917</v>
+        <v>80376.52823519164</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3174,8 +3456,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>285</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3186,22 +3474,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C74" t="n">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D74" t="n">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E74" t="n">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F74" t="n">
-        <v>3539.8892</v>
+        <v>16570.1232</v>
       </c>
       <c r="G74" t="n">
-        <v>198379.7231351917</v>
+        <v>96946.65143519164</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3210,8 +3498,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>285</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3222,22 +3516,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C75" t="n">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D75" t="n">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E75" t="n">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F75" t="n">
-        <v>2566.1539</v>
+        <v>479.937</v>
       </c>
       <c r="G75" t="n">
-        <v>200945.8770351917</v>
+        <v>96466.71443519164</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3246,10 +3540,16 @@
         <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>285</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M75" t="n">
-        <v>1</v>
+        <v>1.040614035087719</v>
       </c>
       <c r="N75" t="inlineStr"/>
     </row>
@@ -3258,28 +3558,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C76" t="n">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D76" t="n">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E76" t="n">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F76" t="n">
-        <v>2229.3127</v>
+        <v>12.0232</v>
       </c>
       <c r="G76" t="n">
-        <v>198716.5643351917</v>
+        <v>96466.71443519164</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3294,28 +3594,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C77" t="n">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D77" t="n">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="E77" t="n">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F77" t="n">
-        <v>566.2455</v>
+        <v>3396.47</v>
       </c>
       <c r="G77" t="n">
-        <v>198716.5643351917</v>
+        <v>93070.24443519163</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3330,28 +3630,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C78" t="n">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D78" t="n">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E78" t="n">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F78" t="n">
-        <v>190</v>
+        <v>12.0232</v>
       </c>
       <c r="G78" t="n">
-        <v>198716.5643351917</v>
+        <v>93082.26763519163</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3366,28 +3666,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C79" t="n">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D79" t="n">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E79" t="n">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F79" t="n">
-        <v>15733.6694</v>
+        <v>7118.6412</v>
       </c>
       <c r="G79" t="n">
-        <v>182982.8949351917</v>
+        <v>85963.62643519163</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3402,28 +3702,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C80" t="n">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D80" t="n">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E80" t="n">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F80" t="n">
-        <v>5164.9999</v>
+        <v>100</v>
       </c>
       <c r="G80" t="n">
-        <v>182982.8949351917</v>
+        <v>85963.62643519163</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3438,28 +3738,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C81" t="n">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D81" t="n">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E81" t="n">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F81" t="n">
-        <v>329.2488</v>
+        <v>300</v>
       </c>
       <c r="G81" t="n">
-        <v>182982.8949351917</v>
+        <v>85963.62643519163</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3474,28 +3774,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C82" t="n">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D82" t="n">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E82" t="n">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F82" t="n">
-        <v>1286.79</v>
+        <v>12.2286</v>
       </c>
       <c r="G82" t="n">
-        <v>182982.8949351917</v>
+        <v>85951.39783519163</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3510,28 +3810,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C83" t="n">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D83" t="n">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E83" t="n">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F83" t="n">
-        <v>3007.0935</v>
+        <v>16479.085</v>
       </c>
       <c r="G83" t="n">
-        <v>185989.9884351917</v>
+        <v>69472.31283519164</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3546,28 +3846,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C84" t="n">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D84" t="n">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="E84" t="n">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F84" t="n">
-        <v>7429.2065</v>
+        <v>409.049</v>
       </c>
       <c r="G84" t="n">
-        <v>178560.7819351917</v>
+        <v>69472.31283519164</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3582,28 +3882,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C85" t="n">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D85" t="n">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E85" t="n">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F85" t="n">
-        <v>219.5243</v>
+        <v>1636.7484</v>
       </c>
       <c r="G85" t="n">
-        <v>178341.2576351917</v>
+        <v>69472.31283519164</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3618,28 +3918,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C86" t="n">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D86" t="n">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E86" t="n">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F86" t="n">
-        <v>5808.3677</v>
+        <v>3230</v>
       </c>
       <c r="G86" t="n">
-        <v>178341.2576351917</v>
+        <v>72702.31283519164</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3654,28 +3954,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C87" t="n">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D87" t="n">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E87" t="n">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F87" t="n">
-        <v>2005.91</v>
+        <v>30.1517</v>
       </c>
       <c r="G87" t="n">
-        <v>176335.3476351917</v>
+        <v>72702.31283519164</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3690,22 +3990,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C88" t="n">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D88" t="n">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E88" t="n">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F88" t="n">
-        <v>1264.4801</v>
+        <v>1730</v>
       </c>
       <c r="G88" t="n">
-        <v>177599.8277351916</v>
+        <v>72702.31283519164</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3726,28 +4026,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C89" t="n">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D89" t="n">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E89" t="n">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F89" t="n">
-        <v>715.3458000000001</v>
+        <v>4449.4956</v>
       </c>
       <c r="G89" t="n">
-        <v>178315.1735351917</v>
+        <v>72702.31283519164</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3762,28 +4062,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C90" t="n">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D90" t="n">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="E90" t="n">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="F90" t="n">
-        <v>167.1509</v>
+        <v>7985.1315</v>
       </c>
       <c r="G90" t="n">
-        <v>178482.3244351917</v>
+        <v>72702.31283519164</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3798,28 +4098,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C91" t="n">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D91" t="n">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="E91" t="n">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="F91" t="n">
-        <v>277.4905</v>
+        <v>8875.309499999999</v>
       </c>
       <c r="G91" t="n">
-        <v>178482.3244351917</v>
+        <v>72702.31283519164</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3834,28 +4134,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C92" t="n">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D92" t="n">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E92" t="n">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F92" t="n">
-        <v>98.2396</v>
+        <v>215</v>
       </c>
       <c r="G92" t="n">
-        <v>178482.3244351917</v>
+        <v>72917.31283519164</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3870,28 +4170,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C93" t="n">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D93" t="n">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E93" t="n">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F93" t="n">
-        <v>4804.8713</v>
+        <v>2.1173</v>
       </c>
       <c r="G93" t="n">
-        <v>178482.3244351917</v>
+        <v>72917.31283519164</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3906,28 +4206,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C94" t="n">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D94" t="n">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E94" t="n">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F94" t="n">
-        <v>3000</v>
+        <v>683</v>
       </c>
       <c r="G94" t="n">
-        <v>178482.3244351917</v>
+        <v>72917.31283519164</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3942,28 +4242,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C95" t="n">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D95" t="n">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="E95" t="n">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="F95" t="n">
-        <v>625.2431</v>
+        <v>250</v>
       </c>
       <c r="G95" t="n">
-        <v>178482.3244351917</v>
+        <v>72667.31283519164</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3978,28 +4278,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C96" t="n">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D96" t="n">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E96" t="n">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F96" t="n">
-        <v>1374.7569</v>
+        <v>201</v>
       </c>
       <c r="G96" t="n">
-        <v>178482.3244351917</v>
+        <v>72868.31283519164</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4014,28 +4314,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C97" t="n">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D97" t="n">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E97" t="n">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F97" t="n">
-        <v>98.2396</v>
+        <v>402</v>
       </c>
       <c r="G97" t="n">
-        <v>178384.0848351917</v>
+        <v>72868.31283519164</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4050,22 +4350,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C98" t="n">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D98" t="n">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E98" t="n">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F98" t="n">
-        <v>277.4905</v>
+        <v>597</v>
       </c>
       <c r="G98" t="n">
-        <v>178384.0848351917</v>
+        <v>72868.31283519164</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4086,28 +4386,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C99" t="n">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D99" t="n">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E99" t="n">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F99" t="n">
-        <v>3990.128</v>
+        <v>3398.98</v>
       </c>
       <c r="G99" t="n">
-        <v>178384.0848351917</v>
+        <v>69469.33283519164</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4122,28 +4422,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C100" t="n">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D100" t="n">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E100" t="n">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F100" t="n">
-        <v>332.6224</v>
+        <v>2588.6612</v>
       </c>
       <c r="G100" t="n">
-        <v>178384.0848351917</v>
+        <v>72057.99403519164</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4158,28 +4458,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C101" t="n">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D101" t="n">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E101" t="n">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F101" t="n">
-        <v>1133.1475</v>
+        <v>5792.7749</v>
       </c>
       <c r="G101" t="n">
-        <v>177250.9373351917</v>
+        <v>72057.99403519164</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4194,28 +4494,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C102" t="n">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D102" t="n">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E102" t="n">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F102" t="n">
-        <v>3191.3508</v>
+        <v>3653.4303</v>
       </c>
       <c r="G102" t="n">
-        <v>177250.9373351917</v>
+        <v>72057.99403519164</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4230,28 +4530,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C103" t="n">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D103" t="n">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E103" t="n">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F103" t="n">
-        <v>4144.7377</v>
+        <v>695.2283</v>
       </c>
       <c r="G103" t="n">
-        <v>177250.9373351917</v>
+        <v>72753.22233519165</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4266,28 +4566,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C104" t="n">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D104" t="n">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E104" t="n">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F104" t="n">
-        <v>190</v>
+        <v>2833.9595</v>
       </c>
       <c r="G104" t="n">
-        <v>177250.9373351917</v>
+        <v>72753.22233519165</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4302,28 +4602,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C105" t="n">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D105" t="n">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E105" t="n">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F105" t="n">
-        <v>248.06</v>
+        <v>2330.8657</v>
       </c>
       <c r="G105" t="n">
-        <v>177250.9373351917</v>
+        <v>72753.22233519165</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4338,28 +4638,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C106" t="n">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D106" t="n">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E106" t="n">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F106" t="n">
-        <v>8091.7695</v>
+        <v>2260.0275</v>
       </c>
       <c r="G106" t="n">
-        <v>185342.7068351917</v>
+        <v>72753.22233519165</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4369,6 +4669,2562 @@
       </c>
       <c r="N106" t="inlineStr"/>
     </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>300</v>
+      </c>
+      <c r="C107" t="n">
+        <v>300</v>
+      </c>
+      <c r="D107" t="n">
+        <v>300</v>
+      </c>
+      <c r="E107" t="n">
+        <v>300</v>
+      </c>
+      <c r="F107" t="n">
+        <v>4918.783333333334</v>
+      </c>
+      <c r="G107" t="n">
+        <v>77672.00566852499</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>298</v>
+      </c>
+      <c r="C108" t="n">
+        <v>298</v>
+      </c>
+      <c r="D108" t="n">
+        <v>298</v>
+      </c>
+      <c r="E108" t="n">
+        <v>298</v>
+      </c>
+      <c r="F108" t="n">
+        <v>4.4662</v>
+      </c>
+      <c r="G108" t="n">
+        <v>77667.53946852499</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>300</v>
+      </c>
+      <c r="C109" t="n">
+        <v>300</v>
+      </c>
+      <c r="D109" t="n">
+        <v>301</v>
+      </c>
+      <c r="E109" t="n">
+        <v>300</v>
+      </c>
+      <c r="F109" t="n">
+        <v>11589.21416666667</v>
+      </c>
+      <c r="G109" t="n">
+        <v>89256.75363519166</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>302</v>
+      </c>
+      <c r="C110" t="n">
+        <v>304</v>
+      </c>
+      <c r="D110" t="n">
+        <v>304</v>
+      </c>
+      <c r="E110" t="n">
+        <v>301</v>
+      </c>
+      <c r="F110" t="n">
+        <v>29221.9386</v>
+      </c>
+      <c r="G110" t="n">
+        <v>118478.6922351917</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>302</v>
+      </c>
+      <c r="C111" t="n">
+        <v>301</v>
+      </c>
+      <c r="D111" t="n">
+        <v>302</v>
+      </c>
+      <c r="E111" t="n">
+        <v>301</v>
+      </c>
+      <c r="F111" t="n">
+        <v>511.265</v>
+      </c>
+      <c r="G111" t="n">
+        <v>117967.4272351917</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>303</v>
+      </c>
+      <c r="C112" t="n">
+        <v>303</v>
+      </c>
+      <c r="D112" t="n">
+        <v>303</v>
+      </c>
+      <c r="E112" t="n">
+        <v>303</v>
+      </c>
+      <c r="F112" t="n">
+        <v>5365.11</v>
+      </c>
+      <c r="G112" t="n">
+        <v>123332.5372351917</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>304</v>
+      </c>
+      <c r="C113" t="n">
+        <v>304</v>
+      </c>
+      <c r="D113" t="n">
+        <v>304</v>
+      </c>
+      <c r="E113" t="n">
+        <v>304</v>
+      </c>
+      <c r="F113" t="n">
+        <v>14465.778</v>
+      </c>
+      <c r="G113" t="n">
+        <v>137798.3152351917</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>304</v>
+      </c>
+      <c r="C114" t="n">
+        <v>304</v>
+      </c>
+      <c r="D114" t="n">
+        <v>304</v>
+      </c>
+      <c r="E114" t="n">
+        <v>304</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G114" t="n">
+        <v>137798.3152351917</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>305</v>
+      </c>
+      <c r="C115" t="n">
+        <v>305</v>
+      </c>
+      <c r="D115" t="n">
+        <v>305</v>
+      </c>
+      <c r="E115" t="n">
+        <v>305</v>
+      </c>
+      <c r="F115" t="n">
+        <v>33243.8808</v>
+      </c>
+      <c r="G115" t="n">
+        <v>171042.1960351916</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>303</v>
+      </c>
+      <c r="C116" t="n">
+        <v>303</v>
+      </c>
+      <c r="D116" t="n">
+        <v>303</v>
+      </c>
+      <c r="E116" t="n">
+        <v>303</v>
+      </c>
+      <c r="F116" t="n">
+        <v>8682.7624</v>
+      </c>
+      <c r="G116" t="n">
+        <v>162359.4336351916</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>301</v>
+      </c>
+      <c r="C117" t="n">
+        <v>301</v>
+      </c>
+      <c r="D117" t="n">
+        <v>301</v>
+      </c>
+      <c r="E117" t="n">
+        <v>301</v>
+      </c>
+      <c r="F117" t="n">
+        <v>11.4582</v>
+      </c>
+      <c r="G117" t="n">
+        <v>162347.9754351916</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>300</v>
+      </c>
+      <c r="C118" t="n">
+        <v>300</v>
+      </c>
+      <c r="D118" t="n">
+        <v>300</v>
+      </c>
+      <c r="E118" t="n">
+        <v>300</v>
+      </c>
+      <c r="F118" t="n">
+        <v>290.8296</v>
+      </c>
+      <c r="G118" t="n">
+        <v>162057.1458351917</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>300</v>
+      </c>
+      <c r="C119" t="n">
+        <v>300</v>
+      </c>
+      <c r="D119" t="n">
+        <v>300</v>
+      </c>
+      <c r="E119" t="n">
+        <v>300</v>
+      </c>
+      <c r="F119" t="n">
+        <v>368.7898</v>
+      </c>
+      <c r="G119" t="n">
+        <v>162057.1458351917</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>301</v>
+      </c>
+      <c r="C120" t="n">
+        <v>301</v>
+      </c>
+      <c r="D120" t="n">
+        <v>301</v>
+      </c>
+      <c r="E120" t="n">
+        <v>301</v>
+      </c>
+      <c r="F120" t="n">
+        <v>11.4582</v>
+      </c>
+      <c r="G120" t="n">
+        <v>162068.6040351916</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>301</v>
+      </c>
+      <c r="C121" t="n">
+        <v>301</v>
+      </c>
+      <c r="D121" t="n">
+        <v>301</v>
+      </c>
+      <c r="E121" t="n">
+        <v>301</v>
+      </c>
+      <c r="F121" t="n">
+        <v>3653.4303</v>
+      </c>
+      <c r="G121" t="n">
+        <v>162068.6040351916</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>301</v>
+      </c>
+      <c r="C122" t="n">
+        <v>302</v>
+      </c>
+      <c r="D122" t="n">
+        <v>302</v>
+      </c>
+      <c r="E122" t="n">
+        <v>301</v>
+      </c>
+      <c r="F122" t="n">
+        <v>24261.7464</v>
+      </c>
+      <c r="G122" t="n">
+        <v>186330.3504351916</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>302</v>
+      </c>
+      <c r="C123" t="n">
+        <v>302</v>
+      </c>
+      <c r="D123" t="n">
+        <v>302</v>
+      </c>
+      <c r="E123" t="n">
+        <v>302</v>
+      </c>
+      <c r="F123" t="n">
+        <v>5014.5843</v>
+      </c>
+      <c r="G123" t="n">
+        <v>186330.3504351916</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>301</v>
+      </c>
+      <c r="C124" t="n">
+        <v>301</v>
+      </c>
+      <c r="D124" t="n">
+        <v>301</v>
+      </c>
+      <c r="E124" t="n">
+        <v>301</v>
+      </c>
+      <c r="F124" t="n">
+        <v>938.3815</v>
+      </c>
+      <c r="G124" t="n">
+        <v>185391.9689351917</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>302</v>
+      </c>
+      <c r="C125" t="n">
+        <v>302</v>
+      </c>
+      <c r="D125" t="n">
+        <v>302</v>
+      </c>
+      <c r="E125" t="n">
+        <v>302</v>
+      </c>
+      <c r="F125" t="n">
+        <v>7709.3841</v>
+      </c>
+      <c r="G125" t="n">
+        <v>193101.3530351917</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>301</v>
+      </c>
+      <c r="C126" t="n">
+        <v>301</v>
+      </c>
+      <c r="D126" t="n">
+        <v>301</v>
+      </c>
+      <c r="E126" t="n">
+        <v>301</v>
+      </c>
+      <c r="F126" t="n">
+        <v>315.1446</v>
+      </c>
+      <c r="G126" t="n">
+        <v>192786.2084351917</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>300</v>
+      </c>
+      <c r="C127" t="n">
+        <v>300</v>
+      </c>
+      <c r="D127" t="n">
+        <v>300</v>
+      </c>
+      <c r="E127" t="n">
+        <v>300</v>
+      </c>
+      <c r="F127" t="n">
+        <v>694</v>
+      </c>
+      <c r="G127" t="n">
+        <v>192092.2084351917</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>300</v>
+      </c>
+      <c r="C128" t="n">
+        <v>300</v>
+      </c>
+      <c r="D128" t="n">
+        <v>300</v>
+      </c>
+      <c r="E128" t="n">
+        <v>300</v>
+      </c>
+      <c r="F128" t="n">
+        <v>5761.1734</v>
+      </c>
+      <c r="G128" t="n">
+        <v>192092.2084351917</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>300</v>
+      </c>
+      <c r="C129" t="n">
+        <v>300</v>
+      </c>
+      <c r="D129" t="n">
+        <v>300</v>
+      </c>
+      <c r="E129" t="n">
+        <v>300</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2508.0091</v>
+      </c>
+      <c r="G129" t="n">
+        <v>192092.2084351917</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>300</v>
+      </c>
+      <c r="C130" t="n">
+        <v>300</v>
+      </c>
+      <c r="D130" t="n">
+        <v>300</v>
+      </c>
+      <c r="E130" t="n">
+        <v>300</v>
+      </c>
+      <c r="F130" t="n">
+        <v>3953.6599</v>
+      </c>
+      <c r="G130" t="n">
+        <v>192092.2084351917</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>300</v>
+      </c>
+      <c r="C131" t="n">
+        <v>300</v>
+      </c>
+      <c r="D131" t="n">
+        <v>300</v>
+      </c>
+      <c r="E131" t="n">
+        <v>300</v>
+      </c>
+      <c r="F131" t="n">
+        <v>3587.0321</v>
+      </c>
+      <c r="G131" t="n">
+        <v>192092.2084351917</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>300</v>
+      </c>
+      <c r="C132" t="n">
+        <v>300</v>
+      </c>
+      <c r="D132" t="n">
+        <v>300</v>
+      </c>
+      <c r="E132" t="n">
+        <v>300</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2106.1171</v>
+      </c>
+      <c r="G132" t="n">
+        <v>192092.2084351917</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>300</v>
+      </c>
+      <c r="C133" t="n">
+        <v>300</v>
+      </c>
+      <c r="D133" t="n">
+        <v>300</v>
+      </c>
+      <c r="E133" t="n">
+        <v>300</v>
+      </c>
+      <c r="F133" t="n">
+        <v>9990.7803</v>
+      </c>
+      <c r="G133" t="n">
+        <v>192092.2084351917</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>300</v>
+      </c>
+      <c r="C134" t="n">
+        <v>300</v>
+      </c>
+      <c r="D134" t="n">
+        <v>300</v>
+      </c>
+      <c r="E134" t="n">
+        <v>300</v>
+      </c>
+      <c r="F134" t="n">
+        <v>8711.167799999999</v>
+      </c>
+      <c r="G134" t="n">
+        <v>192092.2084351917</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>302</v>
+      </c>
+      <c r="C135" t="n">
+        <v>302</v>
+      </c>
+      <c r="D135" t="n">
+        <v>302</v>
+      </c>
+      <c r="E135" t="n">
+        <v>302</v>
+      </c>
+      <c r="F135" t="n">
+        <v>241.018</v>
+      </c>
+      <c r="G135" t="n">
+        <v>192333.2264351917</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>304</v>
+      </c>
+      <c r="C136" t="n">
+        <v>304</v>
+      </c>
+      <c r="D136" t="n">
+        <v>304</v>
+      </c>
+      <c r="E136" t="n">
+        <v>304</v>
+      </c>
+      <c r="F136" t="n">
+        <v>5892.9904</v>
+      </c>
+      <c r="G136" t="n">
+        <v>198226.2168351917</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>305</v>
+      </c>
+      <c r="C137" t="n">
+        <v>305</v>
+      </c>
+      <c r="D137" t="n">
+        <v>305</v>
+      </c>
+      <c r="E137" t="n">
+        <v>305</v>
+      </c>
+      <c r="F137" t="n">
+        <v>8363.347</v>
+      </c>
+      <c r="G137" t="n">
+        <v>206589.5638351917</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>305</v>
+      </c>
+      <c r="C138" t="n">
+        <v>304</v>
+      </c>
+      <c r="D138" t="n">
+        <v>305</v>
+      </c>
+      <c r="E138" t="n">
+        <v>304</v>
+      </c>
+      <c r="F138" t="n">
+        <v>7190.268</v>
+      </c>
+      <c r="G138" t="n">
+        <v>199399.2958351917</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>304</v>
+      </c>
+      <c r="C139" t="n">
+        <v>304</v>
+      </c>
+      <c r="D139" t="n">
+        <v>304</v>
+      </c>
+      <c r="E139" t="n">
+        <v>304</v>
+      </c>
+      <c r="F139" t="n">
+        <v>663.8909</v>
+      </c>
+      <c r="G139" t="n">
+        <v>199399.2958351917</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>305</v>
+      </c>
+      <c r="C140" t="n">
+        <v>303</v>
+      </c>
+      <c r="D140" t="n">
+        <v>305</v>
+      </c>
+      <c r="E140" t="n">
+        <v>303</v>
+      </c>
+      <c r="F140" t="n">
+        <v>5168.2651</v>
+      </c>
+      <c r="G140" t="n">
+        <v>194231.0307351917</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>304</v>
+      </c>
+      <c r="C141" t="n">
+        <v>304</v>
+      </c>
+      <c r="D141" t="n">
+        <v>304</v>
+      </c>
+      <c r="E141" t="n">
+        <v>304</v>
+      </c>
+      <c r="F141" t="n">
+        <v>331.9455</v>
+      </c>
+      <c r="G141" t="n">
+        <v>194562.9762351917</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>305</v>
+      </c>
+      <c r="C142" t="n">
+        <v>305</v>
+      </c>
+      <c r="D142" t="n">
+        <v>305</v>
+      </c>
+      <c r="E142" t="n">
+        <v>305</v>
+      </c>
+      <c r="F142" t="n">
+        <v>3816.7469</v>
+      </c>
+      <c r="G142" t="n">
+        <v>198379.7231351917</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>306</v>
+      </c>
+      <c r="C143" t="n">
+        <v>305</v>
+      </c>
+      <c r="D143" t="n">
+        <v>306</v>
+      </c>
+      <c r="E143" t="n">
+        <v>305</v>
+      </c>
+      <c r="F143" t="n">
+        <v>7059.0729</v>
+      </c>
+      <c r="G143" t="n">
+        <v>198379.7231351917</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>305</v>
+      </c>
+      <c r="C144" t="n">
+        <v>305</v>
+      </c>
+      <c r="D144" t="n">
+        <v>305</v>
+      </c>
+      <c r="E144" t="n">
+        <v>305</v>
+      </c>
+      <c r="F144" t="n">
+        <v>100</v>
+      </c>
+      <c r="G144" t="n">
+        <v>198379.7231351917</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>305</v>
+      </c>
+      <c r="C145" t="n">
+        <v>305</v>
+      </c>
+      <c r="D145" t="n">
+        <v>305</v>
+      </c>
+      <c r="E145" t="n">
+        <v>305</v>
+      </c>
+      <c r="F145" t="n">
+        <v>3539.8892</v>
+      </c>
+      <c r="G145" t="n">
+        <v>198379.7231351917</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>305</v>
+      </c>
+      <c r="C146" t="n">
+        <v>306</v>
+      </c>
+      <c r="D146" t="n">
+        <v>306</v>
+      </c>
+      <c r="E146" t="n">
+        <v>305</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2566.1539</v>
+      </c>
+      <c r="G146" t="n">
+        <v>200945.8770351917</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>306</v>
+      </c>
+      <c r="C147" t="n">
+        <v>305</v>
+      </c>
+      <c r="D147" t="n">
+        <v>306</v>
+      </c>
+      <c r="E147" t="n">
+        <v>305</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2229.3127</v>
+      </c>
+      <c r="G147" t="n">
+        <v>198716.5643351917</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>306</v>
+      </c>
+      <c r="C148" t="n">
+        <v>305</v>
+      </c>
+      <c r="D148" t="n">
+        <v>306</v>
+      </c>
+      <c r="E148" t="n">
+        <v>305</v>
+      </c>
+      <c r="F148" t="n">
+        <v>566.2455</v>
+      </c>
+      <c r="G148" t="n">
+        <v>198716.5643351917</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>305</v>
+      </c>
+      <c r="C149" t="n">
+        <v>305</v>
+      </c>
+      <c r="D149" t="n">
+        <v>305</v>
+      </c>
+      <c r="E149" t="n">
+        <v>305</v>
+      </c>
+      <c r="F149" t="n">
+        <v>190</v>
+      </c>
+      <c r="G149" t="n">
+        <v>198716.5643351917</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>304</v>
+      </c>
+      <c r="C150" t="n">
+        <v>304</v>
+      </c>
+      <c r="D150" t="n">
+        <v>304</v>
+      </c>
+      <c r="E150" t="n">
+        <v>304</v>
+      </c>
+      <c r="F150" t="n">
+        <v>15733.6694</v>
+      </c>
+      <c r="G150" t="n">
+        <v>182982.8949351917</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>304</v>
+      </c>
+      <c r="C151" t="n">
+        <v>304</v>
+      </c>
+      <c r="D151" t="n">
+        <v>304</v>
+      </c>
+      <c r="E151" t="n">
+        <v>304</v>
+      </c>
+      <c r="F151" t="n">
+        <v>5164.9999</v>
+      </c>
+      <c r="G151" t="n">
+        <v>182982.8949351917</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>304</v>
+      </c>
+      <c r="C152" t="n">
+        <v>304</v>
+      </c>
+      <c r="D152" t="n">
+        <v>304</v>
+      </c>
+      <c r="E152" t="n">
+        <v>304</v>
+      </c>
+      <c r="F152" t="n">
+        <v>329.2488</v>
+      </c>
+      <c r="G152" t="n">
+        <v>182982.8949351917</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>304</v>
+      </c>
+      <c r="C153" t="n">
+        <v>304</v>
+      </c>
+      <c r="D153" t="n">
+        <v>304</v>
+      </c>
+      <c r="E153" t="n">
+        <v>304</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1286.79</v>
+      </c>
+      <c r="G153" t="n">
+        <v>182982.8949351917</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>304</v>
+      </c>
+      <c r="C154" t="n">
+        <v>305</v>
+      </c>
+      <c r="D154" t="n">
+        <v>305</v>
+      </c>
+      <c r="E154" t="n">
+        <v>304</v>
+      </c>
+      <c r="F154" t="n">
+        <v>3007.0935</v>
+      </c>
+      <c r="G154" t="n">
+        <v>185989.9884351917</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>304</v>
+      </c>
+      <c r="C155" t="n">
+        <v>304</v>
+      </c>
+      <c r="D155" t="n">
+        <v>304</v>
+      </c>
+      <c r="E155" t="n">
+        <v>304</v>
+      </c>
+      <c r="F155" t="n">
+        <v>7429.2065</v>
+      </c>
+      <c r="G155" t="n">
+        <v>178560.7819351917</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>303</v>
+      </c>
+      <c r="C156" t="n">
+        <v>303</v>
+      </c>
+      <c r="D156" t="n">
+        <v>303</v>
+      </c>
+      <c r="E156" t="n">
+        <v>303</v>
+      </c>
+      <c r="F156" t="n">
+        <v>219.5243</v>
+      </c>
+      <c r="G156" t="n">
+        <v>178341.2576351917</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>303</v>
+      </c>
+      <c r="C157" t="n">
+        <v>303</v>
+      </c>
+      <c r="D157" t="n">
+        <v>303</v>
+      </c>
+      <c r="E157" t="n">
+        <v>303</v>
+      </c>
+      <c r="F157" t="n">
+        <v>5808.3677</v>
+      </c>
+      <c r="G157" t="n">
+        <v>178341.2576351917</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>302</v>
+      </c>
+      <c r="C158" t="n">
+        <v>302</v>
+      </c>
+      <c r="D158" t="n">
+        <v>302</v>
+      </c>
+      <c r="E158" t="n">
+        <v>302</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2005.91</v>
+      </c>
+      <c r="G158" t="n">
+        <v>176335.3476351917</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>303</v>
+      </c>
+      <c r="C159" t="n">
+        <v>303</v>
+      </c>
+      <c r="D159" t="n">
+        <v>303</v>
+      </c>
+      <c r="E159" t="n">
+        <v>303</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1264.4801</v>
+      </c>
+      <c r="G159" t="n">
+        <v>177599.8277351916</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>304</v>
+      </c>
+      <c r="C160" t="n">
+        <v>304</v>
+      </c>
+      <c r="D160" t="n">
+        <v>304</v>
+      </c>
+      <c r="E160" t="n">
+        <v>304</v>
+      </c>
+      <c r="F160" t="n">
+        <v>715.3458000000001</v>
+      </c>
+      <c r="G160" t="n">
+        <v>178315.1735351917</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>305</v>
+      </c>
+      <c r="C161" t="n">
+        <v>305</v>
+      </c>
+      <c r="D161" t="n">
+        <v>305</v>
+      </c>
+      <c r="E161" t="n">
+        <v>305</v>
+      </c>
+      <c r="F161" t="n">
+        <v>167.1509</v>
+      </c>
+      <c r="G161" t="n">
+        <v>178482.3244351917</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>305</v>
+      </c>
+      <c r="C162" t="n">
+        <v>305</v>
+      </c>
+      <c r="D162" t="n">
+        <v>305</v>
+      </c>
+      <c r="E162" t="n">
+        <v>305</v>
+      </c>
+      <c r="F162" t="n">
+        <v>277.4905</v>
+      </c>
+      <c r="G162" t="n">
+        <v>178482.3244351917</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>305</v>
+      </c>
+      <c r="C163" t="n">
+        <v>305</v>
+      </c>
+      <c r="D163" t="n">
+        <v>305</v>
+      </c>
+      <c r="E163" t="n">
+        <v>305</v>
+      </c>
+      <c r="F163" t="n">
+        <v>98.2396</v>
+      </c>
+      <c r="G163" t="n">
+        <v>178482.3244351917</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>305</v>
+      </c>
+      <c r="C164" t="n">
+        <v>305</v>
+      </c>
+      <c r="D164" t="n">
+        <v>305</v>
+      </c>
+      <c r="E164" t="n">
+        <v>305</v>
+      </c>
+      <c r="F164" t="n">
+        <v>4804.8713</v>
+      </c>
+      <c r="G164" t="n">
+        <v>178482.3244351917</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>305</v>
+      </c>
+      <c r="C165" t="n">
+        <v>305</v>
+      </c>
+      <c r="D165" t="n">
+        <v>305</v>
+      </c>
+      <c r="E165" t="n">
+        <v>305</v>
+      </c>
+      <c r="F165" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G165" t="n">
+        <v>178482.3244351917</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>305</v>
+      </c>
+      <c r="C166" t="n">
+        <v>305</v>
+      </c>
+      <c r="D166" t="n">
+        <v>305</v>
+      </c>
+      <c r="E166" t="n">
+        <v>305</v>
+      </c>
+      <c r="F166" t="n">
+        <v>625.2431</v>
+      </c>
+      <c r="G166" t="n">
+        <v>178482.3244351917</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>305</v>
+      </c>
+      <c r="C167" t="n">
+        <v>305</v>
+      </c>
+      <c r="D167" t="n">
+        <v>305</v>
+      </c>
+      <c r="E167" t="n">
+        <v>305</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1374.7569</v>
+      </c>
+      <c r="G167" t="n">
+        <v>178482.3244351917</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>304</v>
+      </c>
+      <c r="C168" t="n">
+        <v>304</v>
+      </c>
+      <c r="D168" t="n">
+        <v>304</v>
+      </c>
+      <c r="E168" t="n">
+        <v>304</v>
+      </c>
+      <c r="F168" t="n">
+        <v>98.2396</v>
+      </c>
+      <c r="G168" t="n">
+        <v>178384.0848351917</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>304</v>
+      </c>
+      <c r="C169" t="n">
+        <v>304</v>
+      </c>
+      <c r="D169" t="n">
+        <v>304</v>
+      </c>
+      <c r="E169" t="n">
+        <v>304</v>
+      </c>
+      <c r="F169" t="n">
+        <v>277.4905</v>
+      </c>
+      <c r="G169" t="n">
+        <v>178384.0848351917</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>304</v>
+      </c>
+      <c r="C170" t="n">
+        <v>304</v>
+      </c>
+      <c r="D170" t="n">
+        <v>304</v>
+      </c>
+      <c r="E170" t="n">
+        <v>304</v>
+      </c>
+      <c r="F170" t="n">
+        <v>3990.128</v>
+      </c>
+      <c r="G170" t="n">
+        <v>178384.0848351917</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>304</v>
+      </c>
+      <c r="C171" t="n">
+        <v>304</v>
+      </c>
+      <c r="D171" t="n">
+        <v>304</v>
+      </c>
+      <c r="E171" t="n">
+        <v>304</v>
+      </c>
+      <c r="F171" t="n">
+        <v>332.6224</v>
+      </c>
+      <c r="G171" t="n">
+        <v>178384.0848351917</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>303</v>
+      </c>
+      <c r="C172" t="n">
+        <v>303</v>
+      </c>
+      <c r="D172" t="n">
+        <v>303</v>
+      </c>
+      <c r="E172" t="n">
+        <v>303</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1133.1475</v>
+      </c>
+      <c r="G172" t="n">
+        <v>177250.9373351917</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>303</v>
+      </c>
+      <c r="C173" t="n">
+        <v>303</v>
+      </c>
+      <c r="D173" t="n">
+        <v>303</v>
+      </c>
+      <c r="E173" t="n">
+        <v>303</v>
+      </c>
+      <c r="F173" t="n">
+        <v>3191.3508</v>
+      </c>
+      <c r="G173" t="n">
+        <v>177250.9373351917</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>303</v>
+      </c>
+      <c r="C174" t="n">
+        <v>303</v>
+      </c>
+      <c r="D174" t="n">
+        <v>303</v>
+      </c>
+      <c r="E174" t="n">
+        <v>303</v>
+      </c>
+      <c r="F174" t="n">
+        <v>4144.7377</v>
+      </c>
+      <c r="G174" t="n">
+        <v>177250.9373351917</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>303</v>
+      </c>
+      <c r="C175" t="n">
+        <v>303</v>
+      </c>
+      <c r="D175" t="n">
+        <v>303</v>
+      </c>
+      <c r="E175" t="n">
+        <v>303</v>
+      </c>
+      <c r="F175" t="n">
+        <v>190</v>
+      </c>
+      <c r="G175" t="n">
+        <v>177250.9373351917</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>303</v>
+      </c>
+      <c r="C176" t="n">
+        <v>303</v>
+      </c>
+      <c r="D176" t="n">
+        <v>303</v>
+      </c>
+      <c r="E176" t="n">
+        <v>303</v>
+      </c>
+      <c r="F176" t="n">
+        <v>248.06</v>
+      </c>
+      <c r="G176" t="n">
+        <v>177250.9373351917</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>304</v>
+      </c>
+      <c r="C177" t="n">
+        <v>304</v>
+      </c>
+      <c r="D177" t="n">
+        <v>304</v>
+      </c>
+      <c r="E177" t="n">
+        <v>304</v>
+      </c>
+      <c r="F177" t="n">
+        <v>8091.7695</v>
+      </c>
+      <c r="G177" t="n">
+        <v>185342.7068351917</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-14 BackTest BAT.xlsx
+++ b/BackTest/2019-11-14 BackTest BAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N177"/>
+  <dimension ref="A1:M177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>78255.22483519162</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>78255.22483519162</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="J3" t="n">
         <v>284</v>
       </c>
-      <c r="K3" t="n">
-        <v>284</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>78255.22483519162</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="J4" t="n">
         <v>284</v>
       </c>
-      <c r="K4" t="n">
-        <v>284</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>78265.22483519162</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="J5" t="n">
         <v>284</v>
       </c>
-      <c r="K5" t="n">
-        <v>284</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +603,15 @@
         <v>78265.22483519162</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>285</v>
-      </c>
-      <c r="K6" t="n">
-        <v>285</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,26 +636,15 @@
         <v>80465.22483519162</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>285</v>
-      </c>
-      <c r="K7" t="n">
-        <v>285</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,24 +669,19 @@
         <v>80465.22483519162</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>285</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>286</v>
+      </c>
+      <c r="J8" t="n">
+        <v>286</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -746,26 +706,23 @@
         <v>80465.22483519162</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="J9" t="n">
         <v>286</v>
       </c>
-      <c r="K9" t="n">
-        <v>285</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -792,22 +749,19 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>285</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>286</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -832,26 +786,19 @@
         <v>80297.02483519162</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="J11" t="n">
         <v>285</v>
       </c>
-      <c r="K11" t="n">
-        <v>285</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -878,22 +825,19 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>285</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>285</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -918,24 +862,23 @@
         <v>80297.02483519162</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>285</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>286</v>
+      </c>
+      <c r="J13" t="n">
+        <v>285</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -960,26 +903,15 @@
         <v>80101.02483519162</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>286</v>
-      </c>
-      <c r="K14" t="n">
-        <v>285</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1004,26 +936,15 @@
         <v>80101.02483519162</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>285</v>
-      </c>
-      <c r="K15" t="n">
-        <v>285</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1048,26 +969,19 @@
         <v>78216.85283519162</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="J16" t="n">
         <v>285</v>
       </c>
-      <c r="K16" t="n">
-        <v>285</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1092,26 +1006,23 @@
         <v>80174.02483519162</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="J17" t="n">
-        <v>284</v>
-      </c>
-      <c r="K17" t="n">
-        <v>285</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>285</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1136,24 +1047,23 @@
         <v>80174.02483519162</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>285</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>285</v>
+      </c>
+      <c r="J18" t="n">
+        <v>285</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1178,24 +1088,19 @@
         <v>80198.87323519163</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>285</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>285</v>
+      </c>
+      <c r="J19" t="n">
+        <v>285</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1220,24 +1125,23 @@
         <v>79398.87323519163</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>285</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>286</v>
+      </c>
+      <c r="J20" t="n">
+        <v>285</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1262,26 +1166,23 @@
         <v>83399.47843519163</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="J21" t="n">
-        <v>283</v>
-      </c>
-      <c r="K21" t="n">
-        <v>285</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>285</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1306,26 +1207,23 @@
         <v>81199.47843519163</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="J22" t="n">
         <v>285</v>
       </c>
-      <c r="K22" t="n">
-        <v>285</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1350,24 +1248,23 @@
         <v>81199.47843519163</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>285</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>284</v>
+      </c>
+      <c r="J23" t="n">
+        <v>285</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1392,24 +1289,23 @@
         <v>81312.94523519163</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>285</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>284</v>
+      </c>
+      <c r="J24" t="n">
+        <v>285</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1436,22 +1332,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>285</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>285</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1478,22 +1371,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>285</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>285</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1520,22 +1410,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>285</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>285</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1562,22 +1449,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>285</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>285</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1604,22 +1488,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>285</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>285</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1646,22 +1527,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>285</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>285</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1688,22 +1566,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>285</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>285</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1730,22 +1605,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>285</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>285</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1772,22 +1644,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>285</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>285</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1814,22 +1683,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>285</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>285</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1856,22 +1722,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>285</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>285</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1898,22 +1761,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>285</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>285</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1940,22 +1800,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>285</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>285</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1982,22 +1839,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>285</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>285</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2024,22 +1878,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>285</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>285</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2066,22 +1917,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>285</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>285</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2108,22 +1956,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>285</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>285</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2150,22 +1995,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>285</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>285</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2192,22 +2034,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>285</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>285</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2234,22 +2073,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>285</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>285</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2276,22 +2112,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>285</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>285</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2318,22 +2151,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>285</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>285</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2360,22 +2190,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>285</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>285</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2402,22 +2229,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>285</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>285</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2442,24 +2266,21 @@
         <v>94746.46273519163</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>285</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>285</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2486,22 +2307,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>285</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>285</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2528,22 +2346,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>285</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>285</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2570,22 +2385,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>285</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>285</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2610,24 +2422,21 @@
         <v>77447.33193519163</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>285</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>285</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2654,22 +2463,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>285</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>285</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2694,24 +2500,21 @@
         <v>80882.33193519163</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>285</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>285</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2738,22 +2541,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>285</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>285</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2778,24 +2578,21 @@
         <v>81244.96953519163</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>285</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>285</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2822,22 +2619,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>285</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>285</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2862,24 +2656,21 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>285</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>285</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2906,22 +2697,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>285</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>285</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2946,24 +2734,21 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>285</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>285</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2988,24 +2773,21 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>285</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>285</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3030,24 +2812,21 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>285</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>285</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3072,24 +2851,21 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>285</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>285</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3114,24 +2890,21 @@
         <v>79501.60713519163</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>285</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>285</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3156,24 +2929,21 @@
         <v>80176.60713519163</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>285</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>285</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3198,24 +2968,21 @@
         <v>80094.88543519164</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>285</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>285</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3242,22 +3009,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>285</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>285</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3282,24 +3046,21 @@
         <v>80096.58543519164</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>285</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>285</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3324,24 +3085,21 @@
         <v>80374.82823519164</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>285</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>285</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3366,24 +3124,21 @@
         <v>80376.52823519164</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>285</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>285</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3410,22 +3165,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>285</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>285</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3450,24 +3202,21 @@
         <v>80376.52823519164</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>285</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>285</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3494,22 +3243,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>285</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>285</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3536,22 +3282,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>285</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1.040614035087719</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>285</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3578,16 +3321,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>285</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3614,16 +3360,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>285</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3650,16 +3399,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>285</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3686,16 +3438,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>285</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3722,16 +3477,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>285</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3758,16 +3516,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>285</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3794,16 +3555,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>285</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3830,16 +3594,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>285</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3866,16 +3633,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>285</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3902,16 +3672,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>285</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3938,16 +3711,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>285</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3974,16 +3750,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>285</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4010,16 +3789,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>285</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4046,16 +3828,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>285</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4082,16 +3867,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>285</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4118,16 +3906,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>285</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4154,16 +3945,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>285</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4190,16 +3984,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>285</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4226,16 +4023,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>285</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4262,16 +4062,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>285</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4298,16 +4101,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>285</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4334,16 +4140,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>285</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4370,16 +4179,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>285</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4406,16 +4218,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>285</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4442,16 +4257,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>285</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4478,16 +4296,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>285</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4514,16 +4335,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>285</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4550,16 +4374,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>285</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4586,16 +4413,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>285</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4622,16 +4452,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>285</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4658,16 +4491,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>285</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4694,16 +4530,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>285</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4730,16 +4569,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>285</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4766,16 +4608,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>285</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4802,16 +4647,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>285</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4838,16 +4686,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>285</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4874,16 +4725,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>285</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4910,16 +4764,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>285</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4944,18 +4801,23 @@
         <v>137798.3152351917</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>285</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1.061666666666667</v>
+      </c>
       <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>1.007042253521127</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4980,18 +4842,15 @@
         <v>171042.1960351916</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5016,18 +4875,15 @@
         <v>162359.4336351916</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5052,18 +4908,15 @@
         <v>162347.9754351916</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5088,18 +4941,15 @@
         <v>162057.1458351917</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5124,18 +4974,15 @@
         <v>162057.1458351917</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5160,18 +5007,15 @@
         <v>162068.6040351916</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5198,16 +5042,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5234,16 +5075,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5270,16 +5108,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5306,16 +5141,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5342,16 +5174,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5378,16 +5207,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5414,16 +5240,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5450,16 +5273,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5486,16 +5306,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5522,16 +5339,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5558,16 +5372,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5594,16 +5405,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5630,16 +5438,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5666,16 +5471,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5702,16 +5504,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5738,16 +5537,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5774,16 +5570,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5810,16 +5603,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5846,16 +5636,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5882,16 +5669,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5918,16 +5702,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5954,16 +5735,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5990,16 +5768,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6026,16 +5801,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6062,16 +5834,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6098,16 +5867,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6134,16 +5900,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6170,16 +5933,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6204,18 +5964,15 @@
         <v>198716.5643351917</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6240,18 +5997,15 @@
         <v>182982.8949351917</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6278,16 +6032,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6314,16 +6065,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6350,16 +6098,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6386,16 +6131,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6422,16 +6164,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6458,16 +6197,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6492,18 +6228,15 @@
         <v>178341.2576351917</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6528,18 +6261,15 @@
         <v>176335.3476351917</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6564,18 +6294,15 @@
         <v>177599.8277351916</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6600,18 +6327,15 @@
         <v>178315.1735351917</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6636,18 +6360,15 @@
         <v>178482.3244351917</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6672,18 +6393,15 @@
         <v>178482.3244351917</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6708,18 +6426,15 @@
         <v>178482.3244351917</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6746,16 +6461,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6782,16 +6494,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6818,16 +6527,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6854,16 +6560,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6890,16 +6593,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6924,18 +6624,15 @@
         <v>178384.0848351917</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6960,18 +6657,15 @@
         <v>178384.0848351917</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6996,18 +6690,15 @@
         <v>178384.0848351917</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7034,16 +6725,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7070,16 +6758,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7106,16 +6791,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7142,16 +6824,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7178,16 +6857,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7214,18 +6890,15 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-14 BackTest BAT.xlsx
+++ b/BackTest/2019-11-14 BackTest BAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>78255.22483519162</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>78255.22483519162</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>284</v>
@@ -521,7 +521,7 @@
         <v>78255.22483519162</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>284</v>
@@ -562,7 +562,7 @@
         <v>78265.22483519162</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>284</v>
@@ -603,10 +603,14 @@
         <v>78265.22483519162</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>285</v>
+      </c>
+      <c r="J6" t="n">
+        <v>285</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -636,11 +640,19 @@
         <v>80465.22483519162</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>285</v>
+      </c>
+      <c r="J7" t="n">
+        <v>285</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -669,15 +681,19 @@
         <v>80465.22483519162</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>286</v>
       </c>
       <c r="J8" t="n">
-        <v>286</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+        <v>285</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -706,17 +722,17 @@
         <v>80465.22483519162</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>286</v>
       </c>
       <c r="J9" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -747,15 +763,17 @@
         <v>80295.22483519162</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>286</v>
+      </c>
       <c r="J10" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -786,7 +804,7 @@
         <v>80297.02483519162</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>285</v>
@@ -794,7 +812,11 @@
       <c r="J11" t="n">
         <v>285</v>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -823,15 +845,17 @@
         <v>80297.02483519162</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>286</v>
+      </c>
       <c r="J12" t="n">
         <v>285</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -862,7 +886,7 @@
         <v>80297.02483519162</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>286</v>
@@ -872,7 +896,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -903,11 +927,19 @@
         <v>80101.02483519162</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>286</v>
+      </c>
+      <c r="J14" t="n">
+        <v>285</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -936,11 +968,19 @@
         <v>80101.02483519162</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>285</v>
+      </c>
+      <c r="J15" t="n">
+        <v>285</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -969,7 +1009,7 @@
         <v>78216.85283519162</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>285</v>
@@ -977,7 +1017,11 @@
       <c r="J16" t="n">
         <v>285</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1006,17 +1050,15 @@
         <v>80174.02483519162</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>284</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>285</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1047,7 +1089,7 @@
         <v>80174.02483519162</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>285</v>
@@ -1057,7 +1099,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1088,15 +1130,17 @@
         <v>80198.87323519163</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>285</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1125,7 +1169,7 @@
         <v>79398.87323519163</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>286</v>
@@ -1135,7 +1179,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1166,7 +1210,7 @@
         <v>83399.47843519163</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>283</v>
@@ -1207,7 +1251,7 @@
         <v>81199.47843519163</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>285</v>
@@ -1248,7 +1292,7 @@
         <v>81199.47843519163</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>284</v>
@@ -1289,11 +1333,9 @@
         <v>81312.94523519163</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>284</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>285</v>
       </c>
@@ -2266,7 +2308,7 @@
         <v>94746.46273519163</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
@@ -2422,7 +2464,7 @@
         <v>77447.33193519163</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
@@ -2500,7 +2542,7 @@
         <v>80882.33193519163</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
@@ -2578,7 +2620,7 @@
         <v>81244.96953519163</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
@@ -2656,7 +2698,7 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
@@ -2734,7 +2776,7 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
@@ -2773,7 +2815,7 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
@@ -2812,7 +2854,7 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
@@ -2851,7 +2893,7 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
@@ -2890,7 +2932,7 @@
         <v>79501.60713519163</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
@@ -2929,7 +2971,7 @@
         <v>80176.60713519163</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
@@ -2968,7 +3010,7 @@
         <v>80094.88543519164</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
@@ -3046,7 +3088,7 @@
         <v>80096.58543519164</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
@@ -3085,7 +3127,7 @@
         <v>80374.82823519164</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
@@ -3124,7 +3166,7 @@
         <v>80376.52823519164</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
@@ -3202,7 +3244,7 @@
         <v>80376.52823519164</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
@@ -4801,7 +4843,7 @@
         <v>137798.3152351917</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
@@ -4809,15 +4851,13 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.061666666666667</v>
-      </c>
-      <c r="M114" t="n">
-        <v>1.007042253521127</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4842,11 +4882,17 @@
         <v>171042.1960351916</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>285</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4875,11 +4921,17 @@
         <v>162359.4336351916</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>285</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4908,11 +4960,17 @@
         <v>162347.9754351916</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>285</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4941,11 +4999,17 @@
         <v>162057.1458351917</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>285</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4974,11 +5038,17 @@
         <v>162057.1458351917</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>285</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5007,11 +5077,17 @@
         <v>162068.6040351916</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>285</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5043,8 +5119,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>285</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5076,8 +5158,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>285</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5109,8 +5197,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>285</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5142,8 +5236,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>285</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5175,8 +5275,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>285</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5208,8 +5314,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>285</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5241,8 +5353,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>285</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5274,8 +5392,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>285</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5307,8 +5431,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>285</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5340,8 +5470,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>285</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5373,8 +5509,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>285</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5406,8 +5548,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>285</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5439,8 +5587,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>285</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5472,8 +5626,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>285</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5505,8 +5665,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>285</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5538,8 +5704,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>285</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5571,8 +5743,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>285</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5604,8 +5782,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>285</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5637,8 +5821,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>285</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5670,8 +5860,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>285</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5700,15 +5896,23 @@
         <v>194562.9762351917</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>285</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>1.061666666666667</v>
+      </c>
+      <c r="M141" t="n">
+        <v>1.003521126760563</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5964,7 +6168,7 @@
         <v>198716.5643351917</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5997,7 +6201,7 @@
         <v>182982.8949351917</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6096,7 +6300,7 @@
         <v>182982.8949351917</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6129,7 +6333,7 @@
         <v>185989.9884351917</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6162,7 +6366,7 @@
         <v>178560.7819351917</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6195,7 +6399,7 @@
         <v>178341.2576351917</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6228,7 +6432,7 @@
         <v>178341.2576351917</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6261,7 +6465,7 @@
         <v>176335.3476351917</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6294,7 +6498,7 @@
         <v>177599.8277351916</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6327,7 +6531,7 @@
         <v>178315.1735351917</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6360,7 +6564,7 @@
         <v>178482.3244351917</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6393,7 +6597,7 @@
         <v>178482.3244351917</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6426,7 +6630,7 @@
         <v>178482.3244351917</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6459,7 +6663,7 @@
         <v>178482.3244351917</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6492,7 +6696,7 @@
         <v>178482.3244351917</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6525,7 +6729,7 @@
         <v>178482.3244351917</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6624,7 +6828,7 @@
         <v>178384.0848351917</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6657,7 +6861,7 @@
         <v>178384.0848351917</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6690,7 +6894,7 @@
         <v>178384.0848351917</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6899,6 +7103,6 @@
       <c r="M177" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-14 BackTest BAT.xlsx
+++ b/BackTest/2019-11-14 BackTest BAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>78255.22483519162</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -763,11 +763,9 @@
         <v>80295.22483519162</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>286</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>285</v>
       </c>
@@ -804,11 +802,9 @@
         <v>80297.02483519162</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>285</v>
       </c>
@@ -845,11 +841,9 @@
         <v>80297.02483519162</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>286</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>285</v>
       </c>
@@ -886,11 +880,9 @@
         <v>80297.02483519162</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>286</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>285</v>
       </c>
@@ -927,11 +919,9 @@
         <v>80101.02483519162</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>286</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>285</v>
       </c>
@@ -968,11 +958,9 @@
         <v>80101.02483519162</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>285</v>
       </c>
@@ -1009,11 +997,9 @@
         <v>78216.85283519162</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>285</v>
       </c>
@@ -1050,9 +1036,11 @@
         <v>80174.02483519162</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>284</v>
+      </c>
       <c r="J17" t="n">
         <v>285</v>
       </c>
@@ -1130,9 +1118,11 @@
         <v>80198.87323519163</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>285</v>
+      </c>
       <c r="J19" t="n">
         <v>285</v>
       </c>
@@ -1169,11 +1159,9 @@
         <v>79398.87323519163</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>286</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>285</v>
       </c>
@@ -1292,11 +1280,9 @@
         <v>81199.47843519163</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>284</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>285</v>
       </c>
@@ -1333,9 +1319,11 @@
         <v>81312.94523519163</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>284</v>
+      </c>
       <c r="J24" t="n">
         <v>285</v>
       </c>
@@ -1372,9 +1360,11 @@
         <v>80463.99433519163</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>285</v>
+      </c>
       <c r="J25" t="n">
         <v>285</v>
       </c>
@@ -1411,9 +1401,11 @@
         <v>80474.45443519163</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>284</v>
+      </c>
       <c r="J26" t="n">
         <v>285</v>
       </c>
@@ -2191,7 +2183,7 @@
         <v>94746.46273519163</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
@@ -2199,11 +2191,11 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>1.026578947368421</v>
       </c>
       <c r="M46" t="inlineStr"/>
     </row>
@@ -2230,17 +2222,11 @@
         <v>94746.46273519163</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>285</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2269,17 +2255,11 @@
         <v>94746.46273519163</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>285</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2308,17 +2288,11 @@
         <v>94746.46273519163</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>285</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2347,17 +2321,11 @@
         <v>77371.33193519163</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>285</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2386,17 +2354,11 @@
         <v>77371.33193519163</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>285</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2425,17 +2387,11 @@
         <v>77447.33193519163</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>285</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2464,17 +2420,11 @@
         <v>77447.33193519163</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>285</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2503,17 +2453,11 @@
         <v>82182.33193519163</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>285</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2542,17 +2486,11 @@
         <v>80882.33193519163</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>285</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2581,17 +2519,11 @@
         <v>81285.33193519163</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>285</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2620,17 +2552,11 @@
         <v>81244.96953519163</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>285</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2659,17 +2585,11 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>285</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2698,17 +2618,11 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>285</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2737,17 +2651,11 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>285</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2776,17 +2684,11 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>285</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2815,17 +2717,11 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>285</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2854,17 +2750,11 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>285</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2893,17 +2783,11 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>285</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2932,17 +2816,11 @@
         <v>79501.60713519163</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>285</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2971,17 +2849,11 @@
         <v>80176.60713519163</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>285</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3010,17 +2882,11 @@
         <v>80094.88543519164</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>285</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3049,17 +2915,11 @@
         <v>80096.58543519164</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>285</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3088,17 +2948,11 @@
         <v>80096.58543519164</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>285</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3130,14 +2984,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>285</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3169,14 +3017,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>285</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3208,14 +3050,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>285</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3247,14 +3083,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>285</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3286,14 +3116,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>285</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3325,14 +3149,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>285</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3364,14 +3182,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>285</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3403,14 +3215,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>285</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3442,14 +3248,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>285</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3481,14 +3281,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>285</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3520,14 +3314,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>285</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3559,14 +3347,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>285</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3598,14 +3380,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>285</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3637,14 +3413,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>285</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3676,14 +3446,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>285</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3715,14 +3479,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>285</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3754,14 +3512,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>285</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3793,14 +3545,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>285</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3832,14 +3578,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>285</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3871,14 +3611,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>285</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3910,14 +3644,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>285</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3949,14 +3677,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>285</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3988,14 +3710,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>285</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4027,14 +3743,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>285</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4066,14 +3776,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>285</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4105,14 +3809,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>285</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4144,14 +3842,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>285</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4183,14 +3875,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>285</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4222,14 +3908,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>285</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4261,14 +3941,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>285</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4300,14 +3974,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>285</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4339,14 +4007,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>285</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4378,14 +4040,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>285</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4417,14 +4073,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>285</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4456,14 +4106,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>285</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4495,14 +4139,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>285</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4534,14 +4172,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>285</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4573,14 +4205,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>285</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4612,14 +4238,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>285</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4651,14 +4271,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>285</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4690,14 +4304,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>285</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4729,14 +4337,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>285</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4768,14 +4370,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>285</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4807,14 +4403,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>285</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4846,14 +4436,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>285</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4885,14 +4469,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>285</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4924,14 +4502,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>285</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4963,14 +4535,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>285</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5002,14 +4568,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>285</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5041,14 +4601,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>285</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5080,14 +4634,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>285</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5119,14 +4667,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>285</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5158,14 +4700,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>285</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5197,14 +4733,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>285</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5236,14 +4766,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>285</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5275,14 +4799,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>285</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5314,14 +4832,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>285</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5353,14 +4865,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>285</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5392,14 +4898,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>285</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5431,14 +4931,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>285</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5470,14 +4964,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>285</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5509,14 +4997,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>285</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5548,14 +5030,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>285</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5587,14 +5063,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>285</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5626,14 +5096,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>285</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5665,14 +5129,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>285</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5704,14 +5162,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>285</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5743,14 +5195,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>285</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5782,14 +5228,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>285</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5821,14 +5261,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>285</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5860,14 +5294,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>285</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5896,23 +5324,15 @@
         <v>194562.9762351917</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>285</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
-        <v>1.061666666666667</v>
-      </c>
-      <c r="M141" t="n">
-        <v>1.003521126760563</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6300,7 +5720,7 @@
         <v>182982.8949351917</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6333,7 +5753,7 @@
         <v>185989.9884351917</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6366,7 +5786,7 @@
         <v>178560.7819351917</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6399,7 +5819,7 @@
         <v>178341.2576351917</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6432,7 +5852,7 @@
         <v>178341.2576351917</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6465,7 +5885,7 @@
         <v>176335.3476351917</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6498,7 +5918,7 @@
         <v>177599.8277351916</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6531,7 +5951,7 @@
         <v>178315.1735351917</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6564,7 +5984,7 @@
         <v>178482.3244351917</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6597,7 +6017,7 @@
         <v>178482.3244351917</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6630,7 +6050,7 @@
         <v>178482.3244351917</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6663,7 +6083,7 @@
         <v>178482.3244351917</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6696,7 +6116,7 @@
         <v>178482.3244351917</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6729,7 +6149,7 @@
         <v>178482.3244351917</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -7103,6 +6523,6 @@
       <c r="M177" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-14 BackTest BAT.xlsx
+++ b/BackTest/2019-11-14 BackTest BAT.xlsx
@@ -451,7 +451,7 @@
         <v>78255.22483519162</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -681,11 +681,9 @@
         <v>80465.22483519162</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>286</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>285</v>
       </c>
@@ -722,11 +720,9 @@
         <v>80465.22483519162</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>286</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>285</v>
       </c>
@@ -1036,11 +1032,9 @@
         <v>80174.02483519162</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>284</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>285</v>
       </c>
@@ -1077,11 +1071,9 @@
         <v>80174.02483519162</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>285</v>
       </c>
@@ -1118,11 +1110,9 @@
         <v>80198.87323519163</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>285</v>
       </c>
@@ -1198,11 +1188,9 @@
         <v>83399.47843519163</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>285</v>
       </c>
@@ -1239,11 +1227,9 @@
         <v>81199.47843519163</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>285</v>
       </c>
@@ -1319,11 +1305,9 @@
         <v>81312.94523519163</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>284</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>285</v>
       </c>
@@ -1360,11 +1344,9 @@
         <v>80463.99433519163</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>285</v>
       </c>
@@ -1401,11 +1383,9 @@
         <v>80474.45443519163</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>284</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>285</v>
       </c>
@@ -2183,7 +2163,7 @@
         <v>94746.46273519163</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
@@ -2191,11 +2171,11 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.026578947368421</v>
+        <v>1</v>
       </c>
       <c r="M46" t="inlineStr"/>
     </row>
@@ -2222,11 +2202,17 @@
         <v>94746.46273519163</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>285</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2255,11 +2241,17 @@
         <v>94746.46273519163</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>285</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2288,11 +2280,17 @@
         <v>94746.46273519163</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>285</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2321,11 +2319,17 @@
         <v>77371.33193519163</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>285</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2354,11 +2358,17 @@
         <v>77371.33193519163</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>285</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2387,11 +2397,17 @@
         <v>77447.33193519163</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>285</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2420,11 +2436,17 @@
         <v>77447.33193519163</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>285</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2453,11 +2475,17 @@
         <v>82182.33193519163</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>285</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2486,11 +2514,17 @@
         <v>80882.33193519163</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>285</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2519,11 +2553,17 @@
         <v>81285.33193519163</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>285</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2552,11 +2592,17 @@
         <v>81244.96953519163</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>285</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2585,11 +2631,17 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>285</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2618,11 +2670,17 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>285</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2651,11 +2709,17 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>285</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2684,11 +2748,17 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>285</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2717,11 +2787,17 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>285</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2750,11 +2826,17 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>285</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2783,11 +2865,17 @@
         <v>79504.60713519163</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>285</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2816,11 +2904,17 @@
         <v>79501.60713519163</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>285</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2849,11 +2943,17 @@
         <v>80176.60713519163</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>285</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2882,11 +2982,17 @@
         <v>80094.88543519164</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>285</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2915,11 +3021,17 @@
         <v>80096.58543519164</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>285</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2948,11 +3060,17 @@
         <v>80096.58543519164</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>285</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2984,8 +3102,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>285</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3017,8 +3141,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>285</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3050,8 +3180,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>285</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3083,8 +3219,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>285</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3116,8 +3258,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>285</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3149,8 +3297,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>285</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3182,8 +3336,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>285</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3215,8 +3375,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>285</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3248,8 +3414,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>285</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3281,8 +3453,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>285</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3314,8 +3492,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>285</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3347,8 +3531,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>285</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3380,8 +3570,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>285</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3413,8 +3609,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>285</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3446,8 +3648,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>285</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3479,8 +3687,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>285</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3512,8 +3726,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>285</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3545,8 +3765,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>285</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3578,8 +3804,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>285</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3611,8 +3843,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>285</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3644,8 +3882,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>285</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3677,8 +3921,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>285</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3710,8 +3960,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>285</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3743,8 +3999,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>285</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3776,8 +4038,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>285</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3809,8 +4077,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>285</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3842,8 +4116,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>285</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3875,8 +4155,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>285</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3908,8 +4194,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>285</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3941,8 +4233,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>285</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3974,8 +4272,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>285</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4007,8 +4311,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>285</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4040,8 +4350,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>285</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4073,8 +4389,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>285</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4106,8 +4428,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>285</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4139,8 +4467,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>285</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4172,8 +4506,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>285</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4205,8 +4545,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>285</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4238,8 +4584,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>285</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4271,8 +4623,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>285</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4304,8 +4662,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>285</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4337,8 +4701,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>285</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4370,8 +4740,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>285</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4403,8 +4779,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>285</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4436,8 +4818,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>285</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4469,8 +4857,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>285</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4499,15 +4893,23 @@
         <v>162359.4336351916</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>285</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>1.058157894736842</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1.003521126760563</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4763,7 +5165,7 @@
         <v>185391.9689351917</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4796,7 +5198,7 @@
         <v>193101.3530351917</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5159,7 +5561,7 @@
         <v>198226.2168351917</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5192,7 +5594,7 @@
         <v>206589.5638351917</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5225,7 +5627,7 @@
         <v>199399.2958351917</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5258,7 +5660,7 @@
         <v>199399.2958351917</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5291,7 +5693,7 @@
         <v>194231.0307351917</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5324,7 +5726,7 @@
         <v>194562.9762351917</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5357,7 +5759,7 @@
         <v>198379.7231351917</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5390,7 +5792,7 @@
         <v>198379.7231351917</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5423,7 +5825,7 @@
         <v>198379.7231351917</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5456,7 +5858,7 @@
         <v>198379.7231351917</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5489,7 +5891,7 @@
         <v>200945.8770351917</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5522,7 +5924,7 @@
         <v>198716.5643351917</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5555,7 +5957,7 @@
         <v>198716.5643351917</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5588,7 +5990,7 @@
         <v>198716.5643351917</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5621,7 +6023,7 @@
         <v>182982.8949351917</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5654,7 +6056,7 @@
         <v>182982.8949351917</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5687,7 +6089,7 @@
         <v>182982.8949351917</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5720,7 +6122,7 @@
         <v>182982.8949351917</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5753,7 +6155,7 @@
         <v>185989.9884351917</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5786,7 +6188,7 @@
         <v>178560.7819351917</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5819,7 +6221,7 @@
         <v>178341.2576351917</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5885,7 +6287,7 @@
         <v>176335.3476351917</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6083,7 +6485,7 @@
         <v>178482.3244351917</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6149,7 +6551,7 @@
         <v>178482.3244351917</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6248,7 +6650,7 @@
         <v>178384.0848351917</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6281,7 +6683,7 @@
         <v>178384.0848351917</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6314,7 +6716,7 @@
         <v>178384.0848351917</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6347,7 +6749,7 @@
         <v>177250.9373351917</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6380,7 +6782,7 @@
         <v>177250.9373351917</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6413,7 +6815,7 @@
         <v>177250.9373351917</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6446,7 +6848,7 @@
         <v>177250.9373351917</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6479,7 +6881,7 @@
         <v>177250.9373351917</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6512,7 +6914,7 @@
         <v>185342.7068351917</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>

--- a/BackTest/2019-11-14 BackTest BAT.xlsx
+++ b/BackTest/2019-11-14 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M177"/>
+  <dimension ref="A1:L177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>13148.7336</v>
       </c>
       <c r="G2" t="n">
-        <v>78255.22483519162</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>44811.5667</v>
       </c>
       <c r="G3" t="n">
-        <v>78255.22483519162</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>284</v>
       </c>
       <c r="I3" t="n">
         <v>284</v>
       </c>
-      <c r="J3" t="n">
-        <v>284</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>153.202</v>
       </c>
       <c r="G4" t="n">
-        <v>78255.22483519162</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>284</v>
       </c>
       <c r="I4" t="n">
         <v>284</v>
       </c>
-      <c r="J4" t="n">
-        <v>284</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>78265.22483519162</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>284</v>
       </c>
       <c r="I5" t="n">
         <v>284</v>
       </c>
-      <c r="J5" t="n">
-        <v>284</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +583,19 @@
         <v>5720</v>
       </c>
       <c r="G6" t="n">
-        <v>78265.22483519162</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>285</v>
       </c>
       <c r="I6" t="n">
         <v>285</v>
       </c>
-      <c r="J6" t="n">
-        <v>285</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,26 +617,23 @@
         <v>2200</v>
       </c>
       <c r="G7" t="n">
-        <v>80465.22483519162</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>285</v>
       </c>
       <c r="I7" t="n">
         <v>285</v>
       </c>
-      <c r="J7" t="n">
-        <v>285</v>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -678,24 +655,23 @@
         <v>7940</v>
       </c>
       <c r="G8" t="n">
-        <v>80465.22483519162</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>285</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>286</v>
+      </c>
+      <c r="I8" t="n">
+        <v>285</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -717,24 +693,23 @@
         <v>4.4364</v>
       </c>
       <c r="G9" t="n">
-        <v>80465.22483519162</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>285</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>286</v>
+      </c>
+      <c r="I9" t="n">
+        <v>285</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -756,24 +731,21 @@
         <v>170</v>
       </c>
       <c r="G10" t="n">
-        <v>80295.22483519162</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>285</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>285</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -795,24 +767,23 @@
         <v>1.8</v>
       </c>
       <c r="G11" t="n">
-        <v>80297.02483519162</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>285</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>285</v>
+      </c>
+      <c r="I11" t="n">
+        <v>285</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -834,24 +805,23 @@
         <v>1000</v>
       </c>
       <c r="G12" t="n">
-        <v>80297.02483519162</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>285</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>286</v>
+      </c>
+      <c r="I12" t="n">
+        <v>285</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -873,24 +843,23 @@
         <v>3070</v>
       </c>
       <c r="G13" t="n">
-        <v>80297.02483519162</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>285</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>286</v>
+      </c>
+      <c r="I13" t="n">
+        <v>285</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -912,24 +881,23 @@
         <v>196</v>
       </c>
       <c r="G14" t="n">
-        <v>80101.02483519162</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>285</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>286</v>
+      </c>
+      <c r="I14" t="n">
+        <v>285</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -951,24 +919,21 @@
         <v>804</v>
       </c>
       <c r="G15" t="n">
-        <v>80101.02483519162</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>285</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>285</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -990,24 +955,21 @@
         <v>1884.172</v>
       </c>
       <c r="G16" t="n">
-        <v>78216.85283519162</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>285</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>285</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1029,24 +991,23 @@
         <v>1957.172</v>
       </c>
       <c r="G17" t="n">
-        <v>80174.02483519162</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>285</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>284</v>
+      </c>
+      <c r="I17" t="n">
+        <v>285</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1068,24 +1029,21 @@
         <v>1465.3137</v>
       </c>
       <c r="G18" t="n">
-        <v>80174.02483519162</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>285</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>285</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1107,24 +1065,21 @@
         <v>24.8484</v>
       </c>
       <c r="G19" t="n">
-        <v>80198.87323519163</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>285</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>285</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1146,24 +1101,21 @@
         <v>800</v>
       </c>
       <c r="G20" t="n">
-        <v>79398.87323519163</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>285</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>285</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1185,24 +1137,23 @@
         <v>4000.6052</v>
       </c>
       <c r="G21" t="n">
-        <v>83399.47843519163</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>285</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>283</v>
+      </c>
+      <c r="I21" t="n">
+        <v>285</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1224,24 +1175,21 @@
         <v>2200</v>
       </c>
       <c r="G22" t="n">
-        <v>81199.47843519163</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>285</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>285</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1263,24 +1211,23 @@
         <v>5400</v>
       </c>
       <c r="G23" t="n">
-        <v>81199.47843519163</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>285</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>284</v>
+      </c>
+      <c r="I23" t="n">
+        <v>285</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1302,24 +1249,21 @@
         <v>113.4668</v>
       </c>
       <c r="G24" t="n">
-        <v>81312.94523519163</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>285</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>285</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1341,24 +1285,21 @@
         <v>848.9509</v>
       </c>
       <c r="G25" t="n">
-        <v>80463.99433519163</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>285</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>285</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1380,24 +1321,21 @@
         <v>10.4601</v>
       </c>
       <c r="G26" t="n">
-        <v>80474.45443519163</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>285</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>285</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1419,24 +1357,21 @@
         <v>1780</v>
       </c>
       <c r="G27" t="n">
-        <v>82254.45443519163</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>285</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>285</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1458,24 +1393,21 @@
         <v>2470</v>
       </c>
       <c r="G28" t="n">
-        <v>84724.45443519163</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>285</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>285</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1497,24 +1429,21 @@
         <v>1.8</v>
       </c>
       <c r="G29" t="n">
-        <v>84726.25443519163</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>285</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>285</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1536,24 +1465,21 @@
         <v>10400</v>
       </c>
       <c r="G30" t="n">
-        <v>84726.25443519163</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>285</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>285</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1575,24 +1501,21 @@
         <v>5200.0167</v>
       </c>
       <c r="G31" t="n">
-        <v>89926.27113519164</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>285</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>285</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1614,24 +1537,21 @@
         <v>8149.26</v>
       </c>
       <c r="G32" t="n">
-        <v>89926.27113519164</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>285</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>285</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1653,24 +1573,21 @@
         <v>5.2084</v>
       </c>
       <c r="G33" t="n">
-        <v>89921.06273519163</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>285</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>285</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1692,24 +1609,21 @@
         <v>8.3978</v>
       </c>
       <c r="G34" t="n">
-        <v>89921.06273519163</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>285</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>285</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1731,24 +1645,21 @@
         <v>3.6</v>
       </c>
       <c r="G35" t="n">
-        <v>89917.46273519163</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>285</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>285</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1770,24 +1681,21 @@
         <v>3110</v>
       </c>
       <c r="G36" t="n">
-        <v>93027.46273519163</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>285</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>285</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1809,24 +1717,21 @@
         <v>18712.4246</v>
       </c>
       <c r="G37" t="n">
-        <v>93027.46273519163</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>285</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>285</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1848,24 +1753,21 @@
         <v>1622.4606</v>
       </c>
       <c r="G38" t="n">
-        <v>93027.46273519163</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>285</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>285</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1887,24 +1789,21 @@
         <v>1244</v>
       </c>
       <c r="G39" t="n">
-        <v>94271.46273519163</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>285</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>285</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1926,24 +1825,21 @@
         <v>673</v>
       </c>
       <c r="G40" t="n">
-        <v>94271.46273519163</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>285</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>285</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1965,24 +1861,21 @@
         <v>130</v>
       </c>
       <c r="G41" t="n">
-        <v>94271.46273519163</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>285</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>285</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2004,24 +1897,21 @@
         <v>0.3995</v>
       </c>
       <c r="G42" t="n">
-        <v>94271.46273519163</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>285</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>285</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2043,24 +1933,21 @@
         <v>475</v>
       </c>
       <c r="G43" t="n">
-        <v>94746.46273519163</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>285</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>285</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2082,24 +1969,21 @@
         <v>3350</v>
       </c>
       <c r="G44" t="n">
-        <v>94746.46273519163</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>285</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>285</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2121,24 +2005,21 @@
         <v>3.1633</v>
       </c>
       <c r="G45" t="n">
-        <v>94746.46273519163</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>285</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>285</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2160,24 +2041,21 @@
         <v>90.083</v>
       </c>
       <c r="G46" t="n">
-        <v>94746.46273519163</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>285</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>285</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2199,24 +2077,21 @@
         <v>60.4924</v>
       </c>
       <c r="G47" t="n">
-        <v>94746.46273519163</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>285</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>285</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2238,24 +2113,21 @@
         <v>1636.3928</v>
       </c>
       <c r="G48" t="n">
-        <v>94746.46273519163</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>285</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>285</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2277,24 +2149,21 @@
         <v>4155.3174</v>
       </c>
       <c r="G49" t="n">
-        <v>94746.46273519163</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>285</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>285</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2316,24 +2185,21 @@
         <v>17375.1308</v>
       </c>
       <c r="G50" t="n">
-        <v>77371.33193519163</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>285</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>285</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2355,24 +2221,21 @@
         <v>2820.3952</v>
       </c>
       <c r="G51" t="n">
-        <v>77371.33193519163</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>285</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>285</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2394,24 +2257,21 @@
         <v>76</v>
       </c>
       <c r="G52" t="n">
-        <v>77447.33193519163</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>285</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>285</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2433,24 +2293,21 @@
         <v>282.7399</v>
       </c>
       <c r="G53" t="n">
-        <v>77447.33193519163</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>285</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>285</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2472,24 +2329,21 @@
         <v>4735</v>
       </c>
       <c r="G54" t="n">
-        <v>82182.33193519163</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>285</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>285</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2511,24 +2365,21 @@
         <v>1300</v>
       </c>
       <c r="G55" t="n">
-        <v>80882.33193519163</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>285</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>285</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2550,24 +2401,21 @@
         <v>403</v>
       </c>
       <c r="G56" t="n">
-        <v>81285.33193519163</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>285</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>285</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2589,24 +2437,21 @@
         <v>40.3624</v>
       </c>
       <c r="G57" t="n">
-        <v>81244.96953519163</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>285</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>285</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2628,24 +2473,21 @@
         <v>1740.3624</v>
       </c>
       <c r="G58" t="n">
-        <v>79504.60713519163</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>285</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>285</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2667,24 +2509,21 @@
         <v>2086.0523</v>
       </c>
       <c r="G59" t="n">
-        <v>79504.60713519163</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>285</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>285</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2706,24 +2545,21 @@
         <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>79504.60713519163</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>285</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>285</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2745,24 +2581,21 @@
         <v>11.6152</v>
       </c>
       <c r="G61" t="n">
-        <v>79504.60713519163</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>285</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>285</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2784,24 +2617,21 @@
         <v>800</v>
       </c>
       <c r="G62" t="n">
-        <v>79504.60713519163</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>285</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>285</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2823,24 +2653,21 @@
         <v>491.9965</v>
       </c>
       <c r="G63" t="n">
-        <v>79504.60713519163</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>285</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>285</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2862,24 +2689,21 @@
         <v>1390.6297</v>
       </c>
       <c r="G64" t="n">
-        <v>79504.60713519163</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>285</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>285</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2901,24 +2725,21 @@
         <v>3</v>
       </c>
       <c r="G65" t="n">
-        <v>79501.60713519163</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>285</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>285</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2940,24 +2761,21 @@
         <v>675</v>
       </c>
       <c r="G66" t="n">
-        <v>80176.60713519163</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>285</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>285</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2979,24 +2797,21 @@
         <v>81.7217</v>
       </c>
       <c r="G67" t="n">
-        <v>80094.88543519164</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>285</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>285</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3018,24 +2833,21 @@
         <v>1.7</v>
       </c>
       <c r="G68" t="n">
-        <v>80096.58543519164</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>285</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>285</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3057,24 +2869,21 @@
         <v>21.186</v>
       </c>
       <c r="G69" t="n">
-        <v>80096.58543519164</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>285</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>285</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3096,24 +2905,21 @@
         <v>278.2428</v>
       </c>
       <c r="G70" t="n">
-        <v>80374.82823519164</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>285</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>285</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3135,24 +2941,21 @@
         <v>1.7</v>
       </c>
       <c r="G71" t="n">
-        <v>80376.52823519164</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>285</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>285</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3174,24 +2977,21 @@
         <v>89.0528</v>
       </c>
       <c r="G72" t="n">
-        <v>80376.52823519164</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>285</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>285</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3213,24 +3013,21 @@
         <v>35.009</v>
       </c>
       <c r="G73" t="n">
-        <v>80376.52823519164</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>285</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>285</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3252,24 +3049,21 @@
         <v>16570.1232</v>
       </c>
       <c r="G74" t="n">
-        <v>96946.65143519164</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>285</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>285</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3291,24 +3085,21 @@
         <v>479.937</v>
       </c>
       <c r="G75" t="n">
-        <v>96466.71443519164</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>285</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>285</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3330,24 +3121,21 @@
         <v>12.0232</v>
       </c>
       <c r="G76" t="n">
-        <v>96466.71443519164</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>285</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>285</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3369,24 +3157,21 @@
         <v>3396.47</v>
       </c>
       <c r="G77" t="n">
-        <v>93070.24443519163</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>285</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>285</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3408,24 +3193,21 @@
         <v>12.0232</v>
       </c>
       <c r="G78" t="n">
-        <v>93082.26763519163</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>285</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>285</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3447,24 +3229,21 @@
         <v>7118.6412</v>
       </c>
       <c r="G79" t="n">
-        <v>85963.62643519163</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>285</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>285</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3486,24 +3265,21 @@
         <v>100</v>
       </c>
       <c r="G80" t="n">
-        <v>85963.62643519163</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>285</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>285</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3525,24 +3301,21 @@
         <v>300</v>
       </c>
       <c r="G81" t="n">
-        <v>85963.62643519163</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>285</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>285</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3564,24 +3337,21 @@
         <v>12.2286</v>
       </c>
       <c r="G82" t="n">
-        <v>85951.39783519163</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>285</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>285</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3603,24 +3373,21 @@
         <v>16479.085</v>
       </c>
       <c r="G83" t="n">
-        <v>69472.31283519164</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>285</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>285</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3642,24 +3409,21 @@
         <v>409.049</v>
       </c>
       <c r="G84" t="n">
-        <v>69472.31283519164</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>285</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>285</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3681,24 +3445,21 @@
         <v>1636.7484</v>
       </c>
       <c r="G85" t="n">
-        <v>69472.31283519164</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>285</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>285</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3720,24 +3481,21 @@
         <v>3230</v>
       </c>
       <c r="G86" t="n">
-        <v>72702.31283519164</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>285</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>285</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3759,24 +3517,21 @@
         <v>30.1517</v>
       </c>
       <c r="G87" t="n">
-        <v>72702.31283519164</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>285</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>285</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3798,24 +3553,21 @@
         <v>1730</v>
       </c>
       <c r="G88" t="n">
-        <v>72702.31283519164</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>285</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>285</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3837,24 +3589,21 @@
         <v>4449.4956</v>
       </c>
       <c r="G89" t="n">
-        <v>72702.31283519164</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>285</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>285</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3876,24 +3625,21 @@
         <v>7985.1315</v>
       </c>
       <c r="G90" t="n">
-        <v>72702.31283519164</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>285</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>285</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3915,24 +3661,21 @@
         <v>8875.309499999999</v>
       </c>
       <c r="G91" t="n">
-        <v>72702.31283519164</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>285</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>285</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3954,24 +3697,21 @@
         <v>215</v>
       </c>
       <c r="G92" t="n">
-        <v>72917.31283519164</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>285</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>285</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3993,24 +3733,21 @@
         <v>2.1173</v>
       </c>
       <c r="G93" t="n">
-        <v>72917.31283519164</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>285</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>285</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4032,24 +3769,21 @@
         <v>683</v>
       </c>
       <c r="G94" t="n">
-        <v>72917.31283519164</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>285</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>285</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4071,24 +3805,21 @@
         <v>250</v>
       </c>
       <c r="G95" t="n">
-        <v>72667.31283519164</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>285</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>285</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4110,24 +3841,21 @@
         <v>201</v>
       </c>
       <c r="G96" t="n">
-        <v>72868.31283519164</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>285</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>285</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4149,24 +3877,21 @@
         <v>402</v>
       </c>
       <c r="G97" t="n">
-        <v>72868.31283519164</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>285</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>285</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4188,24 +3913,21 @@
         <v>597</v>
       </c>
       <c r="G98" t="n">
-        <v>72868.31283519164</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>285</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>285</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4227,24 +3949,21 @@
         <v>3398.98</v>
       </c>
       <c r="G99" t="n">
-        <v>69469.33283519164</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>285</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>285</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4266,24 +3985,21 @@
         <v>2588.6612</v>
       </c>
       <c r="G100" t="n">
-        <v>72057.99403519164</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>285</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>285</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4305,24 +4021,21 @@
         <v>5792.7749</v>
       </c>
       <c r="G101" t="n">
-        <v>72057.99403519164</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>285</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>285</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4344,24 +4057,21 @@
         <v>3653.4303</v>
       </c>
       <c r="G102" t="n">
-        <v>72057.99403519164</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>285</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>285</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4383,24 +4093,21 @@
         <v>695.2283</v>
       </c>
       <c r="G103" t="n">
-        <v>72753.22233519165</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>285</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>285</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4422,24 +4129,21 @@
         <v>2833.9595</v>
       </c>
       <c r="G104" t="n">
-        <v>72753.22233519165</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>285</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>285</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4461,24 +4165,21 @@
         <v>2330.8657</v>
       </c>
       <c r="G105" t="n">
-        <v>72753.22233519165</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>285</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>285</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4500,24 +4201,21 @@
         <v>2260.0275</v>
       </c>
       <c r="G106" t="n">
-        <v>72753.22233519165</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>285</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>285</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4539,24 +4237,21 @@
         <v>4918.783333333334</v>
       </c>
       <c r="G107" t="n">
-        <v>77672.00566852499</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>285</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>285</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4578,24 +4273,21 @@
         <v>4.4662</v>
       </c>
       <c r="G108" t="n">
-        <v>77667.53946852499</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>285</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>285</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4617,24 +4309,21 @@
         <v>11589.21416666667</v>
       </c>
       <c r="G109" t="n">
-        <v>89256.75363519166</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>285</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>285</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4656,24 +4345,21 @@
         <v>29221.9386</v>
       </c>
       <c r="G110" t="n">
-        <v>118478.6922351917</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>285</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>285</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4695,24 +4381,21 @@
         <v>511.265</v>
       </c>
       <c r="G111" t="n">
-        <v>117967.4272351917</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>285</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>285</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4734,24 +4417,21 @@
         <v>5365.11</v>
       </c>
       <c r="G112" t="n">
-        <v>123332.5372351917</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>285</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>285</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4773,24 +4453,21 @@
         <v>14465.778</v>
       </c>
       <c r="G113" t="n">
-        <v>137798.3152351917</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>285</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>285</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4812,24 +4489,21 @@
         <v>0.0001</v>
       </c>
       <c r="G114" t="n">
-        <v>137798.3152351917</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>285</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>285</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4851,24 +4525,21 @@
         <v>33243.8808</v>
       </c>
       <c r="G115" t="n">
-        <v>171042.1960351916</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>285</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>285</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4890,26 +4561,21 @@
         <v>8682.7624</v>
       </c>
       <c r="G116" t="n">
-        <v>162359.4336351916</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>285</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1.058157894736842</v>
-      </c>
-      <c r="M116" t="n">
-        <v>1.003521126760563</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>285</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4931,18 +4597,21 @@
         <v>11.4582</v>
       </c>
       <c r="G117" t="n">
-        <v>162347.9754351916</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>285</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4964,18 +4633,21 @@
         <v>290.8296</v>
       </c>
       <c r="G118" t="n">
-        <v>162057.1458351917</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>285</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4997,18 +4669,21 @@
         <v>368.7898</v>
       </c>
       <c r="G119" t="n">
-        <v>162057.1458351917</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>285</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5030,18 +4705,21 @@
         <v>11.4582</v>
       </c>
       <c r="G120" t="n">
-        <v>162068.6040351916</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>285</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5063,18 +4741,21 @@
         <v>3653.4303</v>
       </c>
       <c r="G121" t="n">
-        <v>162068.6040351916</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>285</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5096,18 +4777,21 @@
         <v>24261.7464</v>
       </c>
       <c r="G122" t="n">
-        <v>186330.3504351916</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>285</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5129,18 +4813,21 @@
         <v>5014.5843</v>
       </c>
       <c r="G123" t="n">
-        <v>186330.3504351916</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>285</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5162,18 +4849,21 @@
         <v>938.3815</v>
       </c>
       <c r="G124" t="n">
-        <v>185391.9689351917</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>285</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5195,18 +4885,21 @@
         <v>7709.3841</v>
       </c>
       <c r="G125" t="n">
-        <v>193101.3530351917</v>
-      </c>
-      <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>285</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5228,18 +4921,21 @@
         <v>315.1446</v>
       </c>
       <c r="G126" t="n">
-        <v>192786.2084351917</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>285</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5261,18 +4957,21 @@
         <v>694</v>
       </c>
       <c r="G127" t="n">
-        <v>192092.2084351917</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>285</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5294,18 +4993,21 @@
         <v>5761.1734</v>
       </c>
       <c r="G128" t="n">
-        <v>192092.2084351917</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>285</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5327,18 +5029,21 @@
         <v>2508.0091</v>
       </c>
       <c r="G129" t="n">
-        <v>192092.2084351917</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>285</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5360,18 +5065,21 @@
         <v>3953.6599</v>
       </c>
       <c r="G130" t="n">
-        <v>192092.2084351917</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>285</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5393,18 +5101,21 @@
         <v>3587.0321</v>
       </c>
       <c r="G131" t="n">
-        <v>192092.2084351917</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>285</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5426,18 +5137,21 @@
         <v>2106.1171</v>
       </c>
       <c r="G132" t="n">
-        <v>192092.2084351917</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>285</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5459,18 +5173,21 @@
         <v>9990.7803</v>
       </c>
       <c r="G133" t="n">
-        <v>192092.2084351917</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>285</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5492,18 +5209,21 @@
         <v>8711.167799999999</v>
       </c>
       <c r="G134" t="n">
-        <v>192092.2084351917</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>285</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5525,18 +5245,21 @@
         <v>241.018</v>
       </c>
       <c r="G135" t="n">
-        <v>192333.2264351917</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>285</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5558,18 +5281,21 @@
         <v>5892.9904</v>
       </c>
       <c r="G136" t="n">
-        <v>198226.2168351917</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>285</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5591,18 +5317,21 @@
         <v>8363.347</v>
       </c>
       <c r="G137" t="n">
-        <v>206589.5638351917</v>
-      </c>
-      <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>285</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5624,18 +5353,23 @@
         <v>7190.268</v>
       </c>
       <c r="G138" t="n">
-        <v>199399.2958351917</v>
-      </c>
-      <c r="H138" t="n">
         <v>2</v>
       </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>285</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1.061666666666667</v>
+      </c>
       <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>1.003521126760563</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5657,18 +5391,15 @@
         <v>663.8909</v>
       </c>
       <c r="G139" t="n">
-        <v>199399.2958351917</v>
-      </c>
-      <c r="H139" t="n">
         <v>2</v>
       </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5690,18 +5421,15 @@
         <v>5168.2651</v>
       </c>
       <c r="G140" t="n">
-        <v>194231.0307351917</v>
-      </c>
-      <c r="H140" t="n">
         <v>2</v>
       </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5723,18 +5451,15 @@
         <v>331.9455</v>
       </c>
       <c r="G141" t="n">
-        <v>194562.9762351917</v>
-      </c>
-      <c r="H141" t="n">
         <v>2</v>
       </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5756,18 +5481,15 @@
         <v>3816.7469</v>
       </c>
       <c r="G142" t="n">
-        <v>198379.7231351917</v>
-      </c>
-      <c r="H142" t="n">
         <v>2</v>
       </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5789,18 +5511,15 @@
         <v>7059.0729</v>
       </c>
       <c r="G143" t="n">
-        <v>198379.7231351917</v>
-      </c>
-      <c r="H143" t="n">
         <v>2</v>
       </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5822,18 +5541,15 @@
         <v>100</v>
       </c>
       <c r="G144" t="n">
-        <v>198379.7231351917</v>
-      </c>
-      <c r="H144" t="n">
         <v>2</v>
       </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5855,18 +5571,15 @@
         <v>3539.8892</v>
       </c>
       <c r="G145" t="n">
-        <v>198379.7231351917</v>
-      </c>
-      <c r="H145" t="n">
         <v>2</v>
       </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5888,18 +5601,15 @@
         <v>2566.1539</v>
       </c>
       <c r="G146" t="n">
-        <v>200945.8770351917</v>
-      </c>
-      <c r="H146" t="n">
         <v>2</v>
       </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5921,18 +5631,15 @@
         <v>2229.3127</v>
       </c>
       <c r="G147" t="n">
-        <v>198716.5643351917</v>
-      </c>
-      <c r="H147" t="n">
         <v>2</v>
       </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5954,18 +5661,15 @@
         <v>566.2455</v>
       </c>
       <c r="G148" t="n">
-        <v>198716.5643351917</v>
-      </c>
-      <c r="H148" t="n">
         <v>2</v>
       </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5987,18 +5691,15 @@
         <v>190</v>
       </c>
       <c r="G149" t="n">
-        <v>198716.5643351917</v>
-      </c>
-      <c r="H149" t="n">
         <v>2</v>
       </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6020,18 +5721,15 @@
         <v>15733.6694</v>
       </c>
       <c r="G150" t="n">
-        <v>182982.8949351917</v>
-      </c>
-      <c r="H150" t="n">
         <v>2</v>
       </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6053,18 +5751,15 @@
         <v>5164.9999</v>
       </c>
       <c r="G151" t="n">
-        <v>182982.8949351917</v>
-      </c>
-      <c r="H151" t="n">
         <v>2</v>
       </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6086,18 +5781,15 @@
         <v>329.2488</v>
       </c>
       <c r="G152" t="n">
-        <v>182982.8949351917</v>
-      </c>
-      <c r="H152" t="n">
         <v>2</v>
       </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6119,18 +5811,15 @@
         <v>1286.79</v>
       </c>
       <c r="G153" t="n">
-        <v>182982.8949351917</v>
-      </c>
-      <c r="H153" t="n">
         <v>2</v>
       </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6152,18 +5841,15 @@
         <v>3007.0935</v>
       </c>
       <c r="G154" t="n">
-        <v>185989.9884351917</v>
-      </c>
-      <c r="H154" t="n">
         <v>2</v>
       </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6185,18 +5871,15 @@
         <v>7429.2065</v>
       </c>
       <c r="G155" t="n">
-        <v>178560.7819351917</v>
-      </c>
-      <c r="H155" t="n">
         <v>2</v>
       </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6218,18 +5901,15 @@
         <v>219.5243</v>
       </c>
       <c r="G156" t="n">
-        <v>178341.2576351917</v>
-      </c>
-      <c r="H156" t="n">
         <v>2</v>
       </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6251,18 +5931,15 @@
         <v>5808.3677</v>
       </c>
       <c r="G157" t="n">
-        <v>178341.2576351917</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6284,18 +5961,15 @@
         <v>2005.91</v>
       </c>
       <c r="G158" t="n">
-        <v>176335.3476351917</v>
-      </c>
-      <c r="H158" t="n">
         <v>2</v>
       </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6317,18 +5991,15 @@
         <v>1264.4801</v>
       </c>
       <c r="G159" t="n">
-        <v>177599.8277351916</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6350,18 +6021,15 @@
         <v>715.3458000000001</v>
       </c>
       <c r="G160" t="n">
-        <v>178315.1735351917</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6383,18 +6051,15 @@
         <v>167.1509</v>
       </c>
       <c r="G161" t="n">
-        <v>178482.3244351917</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6416,18 +6081,15 @@
         <v>277.4905</v>
       </c>
       <c r="G162" t="n">
-        <v>178482.3244351917</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6449,18 +6111,15 @@
         <v>98.2396</v>
       </c>
       <c r="G163" t="n">
-        <v>178482.3244351917</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6482,18 +6141,15 @@
         <v>4804.8713</v>
       </c>
       <c r="G164" t="n">
-        <v>178482.3244351917</v>
-      </c>
-      <c r="H164" t="n">
         <v>2</v>
       </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6515,18 +6171,15 @@
         <v>3000</v>
       </c>
       <c r="G165" t="n">
-        <v>178482.3244351917</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6548,18 +6201,15 @@
         <v>625.2431</v>
       </c>
       <c r="G166" t="n">
-        <v>178482.3244351917</v>
-      </c>
-      <c r="H166" t="n">
         <v>2</v>
       </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6581,18 +6231,15 @@
         <v>1374.7569</v>
       </c>
       <c r="G167" t="n">
-        <v>178482.3244351917</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6614,18 +6261,15 @@
         <v>98.2396</v>
       </c>
       <c r="G168" t="n">
-        <v>178384.0848351917</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6647,18 +6291,15 @@
         <v>277.4905</v>
       </c>
       <c r="G169" t="n">
-        <v>178384.0848351917</v>
-      </c>
-      <c r="H169" t="n">
         <v>2</v>
       </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6680,18 +6321,15 @@
         <v>3990.128</v>
       </c>
       <c r="G170" t="n">
-        <v>178384.0848351917</v>
-      </c>
-      <c r="H170" t="n">
         <v>2</v>
       </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6713,18 +6351,15 @@
         <v>332.6224</v>
       </c>
       <c r="G171" t="n">
-        <v>178384.0848351917</v>
-      </c>
-      <c r="H171" t="n">
         <v>2</v>
       </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6746,18 +6381,15 @@
         <v>1133.1475</v>
       </c>
       <c r="G172" t="n">
-        <v>177250.9373351917</v>
-      </c>
-      <c r="H172" t="n">
         <v>2</v>
       </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6779,18 +6411,15 @@
         <v>3191.3508</v>
       </c>
       <c r="G173" t="n">
-        <v>177250.9373351917</v>
-      </c>
-      <c r="H173" t="n">
         <v>2</v>
       </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6812,18 +6441,15 @@
         <v>4144.7377</v>
       </c>
       <c r="G174" t="n">
-        <v>177250.9373351917</v>
-      </c>
-      <c r="H174" t="n">
         <v>2</v>
       </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6845,18 +6471,15 @@
         <v>190</v>
       </c>
       <c r="G175" t="n">
-        <v>177250.9373351917</v>
-      </c>
-      <c r="H175" t="n">
         <v>2</v>
       </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6878,18 +6501,15 @@
         <v>248.06</v>
       </c>
       <c r="G176" t="n">
-        <v>177250.9373351917</v>
-      </c>
-      <c r="H176" t="n">
         <v>2</v>
       </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6911,18 +6531,15 @@
         <v>8091.7695</v>
       </c>
       <c r="G177" t="n">
-        <v>185342.7068351917</v>
-      </c>
-      <c r="H177" t="n">
         <v>2</v>
       </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
